--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10620" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -193,19 +193,73 @@
     <t>ZAVALETA</t>
   </si>
   <si>
-    <t># 186</t>
+    <t>No depositado</t>
   </si>
   <si>
-    <t>no paso tarjeta</t>
+    <t>prueba</t>
   </si>
   <si>
-    <t># 188</t>
+    <t>DESTAJO</t>
   </si>
   <si>
-    <t># 198</t>
+    <t>Bnte Odelpa</t>
   </si>
   <si>
-    <t>no se ocupo</t>
+    <t>VINAGRE-CEBOLLA-CHILE-HIERVAS</t>
+  </si>
+  <si>
+    <t>NOMINA</t>
+  </si>
+  <si>
+    <t>sobrante</t>
+  </si>
+  <si>
+    <t>ALITAS</t>
+  </si>
+  <si>
+    <t>BOTARGAS</t>
+  </si>
+  <si>
+    <t>RES---LONGANIZA</t>
+  </si>
+  <si>
+    <t>RES   --CEBOLLA-AXIOTE-LECHUGA</t>
+  </si>
+  <si>
+    <t>SObrante</t>
+  </si>
+  <si>
+    <t>HUESO-CREMA-LONGANIZA</t>
+  </si>
+  <si>
+    <t>SERRANO--LACTEOS</t>
+  </si>
+  <si>
+    <t>#  1077</t>
+  </si>
+  <si>
+    <t>x precio</t>
+  </si>
+  <si>
+    <t># 1120</t>
+  </si>
+  <si>
+    <t>#  1124</t>
+  </si>
+  <si>
+    <t># 1158</t>
+  </si>
+  <si>
+    <t>lo dejaron</t>
+  </si>
+  <si>
+    <t># 1161</t>
+  </si>
+  <si>
+    <t>#  1162</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMONES-SALCHICHONERIA</t>
   </si>
 </sst>
 </file>
@@ -220,7 +274,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,14 +449,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF9933FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF990033"/>
       <name val="Calibri"/>
@@ -560,8 +606,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF6600FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +674,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="57">
     <border>
@@ -1320,16 +1402,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1337,20 +1413,11 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1363,31 +1430,12 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1408,7 +1456,6 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1426,28 +1473,14 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,14 +1490,8 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1472,16 +1499,10 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,58 +1515,30 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1567,19 +1560,16 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1597,28 +1587,7 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1628,22 +1597,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1651,7 +1605,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1659,44 +1612,23 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1704,7 +1636,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1724,35 +1656,35 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="44" fontId="39" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="40" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="40" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="37" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1762,28 +1694,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="39" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,22 +1719,208 @@
     <xf numFmtId="44" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="36" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="42" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="43" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1821,6 +1930,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FF6600FF"/>
       <color rgb="FF800000"/>
     </mruColors>
   </colors>
@@ -2529,1872 +2640,1946 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="133" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="216" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="217" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="1"/>
-      <c r="C1" s="227" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="11"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="B3" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="204"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="I3" s="205"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="207"/>
+      <c r="H4" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31" t="s">
+      <c r="I4" s="209"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="34"/>
+      <c r="Q4" s="188"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="24">
         <v>44488</v>
       </c>
-      <c r="C5" s="37">
-        <v>0</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39">
+      <c r="C5" s="215">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27">
         <v>44488</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="213">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="29">
+        <v>44488</v>
+      </c>
+      <c r="I5" s="214">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <f>P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="31"/>
+    </row>
+    <row r="6" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24">
+        <v>44489</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="27">
+        <v>44489</v>
+      </c>
+      <c r="F6" s="28">
         <v>23537</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="41">
-        <v>44488</v>
-      </c>
-      <c r="I5" s="42">
-        <v>3360</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="44">
-        <v>0</v>
-      </c>
-      <c r="N5" s="45">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="46">
-        <f>N5+M5+L5+I5+C5</f>
-        <v>3360</v>
-      </c>
-      <c r="Q5" s="18">
-        <f>P5-F5</f>
-        <v>-20177</v>
-      </c>
-      <c r="R5" s="47"/>
-    </row>
-    <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36">
+      <c r="G6" s="2"/>
+      <c r="H6" s="36">
         <v>44489</v>
       </c>
-      <c r="C6" s="37">
-        <v>0</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="39">
+      <c r="I6" s="30">
+        <v>360</v>
+      </c>
+      <c r="J6" s="37">
         <v>44489</v>
       </c>
-      <c r="F6" s="40">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="49">
+      <c r="K6" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="39">
+        <v>3000</v>
+      </c>
+      <c r="M6" s="32">
+        <v>17500</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="34">
+        <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
+        <v>20860</v>
+      </c>
+      <c r="Q6" s="220">
+        <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
+        <v>-2677</v>
+      </c>
+      <c r="R6" s="218" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>44490</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="27">
+        <v>44490</v>
+      </c>
+      <c r="F7" s="28">
+        <v>25791</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="36">
+        <v>44490</v>
+      </c>
+      <c r="I7" s="30">
+        <v>305</v>
+      </c>
+      <c r="J7" s="37">
         <v>44489</v>
       </c>
-      <c r="I6" s="42">
-        <v>0</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="44">
-        <v>0</v>
-      </c>
-      <c r="N6" s="45">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="46">
-        <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18">
-        <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36">
-        <v>44490</v>
-      </c>
-      <c r="C7" s="37">
-        <v>0</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="39">
-        <v>44490</v>
-      </c>
-      <c r="F7" s="40">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="49">
-        <v>44490</v>
-      </c>
-      <c r="I7" s="42">
-        <v>0</v>
-      </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="44">
-        <v>0</v>
-      </c>
-      <c r="N7" s="45">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
+      <c r="K7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="39">
+        <v>3000</v>
+      </c>
+      <c r="M7" s="32">
+        <v>15670</v>
+      </c>
+      <c r="N7" s="33">
+        <v>8843</v>
+      </c>
+      <c r="O7" s="222" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="34">
+        <f t="shared" si="0"/>
+        <v>27818</v>
+      </c>
+      <c r="Q7" s="242">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="3"/>
+        <v>2027</v>
+      </c>
+      <c r="R7" s="241" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24">
         <v>44491</v>
       </c>
-      <c r="C8" s="37">
-        <v>0</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="39">
+      <c r="C8" s="25">
+        <v>206.5</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="27">
         <v>44491</v>
       </c>
-      <c r="F8" s="40">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="49">
+      <c r="F8" s="28">
+        <v>28671</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="36">
         <v>44491</v>
       </c>
-      <c r="I8" s="42">
-        <v>0</v>
-      </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="44">
-        <v>0</v>
-      </c>
-      <c r="N8" s="45">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
+      <c r="I8" s="30">
+        <v>78</v>
+      </c>
+      <c r="J8" s="43">
+        <v>44491</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="39">
+        <v>3300</v>
+      </c>
+      <c r="M8" s="32">
+        <v>15650</v>
+      </c>
+      <c r="N8" s="33">
+        <v>6044</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="34">
+        <f t="shared" si="0"/>
+        <v>25278.5</v>
+      </c>
+      <c r="Q8" s="219">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="47"/>
+        <v>-3392.5</v>
+      </c>
+      <c r="R8" s="218" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
         <v>44492</v>
       </c>
-      <c r="C9" s="37">
-        <v>0</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="39">
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="27">
         <v>44492</v>
       </c>
-      <c r="F9" s="40">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="49">
+      <c r="F9" s="28">
+        <v>34076</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="36">
         <v>44492</v>
       </c>
-      <c r="I9" s="42">
-        <v>0</v>
-      </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="44">
-        <v>0</v>
-      </c>
-      <c r="N9" s="45">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="46">
+      <c r="I9" s="30">
+        <v>336.5</v>
+      </c>
+      <c r="J9" s="37">
+        <v>44492</v>
+      </c>
+      <c r="K9" s="238" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="239">
+        <v>5400</v>
+      </c>
+      <c r="M9" s="32">
+        <v>18050</v>
+      </c>
+      <c r="N9" s="33">
+        <v>12838</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="34">
         <f>N9+M9+L9+I9+C9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
+        <v>36624.5</v>
+      </c>
+      <c r="Q9" s="240">
         <f>P9-F9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="3"/>
+        <v>2548.5</v>
+      </c>
+      <c r="R9" s="241" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
         <v>44493</v>
       </c>
-      <c r="C10" s="37">
-        <v>0</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="39">
+      <c r="C10" s="25">
+        <v>326</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="27">
         <v>44493</v>
       </c>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="49">
+      <c r="F10" s="28">
+        <v>28074</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="36">
         <v>44493</v>
       </c>
-      <c r="I10" s="42">
-        <v>0</v>
-      </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="44">
-        <v>0</v>
-      </c>
-      <c r="N10" s="45">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="I10" s="30">
+        <v>580</v>
+      </c>
+      <c r="J10" s="37">
+        <v>44493</v>
+      </c>
+      <c r="K10" s="225" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="45">
+        <v>7500</v>
+      </c>
+      <c r="M10" s="32">
+        <v>8500</v>
+      </c>
+      <c r="N10" s="33">
+        <v>9392</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="34">
+        <f t="shared" ref="P10:P13" si="2">N10+M10+L10+I10+C10</f>
+        <v>26298</v>
+      </c>
+      <c r="Q10" s="219">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="47"/>
+        <v>-1776</v>
+      </c>
+      <c r="R10" s="218" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
         <v>44494</v>
       </c>
-      <c r="C11" s="37">
-        <v>0</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="39">
+      <c r="C11" s="25">
+        <f>11509+3550+6269</f>
+        <v>21328</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="27">
         <v>44494</v>
       </c>
-      <c r="F11" s="40">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="49">
+      <c r="F11" s="28">
+        <v>28522</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="36">
         <v>44494</v>
       </c>
-      <c r="I11" s="42">
-        <v>0</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="44">
-        <v>0</v>
-      </c>
-      <c r="N11" s="45">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="46">
-        <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
+      <c r="I11" s="30">
+        <v>1476</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="226"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>5718</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="34">
+        <f t="shared" si="2"/>
+        <v>28522</v>
+      </c>
+      <c r="Q11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="31" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
         <v>44495</v>
       </c>
-      <c r="C12" s="37">
-        <v>0</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="39">
+      <c r="C12" s="25">
+        <f>13731+330</f>
+        <v>14061</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="27">
         <v>44495</v>
       </c>
-      <c r="F12" s="40">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="49">
+      <c r="F12" s="28">
+        <v>31646</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="36">
         <v>44495</v>
       </c>
-      <c r="I12" s="42">
-        <v>0</v>
-      </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="44">
-        <v>0</v>
-      </c>
-      <c r="N12" s="45">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11">
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="32">
+        <v>7341</v>
+      </c>
+      <c r="N12" s="33">
+        <v>10244</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="34">
+        <f t="shared" si="2"/>
+        <v>31646</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36">
+      <c r="R12" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
         <v>44496</v>
       </c>
-      <c r="C13" s="37">
-        <v>0</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="39">
+      <c r="C13" s="25">
+        <v>2890</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="27">
         <v>44496</v>
       </c>
-      <c r="F13" s="40">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="28">
+        <v>27800</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="36">
         <v>44496</v>
       </c>
-      <c r="I13" s="42">
-        <v>0</v>
-      </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="44">
-        <v>0</v>
-      </c>
-      <c r="N13" s="45">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="18">
+      <c r="I13" s="30">
+        <v>1186.3499999999999</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="32">
+        <f>17000+3300</f>
+        <v>20300</v>
+      </c>
+      <c r="N13" s="33">
+        <v>4440</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="34">
+        <f t="shared" si="2"/>
+        <v>28816.35</v>
+      </c>
+      <c r="Q13" s="242">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="64"/>
+        <v>1016.3499999999985</v>
+      </c>
+      <c r="R13" s="241" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
         <v>44497</v>
       </c>
-      <c r="C14" s="37">
-        <v>0</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="39">
+      <c r="C14" s="25">
+        <v>4910</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="27">
         <v>44497</v>
       </c>
-      <c r="F14" s="40">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="49">
+      <c r="F14" s="28">
+        <v>32444</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="36">
         <v>44497</v>
       </c>
-      <c r="I14" s="42">
-        <v>0</v>
-      </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="44">
-        <v>0</v>
-      </c>
-      <c r="N14" s="45">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18">
+      <c r="I14" s="30">
+        <v>53</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="32">
+        <v>24300</v>
+      </c>
+      <c r="N14" s="33">
+        <v>3358</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="34">
+        <f t="shared" ref="P10:P14" si="3">N14+M14+L14+I14+C14</f>
+        <v>32621</v>
+      </c>
+      <c r="Q14" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="64"/>
-    </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36">
+        <v>177</v>
+      </c>
+      <c r="R14" s="241" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
         <v>44498</v>
       </c>
-      <c r="C15" s="37">
-        <v>0</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="39">
+      <c r="C15" s="25">
+        <v>9347.5</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="27">
         <v>44498</v>
       </c>
-      <c r="F15" s="40">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="49">
+      <c r="F15" s="28">
+        <v>31261</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="36">
         <v>44498</v>
       </c>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="44">
-        <v>0</v>
-      </c>
-      <c r="N15" s="45">
-        <v>0</v>
-      </c>
-      <c r="P15" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="18">
+      <c r="I15" s="30">
+        <v>110</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="32">
+        <v>11000</v>
+      </c>
+      <c r="N15" s="33">
+        <v>8331</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" si="0"/>
+        <v>28788.5</v>
+      </c>
+      <c r="Q15" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="3"/>
+        <v>-2472.5</v>
+      </c>
+      <c r="R15" s="218" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
         <v>44499</v>
       </c>
-      <c r="C16" s="37">
-        <v>0</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="39">
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="27">
         <v>44499</v>
       </c>
-      <c r="F16" s="40">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="49">
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="36">
         <v>44499</v>
       </c>
-      <c r="I16" s="42">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="44">
-        <v>0</v>
-      </c>
-      <c r="N16" s="45">
-        <v>0</v>
-      </c>
-      <c r="P16" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24">
         <v>44500</v>
       </c>
-      <c r="C17" s="37">
-        <v>0</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="39">
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="27">
         <v>44500</v>
       </c>
-      <c r="F17" s="40">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="49">
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="36">
         <v>44500</v>
       </c>
-      <c r="I17" s="42">
-        <v>0</v>
-      </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="44">
-        <v>0</v>
-      </c>
-      <c r="N17" s="45">
-        <v>0</v>
-      </c>
-      <c r="P17" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
+      <c r="I17" s="30">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
         <v>44501</v>
       </c>
-      <c r="C18" s="37">
-        <v>0</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="39">
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="27">
         <v>44501</v>
       </c>
-      <c r="F18" s="40">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="49">
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="36">
         <v>44501</v>
       </c>
-      <c r="I18" s="42">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="44">
-        <v>0</v>
-      </c>
-      <c r="N18" s="45">
-        <v>0</v>
-      </c>
-      <c r="P18" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
+      <c r="I18" s="30">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="31"/>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
         <v>44502</v>
       </c>
-      <c r="C19" s="37">
-        <v>0</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="39">
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="27">
         <v>44502</v>
       </c>
-      <c r="F19" s="40">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="49">
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="36">
         <v>44502</v>
       </c>
-      <c r="I19" s="42">
-        <v>0</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="44">
-        <v>0</v>
-      </c>
-      <c r="N19" s="45">
-        <v>0</v>
-      </c>
-      <c r="P19" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11">
+      <c r="I19" s="30">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R19" s="3"/>
+      <c r="R19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24">
         <v>44503</v>
       </c>
-      <c r="C20" s="37">
-        <v>0</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="39">
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="27">
         <v>44503</v>
       </c>
-      <c r="F20" s="40">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="49">
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="36">
         <v>44503</v>
       </c>
-      <c r="I20" s="42">
-        <v>0</v>
-      </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="44">
-        <v>0</v>
-      </c>
-      <c r="N20" s="45">
-        <v>0</v>
-      </c>
-      <c r="P20" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
+      <c r="I20" s="30">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="31"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
         <v>44504</v>
       </c>
-      <c r="C21" s="37">
-        <v>0</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="39">
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="27">
         <v>44504</v>
       </c>
-      <c r="F21" s="40">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="49">
+      <c r="F21" s="28">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="36">
         <v>44504</v>
       </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="44">
-        <v>0</v>
-      </c>
-      <c r="N21" s="45">
-        <v>0</v>
-      </c>
-      <c r="P21" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11">
+      <c r="I21" s="30">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R21" s="3"/>
+      <c r="R21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24">
         <v>44505</v>
       </c>
-      <c r="C22" s="37">
-        <v>0</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="39">
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="27">
         <v>44505</v>
       </c>
-      <c r="F22" s="40">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="49">
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="36">
         <v>44505</v>
       </c>
-      <c r="I22" s="42">
-        <v>0</v>
-      </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="44">
-        <v>0</v>
-      </c>
-      <c r="N22" s="45">
-        <v>0</v>
-      </c>
-      <c r="P22" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11" t="s">
+      <c r="I22" s="30">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="3"/>
+      <c r="R22" s="31"/>
     </row>
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24">
         <v>44506</v>
       </c>
-      <c r="C23" s="37">
-        <v>0</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="39">
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="27">
         <v>44506</v>
       </c>
-      <c r="F23" s="40">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="49">
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="36">
         <v>44506</v>
       </c>
-      <c r="I23" s="42">
-        <v>0</v>
-      </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="44">
-        <v>0</v>
-      </c>
-      <c r="N23" s="45">
-        <v>0</v>
-      </c>
-      <c r="P23" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
+      <c r="I23" s="30">
+        <v>0</v>
+      </c>
+      <c r="J23" s="50"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R23" s="3"/>
+      <c r="R23" s="31"/>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24">
         <v>44507</v>
       </c>
-      <c r="C24" s="37">
-        <v>0</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="39">
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="27">
         <v>44507</v>
       </c>
-      <c r="F24" s="40">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="49">
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="36">
         <v>44507</v>
       </c>
-      <c r="I24" s="42">
-        <v>0</v>
-      </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="44">
-        <v>0</v>
-      </c>
-      <c r="N24" s="45">
-        <v>0</v>
-      </c>
-      <c r="P24" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="11">
+      <c r="I24" s="30">
+        <v>0</v>
+      </c>
+      <c r="J24" s="51"/>
+      <c r="K24" s="231"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R24" s="3"/>
+      <c r="R24" s="31"/>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="44">
-        <v>0</v>
-      </c>
-      <c r="N25" s="45">
-        <v>0</v>
-      </c>
-      <c r="P25" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="11">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="P25" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R25" s="3"/>
+      <c r="R25" s="31"/>
       <c r="S25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="44">
-        <v>0</v>
-      </c>
-      <c r="N26" s="45">
-        <v>0</v>
-      </c>
-      <c r="P26" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="11">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="47"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="44">
-        <v>0</v>
-      </c>
-      <c r="N27" s="45">
-        <v>0</v>
-      </c>
-      <c r="P27" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R27" s="3"/>
+      <c r="R27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="44">
-        <v>0</v>
-      </c>
-      <c r="N28" s="45">
-        <v>0</v>
-      </c>
-      <c r="P28" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="11">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="3"/>
+      <c r="R28" s="31"/>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="44">
-        <v>0</v>
-      </c>
-      <c r="N29" s="45">
-        <v>0</v>
-      </c>
-      <c r="P29" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="11">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="233"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="44">
-        <v>0</v>
-      </c>
-      <c r="N30" s="45">
-        <v>0</v>
-      </c>
-      <c r="P30" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="11">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R30" s="3"/>
+      <c r="R30" s="31"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="44">
-        <v>0</v>
-      </c>
-      <c r="N31" s="45">
-        <v>0</v>
-      </c>
-      <c r="P31" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="11">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="3"/>
+      <c r="R31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="44">
-        <v>0</v>
-      </c>
-      <c r="N32" s="45">
-        <v>0</v>
-      </c>
-      <c r="P32" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="11">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R32" s="3"/>
+      <c r="R32" s="31"/>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="44">
-        <v>0</v>
-      </c>
-      <c r="N33" s="45">
-        <v>0</v>
-      </c>
-      <c r="P33" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="11">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R33" s="3"/>
+      <c r="R33" s="31"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37">
-        <v>0</v>
-      </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="42">
-        <v>0</v>
-      </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="44">
-        <v>0</v>
-      </c>
-      <c r="N34" s="45">
-        <v>0</v>
-      </c>
-      <c r="P34" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="11">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
+      <c r="D34" s="64"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="30">
+        <v>0</v>
+      </c>
+      <c r="J34" s="60"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="31"/>
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37">
-        <v>0</v>
-      </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="42">
-        <v>0</v>
-      </c>
-      <c r="J35" s="86"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="44">
-        <v>0</v>
-      </c>
-      <c r="N35" s="45">
-        <v>0</v>
-      </c>
-      <c r="P35" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="11">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="30">
+        <v>0</v>
+      </c>
+      <c r="J35" s="60"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="R35" s="31"/>
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37">
-        <v>0</v>
-      </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="42">
-        <v>0</v>
-      </c>
-      <c r="J36" s="86"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
-      <c r="P36" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="11">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="30">
+        <v>0</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="234"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="P36" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="3"/>
+      <c r="R36" s="31"/>
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37">
-        <v>0</v>
-      </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="42">
-        <v>0</v>
-      </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="45"/>
-      <c r="P37" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="11">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+      <c r="D37" s="64"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="30">
+        <v>0</v>
+      </c>
+      <c r="J37" s="60"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="33"/>
+      <c r="P37" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37">
-        <v>0</v>
-      </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="42">
-        <v>0</v>
-      </c>
-      <c r="J38" s="86"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-      <c r="P38" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="11">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25">
+        <v>0</v>
+      </c>
+      <c r="D38" s="65"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="30">
+        <v>0</v>
+      </c>
+      <c r="J38" s="60"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="33"/>
+      <c r="P38" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="103">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="235"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="189">
         <f>SUM(M5:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="104">
+        <v>138311</v>
+      </c>
+      <c r="N39" s="191">
         <f>SUM(N5:N38)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="46">
+        <v>69208</v>
+      </c>
+      <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>3360</v>
-      </c>
-      <c r="Q39" s="11">
+        <v>287272.84999999998</v>
+      </c>
+      <c r="Q39" s="13">
         <f>SUM(Q5:Q38)</f>
-        <v>-20177</v>
+        <v>-4549.1500000000015</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="106"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="11"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="192"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="114"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="11"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="79"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="114"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="11"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="79"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="114"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="11"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="79"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="114"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="11"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="79"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="114"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="11"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="79"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="114"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="11"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="79"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="114"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="11"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="79"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="114"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="11"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="79"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="37">
-        <v>0</v>
-      </c>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="107"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="45"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="11"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="72"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="221"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="33"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="122" t="s">
+      <c r="B50" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="123">
+      <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="124"/>
-      <c r="E50" s="125" t="s">
+        <v>53069</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="126">
+      <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>23537</v>
-      </c>
-      <c r="G50" s="124"/>
-      <c r="H50" s="127" t="s">
+        <v>291822</v>
+      </c>
+      <c r="G50" s="88"/>
+      <c r="H50" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="128">
+      <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>3360</v>
-      </c>
-      <c r="J50" s="129"/>
-      <c r="K50" s="130" t="s">
+        <v>4484.8500000000004</v>
+      </c>
+      <c r="J50" s="93"/>
+      <c r="K50" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="131">
+      <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="11"/>
+        <v>22200</v>
+      </c>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="11"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="134"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="2"/>
-      <c r="H52" s="136" t="s">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="1"/>
+      <c r="H52" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="139">
+      <c r="I52" s="194"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="195">
         <f>I50+L50</f>
-        <v>3360</v>
-      </c>
-      <c r="L52" s="140"/>
-      <c r="M52" s="141">
+        <v>26684.85</v>
+      </c>
+      <c r="L52" s="196"/>
+      <c r="M52" s="197">
         <f>N39+M39</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="142"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="11"/>
+        <v>207519</v>
+      </c>
+      <c r="N52" s="198"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="143" t="s">
+      <c r="D53" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="143"/>
-      <c r="F53" s="144">
+      <c r="E53" s="174"/>
+      <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>20177</v>
-      </c>
-      <c r="I53" s="145"/>
-      <c r="J53" s="146"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="11"/>
+        <v>212068.15000000002</v>
+      </c>
+      <c r="I53" s="102"/>
+      <c r="J53" s="103"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="147" t="s">
+      <c r="D54" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="147"/>
-      <c r="F54" s="132">
-        <v>0</v>
-      </c>
-      <c r="I54" s="148" t="s">
+      <c r="E54" s="175"/>
+      <c r="F54" s="96">
+        <v>0</v>
+      </c>
+      <c r="I54" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="149"/>
-      <c r="K54" s="150">
+      <c r="J54" s="177"/>
+      <c r="K54" s="178">
         <f>F56+F57+F58</f>
-        <v>20177</v>
-      </c>
-      <c r="L54" s="151"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="11"/>
+        <v>212068.15000000002</v>
+      </c>
+      <c r="L54" s="179"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="152"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="153">
-        <v>0</v>
-      </c>
-      <c r="I55" s="154"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="157"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="105">
+        <v>0</v>
+      </c>
+      <c r="I55" s="106"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="236"/>
+      <c r="L55" s="108"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="134" t="s">
+      <c r="E56" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="132">
+      <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>20177</v>
-      </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="158" t="s">
+        <v>212068.15000000002</v>
+      </c>
+      <c r="H56" s="23"/>
+      <c r="I56" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="159"/>
-      <c r="K56" s="160">
+      <c r="J56" s="110"/>
+      <c r="K56" s="180">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="161"/>
+      <c r="L56" s="181"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="162" t="s">
+      <c r="D57" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="134" t="s">
+      <c r="E57" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="163">
+      <c r="F57" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="164"/>
-      <c r="D58" s="165" t="s">
+      <c r="C58" s="113"/>
+      <c r="D58" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="166"/>
-      <c r="F58" s="167">
-        <v>0</v>
-      </c>
-      <c r="I58" s="168" t="s">
+      <c r="E58" s="183"/>
+      <c r="F58" s="114">
+        <v>0</v>
+      </c>
+      <c r="I58" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="169"/>
-      <c r="K58" s="170">
+      <c r="J58" s="185"/>
+      <c r="K58" s="186">
         <f>K54+K56</f>
-        <v>20177</v>
-      </c>
-      <c r="L58" s="170"/>
+        <v>212068.15000000002</v>
+      </c>
+      <c r="L58" s="186"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C59" s="171"/>
-      <c r="D59" s="172"/>
-      <c r="E59" s="173"/>
-      <c r="F59" s="174"/>
-      <c r="J59" s="175"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="118"/>
+      <c r="J59" s="119"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="176"/>
-      <c r="J60" s="176"/>
-      <c r="K60" s="177"/>
-      <c r="L60" s="177"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="237"/>
+      <c r="L60" s="121"/>
     </row>
     <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="178"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="46"/>
-      <c r="I61" s="176"/>
-      <c r="J61" s="176"/>
-      <c r="K61" s="177"/>
-      <c r="L61" s="177"/>
-      <c r="M61" s="181"/>
-      <c r="N61" s="134"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="34"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="237"/>
+      <c r="L61" s="121"/>
+      <c r="M61" s="125"/>
+      <c r="N61" s="98"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="178"/>
-      <c r="C62" s="182"/>
-      <c r="E62" s="46"/>
-      <c r="M62" s="181"/>
-      <c r="N62" s="134"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="126"/>
+      <c r="E62" s="34"/>
+      <c r="M62" s="125"/>
+      <c r="N62" s="98"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="178"/>
-      <c r="C63" s="182"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="183"/>
-      <c r="L63" s="184"/>
-      <c r="M63" s="2"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="126"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="127"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="178"/>
-      <c r="C64" s="182"/>
-      <c r="E64" s="46"/>
-      <c r="M64" s="2"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="126"/>
+      <c r="E64" s="34"/>
+      <c r="M64" s="1"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="178"/>
-      <c r="C65" s="182"/>
-      <c r="D65" s="185"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="186"/>
-      <c r="M65" s="2"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="130"/>
+      <c r="M65" s="1"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D66" s="185"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="46"/>
-      <c r="M66" s="2"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="34"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="185"/>
-      <c r="E67" s="187"/>
-      <c r="F67" s="46"/>
-      <c r="M67" s="2"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="131"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="185"/>
-      <c r="E68" s="187"/>
-      <c r="F68" s="46"/>
-      <c r="M68" s="2"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="185"/>
-      <c r="E69" s="187"/>
-      <c r="F69" s="46"/>
-      <c r="M69" s="2"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="185"/>
-      <c r="E70" s="187"/>
-      <c r="F70" s="46"/>
-      <c r="M70" s="2"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="131"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="185"/>
-      <c r="E71" s="187"/>
-      <c r="F71" s="46"/>
-      <c r="M71" s="2"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="131"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="185"/>
-      <c r="E72" s="187"/>
-      <c r="F72" s="46"/>
-      <c r="M72" s="2"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="185"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="46"/>
-      <c r="M73" s="2"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="131"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D74" s="185"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="46"/>
-      <c r="M74" s="2"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="131"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="185"/>
-      <c r="E75" s="187"/>
-      <c r="F75" s="46"/>
-      <c r="M75" s="2"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="185"/>
-      <c r="E76" s="187"/>
-      <c r="F76" s="46"/>
-      <c r="M76" s="2"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="131"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D77" s="185"/>
-      <c r="E77" s="187"/>
-      <c r="F77" s="46"/>
+      <c r="D77" s="129"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="34"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="185"/>
-      <c r="E78" s="185"/>
-      <c r="F78" s="186"/>
+      <c r="D78" s="129"/>
+      <c r="E78" s="129"/>
+      <c r="F78" s="130"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="185"/>
-      <c r="E79" s="185"/>
-      <c r="F79" s="186"/>
+      <c r="D79" s="129"/>
+      <c r="E79" s="129"/>
+      <c r="F79" s="130"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="185"/>
-      <c r="E80" s="185"/>
-      <c r="F80" s="186"/>
+      <c r="D80" s="129"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -4404,12 +4589,11 @@
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:N52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.16" top="0.36" bottom="0.31" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4431,1304 +4615,1304 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="232" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="171" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="189" t="s">
+      <c r="E2" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="190" t="s">
+      <c r="F2" s="134" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="194">
+      <c r="A3" s="135"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="138">
         <f>C3-E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="191"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="195">
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="139">
         <f>F3+C4-E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="196"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="192"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="195">
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="139">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="195">
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="195">
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="195">
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="191"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="195">
+      <c r="A9" s="135"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
-      <c r="B10" s="192"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="195">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="196"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="140"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="191"/>
-      <c r="B11" s="197"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="195">
+      <c r="A11" s="135"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="198"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="195">
+      <c r="A12" s="142"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="198"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="195">
+      <c r="A13" s="142"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="198"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="195">
+      <c r="A14" s="142"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="198"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="195">
+      <c r="A15" s="142"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="198"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="195">
+      <c r="A16" s="142"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="195">
+      <c r="A17" s="142"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="195">
+      <c r="A18" s="142"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="195">
+      <c r="A19" s="142"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="198"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="195">
+      <c r="A20" s="142"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="198"/>
-      <c r="B21" s="197"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="195">
+      <c r="A21" s="142"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="198"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="195">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="196"/>
+      <c r="A22" s="142"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="140"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="195">
+      <c r="A23" s="142"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="198"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="195">
+      <c r="A24" s="142"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="198"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="195">
+      <c r="A25" s="142"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="198"/>
-      <c r="B26" s="197"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="195">
+      <c r="A26" s="142"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="198"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="195">
+      <c r="A27" s="142"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="198"/>
-      <c r="B28" s="197"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="195">
+      <c r="A28" s="142"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="198"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="195">
+      <c r="A29" s="142"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="198"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="195">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="196"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="140"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="198"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="195">
+      <c r="A31" s="142"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="198"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="195">
+      <c r="A32" s="142"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="198"/>
-      <c r="B33" s="197"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="195">
+      <c r="A33" s="142"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="198"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="195">
+      <c r="A34" s="142"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="198"/>
-      <c r="B35" s="197"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="195">
+      <c r="A35" s="142"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="198"/>
-      <c r="B36" s="197"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="195">
+      <c r="A36" s="142"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="198"/>
-      <c r="B37" s="197"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="195">
+      <c r="A37" s="142"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="198"/>
-      <c r="B38" s="197"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="198"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="195">
+      <c r="A38" s="142"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="198"/>
-      <c r="B39" s="197"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="195">
+      <c r="A39" s="142"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="198"/>
-      <c r="B40" s="197"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="195">
+      <c r="A40" s="142"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="198"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="195">
+      <c r="A41" s="142"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="198"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="195">
+      <c r="A42" s="142"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="198"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="195">
+      <c r="A43" s="142"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="198"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="195">
+      <c r="A44" s="142"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="198"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="198"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="195">
+      <c r="A45" s="142"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="198"/>
-      <c r="B46" s="197"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="198"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="195">
+      <c r="A46" s="142"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="198"/>
-      <c r="B47" s="197"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="195">
+      <c r="A47" s="142"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="198"/>
-      <c r="B48" s="197"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="195">
+      <c r="A48" s="142"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="198"/>
-      <c r="B49" s="197"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="195">
+      <c r="A49" s="142"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="198"/>
-      <c r="B50" s="197"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="195">
+      <c r="A50" s="142"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="198"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="195">
+      <c r="A51" s="142"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="198"/>
-      <c r="B52" s="197"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="195">
+      <c r="A52" s="142"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="198"/>
-      <c r="B53" s="197"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="195">
+      <c r="A53" s="142"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="191"/>
-      <c r="B54" s="197"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="198"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="195">
+      <c r="A54" s="135"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="191"/>
-      <c r="B55" s="197"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="198"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="195">
+      <c r="A55" s="135"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="191"/>
-      <c r="B56" s="197"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="198"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="195">
+      <c r="A56" s="135"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="198"/>
-      <c r="B57" s="197"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="198"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="195">
+      <c r="A57" s="142"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="198"/>
-      <c r="B58" s="197"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="198"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="195">
+      <c r="A58" s="142"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="198"/>
-      <c r="B59" s="197"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="195">
+      <c r="A59" s="142"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="191"/>
-      <c r="B60" s="197"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="198"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="195">
+      <c r="A60" s="135"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="191"/>
-      <c r="B61" s="197"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="198"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="195">
+      <c r="A61" s="135"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="191"/>
-      <c r="B62" s="197"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="198"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="195">
+      <c r="A62" s="135"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="199"/>
-      <c r="B63" s="200"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="198"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="195">
+      <c r="A63" s="143"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="199"/>
-      <c r="B64" s="200"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="195">
+      <c r="A64" s="143"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="199"/>
-      <c r="B65" s="200"/>
-      <c r="C65" s="201"/>
-      <c r="D65" s="198"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="195">
+      <c r="A65" s="143"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="199"/>
-      <c r="B66" s="200"/>
-      <c r="C66" s="201"/>
-      <c r="D66" s="198"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="195">
+      <c r="A66" s="143"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="199"/>
-      <c r="B67" s="200"/>
-      <c r="C67" s="201"/>
-      <c r="D67" s="198"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="195">
+      <c r="A67" s="143"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="199"/>
-      <c r="B68" s="200"/>
-      <c r="C68" s="201"/>
-      <c r="D68" s="198"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="195">
+      <c r="A68" s="143"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="199"/>
-      <c r="B69" s="200"/>
-      <c r="C69" s="201"/>
-      <c r="D69" s="198"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="195">
+      <c r="A69" s="143"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="142"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="139">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="199"/>
-      <c r="B70" s="200"/>
-      <c r="C70" s="201"/>
-      <c r="D70" s="198"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="195">
+      <c r="A70" s="143"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="142"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="199"/>
-      <c r="B71" s="200"/>
-      <c r="C71" s="201"/>
-      <c r="D71" s="198"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="195">
+      <c r="A71" s="143"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="199"/>
-      <c r="B72" s="200"/>
-      <c r="C72" s="201"/>
-      <c r="D72" s="198"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="195">
+      <c r="A72" s="143"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="199"/>
-      <c r="B73" s="200"/>
-      <c r="C73" s="201"/>
-      <c r="D73" s="198"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="195">
+      <c r="A73" s="143"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="199"/>
-      <c r="B74" s="200"/>
-      <c r="C74" s="201"/>
-      <c r="D74" s="198"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="195">
+      <c r="A74" s="143"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="199"/>
-      <c r="B75" s="200"/>
-      <c r="C75" s="201"/>
-      <c r="D75" s="198"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="195">
+      <c r="A75" s="143"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="199"/>
-      <c r="B76" s="200"/>
-      <c r="C76" s="201"/>
-      <c r="D76" s="198"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="195">
+      <c r="A76" s="143"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="199"/>
-      <c r="B77" s="200"/>
-      <c r="C77" s="201"/>
-      <c r="D77" s="198"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="195">
+      <c r="A77" s="143"/>
+      <c r="B77" s="144"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="199"/>
-      <c r="B78" s="200"/>
-      <c r="C78" s="201"/>
-      <c r="D78" s="198"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="195">
+      <c r="A78" s="143"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="199"/>
-      <c r="B79" s="200"/>
-      <c r="C79" s="201"/>
-      <c r="D79" s="198"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="195">
+      <c r="A79" s="143"/>
+      <c r="B79" s="144"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="199"/>
-      <c r="B80" s="200"/>
-      <c r="C80" s="201"/>
-      <c r="D80" s="198"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="195">
+      <c r="A80" s="143"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="142"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="202"/>
-      <c r="B81" s="203"/>
-      <c r="C81" s="204"/>
-      <c r="D81" s="205"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="195">
+      <c r="A81" s="146"/>
+      <c r="B81" s="147"/>
+      <c r="C81" s="148"/>
+      <c r="D81" s="149"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="202"/>
-      <c r="B82" s="203"/>
-      <c r="C82" s="204"/>
-      <c r="D82" s="205"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="195">
+      <c r="A82" s="146"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="149"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="202"/>
-      <c r="B83" s="203"/>
-      <c r="C83" s="204"/>
-      <c r="D83" s="205"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="195">
+      <c r="A83" s="146"/>
+      <c r="B83" s="147"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="149"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="202"/>
-      <c r="B84" s="203"/>
-      <c r="C84" s="204"/>
-      <c r="D84" s="205"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="195">
+      <c r="A84" s="146"/>
+      <c r="B84" s="147"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="149"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="202"/>
-      <c r="B85" s="203"/>
-      <c r="C85" s="204"/>
-      <c r="D85" s="205"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="195">
+      <c r="A85" s="146"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="149"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="202"/>
-      <c r="B86" s="203"/>
-      <c r="C86" s="204"/>
-      <c r="D86" s="205"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="195">
+      <c r="A86" s="146"/>
+      <c r="B86" s="147"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="149"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="199"/>
-      <c r="B87" s="200"/>
-      <c r="C87" s="201"/>
-      <c r="D87" s="206"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="195">
+      <c r="A87" s="143"/>
+      <c r="B87" s="144"/>
+      <c r="C87" s="145"/>
+      <c r="D87" s="150"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="199"/>
-      <c r="B88" s="200"/>
-      <c r="C88" s="201"/>
-      <c r="D88" s="206"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="195">
+      <c r="A88" s="143"/>
+      <c r="B88" s="144"/>
+      <c r="C88" s="145"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="199"/>
-      <c r="B89" s="200"/>
-      <c r="C89" s="201"/>
-      <c r="D89" s="206"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="195">
+      <c r="A89" s="143"/>
+      <c r="B89" s="144"/>
+      <c r="C89" s="145"/>
+      <c r="D89" s="150"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="199"/>
-      <c r="B90" s="200"/>
-      <c r="C90" s="201"/>
-      <c r="D90" s="206"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="195">
+      <c r="A90" s="143"/>
+      <c r="B90" s="144"/>
+      <c r="C90" s="145"/>
+      <c r="D90" s="150"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="199"/>
-      <c r="B91" s="200"/>
-      <c r="C91" s="201"/>
-      <c r="D91" s="206"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="195">
+      <c r="A91" s="143"/>
+      <c r="B91" s="144"/>
+      <c r="C91" s="145"/>
+      <c r="D91" s="150"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="199"/>
-      <c r="B92" s="200"/>
-      <c r="C92" s="201"/>
-      <c r="D92" s="206"/>
-      <c r="E92" s="99"/>
-      <c r="F92" s="195">
+      <c r="A92" s="143"/>
+      <c r="B92" s="144"/>
+      <c r="C92" s="145"/>
+      <c r="D92" s="150"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="199"/>
-      <c r="B93" s="200"/>
-      <c r="C93" s="201"/>
-      <c r="D93" s="206"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="195">
+      <c r="A93" s="143"/>
+      <c r="B93" s="144"/>
+      <c r="C93" s="145"/>
+      <c r="D93" s="150"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="199"/>
-      <c r="B94" s="200"/>
-      <c r="C94" s="201"/>
-      <c r="D94" s="206"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="195">
+      <c r="A94" s="143"/>
+      <c r="B94" s="144"/>
+      <c r="C94" s="145"/>
+      <c r="D94" s="150"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="199"/>
-      <c r="B95" s="200"/>
-      <c r="C95" s="201"/>
-      <c r="D95" s="206"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="195">
+      <c r="A95" s="143"/>
+      <c r="B95" s="144"/>
+      <c r="C95" s="145"/>
+      <c r="D95" s="150"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="199"/>
-      <c r="B96" s="200"/>
-      <c r="C96" s="201"/>
-      <c r="D96" s="206"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="195">
+      <c r="A96" s="143"/>
+      <c r="B96" s="144"/>
+      <c r="C96" s="145"/>
+      <c r="D96" s="150"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="207"/>
-      <c r="B97" s="208"/>
-      <c r="C97" s="209">
-        <v>0</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="209"/>
-      <c r="F97" s="195">
+      <c r="A97" s="151"/>
+      <c r="B97" s="152"/>
+      <c r="C97" s="153">
+        <v>0</v>
+      </c>
+      <c r="D97" s="154"/>
+      <c r="E97" s="153"/>
+      <c r="F97" s="139">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="134"/>
-      <c r="C98" s="2">
+      <c r="B98" s="98"/>
+      <c r="C98" s="1">
         <f>SUM(C3:C97)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="133"/>
-      <c r="E98" s="2">
+      <c r="D98" s="97"/>
+      <c r="E98" s="1">
         <f>SUM(E3:E97)</f>
         <v>0</v>
       </c>
-      <c r="F98" s="211">
+      <c r="F98" s="155">
         <f>F97</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="134"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="133"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="2"/>
+      <c r="B99" s="98"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="134"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="133"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="2"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="97"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101"/>
-      <c r="B101" s="35"/>
-      <c r="D101" s="35"/>
+      <c r="B101" s="23"/>
+      <c r="D101" s="23"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102"/>
-      <c r="B102" s="35"/>
-      <c r="D102" s="35"/>
+      <c r="B102" s="23"/>
+      <c r="D102" s="23"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103"/>
-      <c r="B103" s="35"/>
-      <c r="D103" s="35"/>
+      <c r="B103" s="23"/>
+      <c r="D103" s="23"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104"/>
-      <c r="B104" s="35"/>
-      <c r="D104" s="35"/>
+      <c r="B104" s="23"/>
+      <c r="D104" s="23"/>
       <c r="F104"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105"/>
-      <c r="B105" s="35"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="23"/>
+      <c r="D105" s="23"/>
       <c r="F105"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106"/>
-      <c r="B106" s="35"/>
-      <c r="D106" s="35"/>
+      <c r="B106" s="23"/>
+      <c r="D106" s="23"/>
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107"/>
-      <c r="B107" s="35"/>
-      <c r="D107" s="35"/>
+      <c r="B107" s="23"/>
+      <c r="D107" s="23"/>
       <c r="F107"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108"/>
-      <c r="B108" s="35"/>
-      <c r="D108" s="35"/>
+      <c r="B108" s="23"/>
+      <c r="D108" s="23"/>
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109"/>
-      <c r="B109" s="35"/>
-      <c r="D109" s="35"/>
+      <c r="B109" s="23"/>
+      <c r="D109" s="23"/>
       <c r="F109"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110"/>
-      <c r="B110" s="35"/>
-      <c r="D110" s="35"/>
+      <c r="B110" s="23"/>
+      <c r="D110" s="23"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111"/>
-      <c r="B111" s="35"/>
-      <c r="D111" s="35"/>
+      <c r="B111" s="23"/>
+      <c r="D111" s="23"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112"/>
-      <c r="B112" s="35"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="23"/>
+      <c r="D112" s="23"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113"/>
-      <c r="B113" s="35"/>
-      <c r="D113" s="35"/>
+      <c r="B113" s="23"/>
+      <c r="D113" s="23"/>
       <c r="E113"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114"/>
-      <c r="B114" s="35"/>
-      <c r="D114" s="35"/>
+      <c r="B114" s="23"/>
+      <c r="D114" s="23"/>
       <c r="E114"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115"/>
-      <c r="B115" s="35"/>
-      <c r="D115" s="35"/>
+      <c r="B115" s="23"/>
+      <c r="D115" s="23"/>
       <c r="E115"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116"/>
-      <c r="B116" s="35"/>
-      <c r="D116" s="35"/>
+      <c r="B116" s="23"/>
+      <c r="D116" s="23"/>
       <c r="E116"/>
       <c r="F116"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117"/>
-      <c r="B117" s="35"/>
-      <c r="D117" s="35"/>
+      <c r="B117" s="23"/>
+      <c r="D117" s="23"/>
       <c r="E117"/>
       <c r="F117"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118"/>
-      <c r="B118" s="35"/>
-      <c r="D118" s="35"/>
+      <c r="B118" s="23"/>
+      <c r="D118" s="23"/>
       <c r="E118"/>
       <c r="F118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="23"/>
+      <c r="D119" s="23"/>
       <c r="E119"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="35"/>
-      <c r="D120" s="35"/>
+      <c r="B120" s="23"/>
+      <c r="D120" s="23"/>
       <c r="E120"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="35"/>
-      <c r="D121" s="35"/>
+      <c r="B121" s="23"/>
+      <c r="D121" s="23"/>
       <c r="E121"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="35"/>
-      <c r="D122" s="35"/>
+      <c r="B122" s="23"/>
+      <c r="D122" s="23"/>
       <c r="E122"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="35"/>
-      <c r="D123" s="35"/>
+      <c r="B123" s="23"/>
+      <c r="D123" s="23"/>
       <c r="E123"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="35"/>
-      <c r="D124" s="35"/>
+      <c r="B124" s="23"/>
+      <c r="D124" s="23"/>
       <c r="E124"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="35"/>
-      <c r="D125" s="35"/>
+      <c r="B125" s="23"/>
+      <c r="D125" s="23"/>
       <c r="E125"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="23"/>
+      <c r="D126" s="23"/>
       <c r="E126"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="35"/>
-      <c r="D127" s="35"/>
+      <c r="B127" s="23"/>
+      <c r="D127" s="23"/>
       <c r="E127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="35"/>
+      <c r="B128" s="23"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="35"/>
+      <c r="B129" s="23"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="35"/>
-      <c r="D130" s="35"/>
+      <c r="B130" s="23"/>
+      <c r="D130" s="23"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="35"/>
+      <c r="B131" s="23"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="35"/>
+      <c r="B132" s="23"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="35"/>
+      <c r="B133" s="23"/>
     </row>
     <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="212"/>
+      <c r="C134" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5767,10 +5951,10 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="A23:G51"/>
+  <dimension ref="A23:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5789,179 +5973,179 @@
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="213"/>
-      <c r="B43" s="214" t="s">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="157"/>
+      <c r="B41" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="215"/>
-      <c r="D43" s="215"/>
-      <c r="E43" s="216"/>
-      <c r="F43" s="2"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="211"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="158">
+        <v>44498</v>
+      </c>
+      <c r="B42" s="159" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="160">
+        <v>94.83</v>
+      </c>
+      <c r="D42" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="101">
+        <v>0</v>
+      </c>
+      <c r="G42" s="172" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="158">
+        <v>44498</v>
+      </c>
+      <c r="B43" s="159" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="160">
+        <v>141.83000000000001</v>
+      </c>
+      <c r="D43" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="162" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="101">
+        <v>128</v>
+      </c>
+      <c r="G43" s="173"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="217">
-        <v>44490</v>
-      </c>
-      <c r="B44" s="218" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="219">
-        <v>84</v>
-      </c>
-      <c r="D44" s="220" t="s">
+      <c r="A44" s="158">
+        <v>44498</v>
+      </c>
+      <c r="B44" s="159" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="160">
+        <v>64</v>
+      </c>
+      <c r="D44" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="221" t="s">
+      <c r="E44" s="162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="101">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="158">
+        <v>44498</v>
+      </c>
+      <c r="B45" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="160">
+        <v>340.85</v>
+      </c>
+      <c r="D45" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="162" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="101">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="164"/>
+      <c r="B46" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="144">
-        <v>0</v>
-      </c>
-      <c r="G44" s="233" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="217">
-        <v>44490</v>
-      </c>
-      <c r="B45" s="218" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="219">
-        <v>15.12</v>
-      </c>
-      <c r="D45" s="222" t="s">
+      <c r="C46" s="160">
+        <v>0</v>
+      </c>
+      <c r="D46" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="221" t="s">
+      <c r="E46" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="144">
-        <v>0</v>
-      </c>
-      <c r="G45" s="234" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="217">
-        <v>44490</v>
-      </c>
-      <c r="B46" s="218" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="219">
-        <v>0</v>
-      </c>
-      <c r="D46" s="222" t="s">
+      <c r="F46" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="164"/>
+      <c r="B47" s="159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="160">
+        <v>0</v>
+      </c>
+      <c r="D47" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="221" t="s">
+      <c r="E47" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="144">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="217"/>
-      <c r="B47" s="218" t="s">
+      <c r="F47" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="164"/>
+      <c r="B48" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="219">
-        <v>0</v>
-      </c>
-      <c r="D47" s="222" t="s">
+      <c r="C48" s="160">
+        <v>0</v>
+      </c>
+      <c r="D48" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="221" t="s">
+      <c r="E48" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="223"/>
-      <c r="B48" s="218" t="s">
+      <c r="F48" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="166"/>
+      <c r="B49" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="219">
-        <v>0</v>
-      </c>
-      <c r="D48" s="224" t="s">
+      <c r="C49" s="160">
+        <v>0</v>
+      </c>
+      <c r="D49" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="221" t="s">
+      <c r="E49" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="223"/>
-      <c r="B49" s="218" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="219">
-        <v>0</v>
-      </c>
-      <c r="D49" s="224" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="221" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="223"/>
-      <c r="B50" s="218" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="219">
-        <v>0</v>
-      </c>
-      <c r="D50" s="224" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="221" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="225"/>
-      <c r="B51" s="218" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="219">
-        <v>0</v>
-      </c>
-      <c r="D51" s="226" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="221" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="144">
+      <c r="F49" s="101">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.13" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -235,31 +235,13 @@
     <t>SERRANO--LACTEOS</t>
   </si>
   <si>
-    <t>#  1077</t>
-  </si>
-  <si>
-    <t>x precio</t>
-  </si>
-  <si>
-    <t># 1120</t>
-  </si>
-  <si>
-    <t>#  1124</t>
-  </si>
-  <si>
-    <t># 1158</t>
-  </si>
-  <si>
     <t>lo dejaron</t>
   </si>
   <si>
-    <t># 1161</t>
+    <t>QUESOS-JAMONES-SALCHICHONERIA</t>
   </si>
   <si>
-    <t>#  1162</t>
-  </si>
-  <si>
-    <t>QUESOS-JAMONES-SALCHICHONERIA</t>
+    <t>#  1318</t>
   </si>
 </sst>
 </file>
@@ -1729,123 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1921,6 +1786,123 @@
     </xf>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2654,34 +2636,34 @@
     <col min="7" max="7" width="2.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="216" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="177" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="217" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="178" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="199"/>
-      <c r="C1" s="201" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="200"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2691,18 +2673,18 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="204"/>
+      <c r="B3" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="210"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="205" t="s">
+      <c r="H3" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="205"/>
-      <c r="K3" s="223"/>
+      <c r="I3" s="211"/>
+      <c r="K3" s="184"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
     </row>
@@ -2713,16 +2695,16 @@
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="207"/>
-      <c r="H4" s="208" t="s">
+      <c r="F4" s="213"/>
+      <c r="H4" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="209"/>
+      <c r="I4" s="215"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="224"/>
+      <c r="K4" s="185"/>
       <c r="L4" s="20"/>
       <c r="M4" s="21" t="s">
         <v>4</v>
@@ -2730,10 +2712,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="187" t="s">
+      <c r="P4" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="188"/>
+      <c r="Q4" s="222"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -2742,21 +2724,21 @@
       <c r="B5" s="24">
         <v>44488</v>
       </c>
-      <c r="C5" s="215">
+      <c r="C5" s="176">
         <v>0</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27">
         <v>44488</v>
       </c>
-      <c r="F5" s="213">
+      <c r="F5" s="174">
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="29">
         <v>44488</v>
       </c>
-      <c r="I5" s="214">
+      <c r="I5" s="175">
         <v>0</v>
       </c>
       <c r="J5" s="37" t="s">
@@ -2823,11 +2805,11 @@
         <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
         <v>20860</v>
       </c>
-      <c r="Q6" s="220">
+      <c r="Q6" s="181">
         <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
         <v>-2677</v>
       </c>
-      <c r="R6" s="218" t="s">
+      <c r="R6" s="179" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2868,18 +2850,18 @@
       <c r="N7" s="33">
         <v>8843</v>
       </c>
-      <c r="O7" s="222" t="s">
+      <c r="O7" s="183" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
         <v>27818</v>
       </c>
-      <c r="Q7" s="242">
+      <c r="Q7" s="203">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="R7" s="241" t="s">
+      <c r="R7" s="202" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2927,11 +2909,11 @@
         <f t="shared" si="0"/>
         <v>25278.5</v>
       </c>
-      <c r="Q8" s="219">
+      <c r="Q8" s="180">
         <f t="shared" si="1"/>
         <v>-3392.5</v>
       </c>
-      <c r="R8" s="218" t="s">
+      <c r="R8" s="179" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2960,10 +2942,10 @@
       <c r="J9" s="37">
         <v>44492</v>
       </c>
-      <c r="K9" s="238" t="s">
+      <c r="K9" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="239">
+      <c r="L9" s="200">
         <v>5400</v>
       </c>
       <c r="M9" s="32">
@@ -2977,11 +2959,11 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>36624.5</v>
       </c>
-      <c r="Q9" s="240">
+      <c r="Q9" s="201">
         <f>P9-F9</f>
         <v>2548.5</v>
       </c>
-      <c r="R9" s="241" t="s">
+      <c r="R9" s="202" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3012,7 +2994,7 @@
       <c r="J10" s="37">
         <v>44493</v>
       </c>
-      <c r="K10" s="225" t="s">
+      <c r="K10" s="186" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="45">
@@ -3029,11 +3011,11 @@
         <f t="shared" ref="P10:P13" si="2">N10+M10+L10+I10+C10</f>
         <v>26298</v>
       </c>
-      <c r="Q10" s="219">
+      <c r="Q10" s="180">
         <f t="shared" si="1"/>
         <v>-1776</v>
       </c>
-      <c r="R10" s="218" t="s">
+      <c r="R10" s="179" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3063,7 +3045,7 @@
         <v>1476</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="226"/>
+      <c r="K11" s="187"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
         <v>0</v>
@@ -3110,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="37"/>
-      <c r="K12" s="227"/>
+      <c r="K12" s="188"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
         <v>7341</v>
@@ -3172,11 +3154,11 @@
         <f t="shared" si="2"/>
         <v>28816.35</v>
       </c>
-      <c r="Q13" s="242">
+      <c r="Q13" s="203">
         <f t="shared" si="1"/>
         <v>1016.3499999999985</v>
       </c>
-      <c r="R13" s="241" t="s">
+      <c r="R13" s="202" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3215,14 +3197,14 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="34">
-        <f t="shared" ref="P10:P14" si="3">N14+M14+L14+I14+C14</f>
+        <f t="shared" ref="P14" si="3">N14+M14+L14+I14+C14</f>
         <v>32621</v>
       </c>
-      <c r="Q14" s="243">
+      <c r="Q14" s="204">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="R14" s="241" t="s">
+      <c r="R14" s="202" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3235,7 +3217,7 @@
         <v>9347.5</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E15" s="27">
         <v>44498</v>
@@ -3263,11 +3245,11 @@
         <f t="shared" si="0"/>
         <v>28788.5</v>
       </c>
-      <c r="Q15" s="220">
+      <c r="Q15" s="181">
         <f t="shared" si="1"/>
         <v>-2472.5</v>
       </c>
-      <c r="R15" s="218" t="s">
+      <c r="R15" s="179" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3376,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="37"/>
-      <c r="K18" s="228"/>
+      <c r="K18" s="189"/>
       <c r="L18" s="39"/>
       <c r="M18" s="32">
         <v>0</v>
@@ -3458,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="37"/>
-      <c r="K20" s="229"/>
+      <c r="K20" s="190"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
         <v>0</v>
@@ -3580,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="50"/>
-      <c r="K23" s="230"/>
+      <c r="K23" s="191"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
         <v>0</v>
@@ -3621,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="51"/>
-      <c r="K24" s="231"/>
+      <c r="K24" s="192"/>
       <c r="L24" s="52"/>
       <c r="M24" s="32">
         <v>0</v>
@@ -3682,7 +3664,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="30"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="231"/>
+      <c r="K26" s="192"/>
       <c r="L26" s="45"/>
       <c r="M26" s="32">
         <v>0</v>
@@ -3711,7 +3693,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="30"/>
       <c r="J27" s="55"/>
-      <c r="K27" s="232"/>
+      <c r="K27" s="193"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
         <v>0</v>
@@ -3769,7 +3751,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="30"/>
       <c r="J29" s="59"/>
-      <c r="K29" s="233"/>
+      <c r="K29" s="194"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
         <v>0</v>
@@ -3987,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="60"/>
-      <c r="K36" s="234"/>
+      <c r="K36" s="195"/>
       <c r="L36" s="44"/>
       <c r="M36" s="32"/>
       <c r="N36" s="33"/>
@@ -4069,13 +4051,13 @@
       <c r="H39" s="36"/>
       <c r="I39" s="71"/>
       <c r="J39" s="60"/>
-      <c r="K39" s="235"/>
+      <c r="K39" s="196"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="189">
+      <c r="M39" s="223">
         <f>SUM(M5:M38)</f>
         <v>138311</v>
       </c>
-      <c r="N39" s="191">
+      <c r="N39" s="225">
         <f>SUM(N5:N38)</f>
         <v>69208</v>
       </c>
@@ -4101,8 +4083,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="192"/>
+      <c r="M40" s="224"/>
+      <c r="N40" s="226"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4262,7 +4244,7 @@
       <c r="H49" s="83"/>
       <c r="I49" s="77"/>
       <c r="J49" s="84"/>
-      <c r="K49" s="221"/>
+      <c r="K49" s="182"/>
       <c r="L49" s="9"/>
       <c r="M49" s="85"/>
       <c r="N49" s="33"/>
@@ -4317,29 +4299,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="193" t="s">
+      <c r="H52" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="194"/>
+      <c r="I52" s="228"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="195">
+      <c r="K52" s="229">
         <f>I50+L50</f>
         <v>26684.85</v>
       </c>
-      <c r="L52" s="196"/>
-      <c r="M52" s="197">
+      <c r="L52" s="230"/>
+      <c r="M52" s="231">
         <f>N39+M39</f>
         <v>207519</v>
       </c>
-      <c r="N52" s="198"/>
+      <c r="N52" s="232"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="174" t="s">
+      <c r="D53" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="174"/>
+      <c r="E53" s="233"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>212068.15000000002</v>
@@ -4350,22 +4332,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="175" t="s">
+      <c r="D54" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="175"/>
+      <c r="E54" s="234"/>
       <c r="F54" s="96">
         <v>0</v>
       </c>
-      <c r="I54" s="176" t="s">
+      <c r="I54" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="177"/>
-      <c r="K54" s="178">
+      <c r="J54" s="236"/>
+      <c r="K54" s="237">
         <f>F56+F57+F58</f>
         <v>212068.15000000002</v>
       </c>
-      <c r="L54" s="179"/>
+      <c r="L54" s="238"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -4377,7 +4359,7 @@
       </c>
       <c r="I55" s="106"/>
       <c r="J55" s="107"/>
-      <c r="K55" s="236"/>
+      <c r="K55" s="197"/>
       <c r="L55" s="108"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -4396,11 +4378,11 @@
         <v>16</v>
       </c>
       <c r="J56" s="110"/>
-      <c r="K56" s="180">
+      <c r="K56" s="239">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="181"/>
+      <c r="L56" s="240"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="111" t="s">
@@ -4415,22 +4397,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="113"/>
-      <c r="D58" s="182" t="s">
+      <c r="D58" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="183"/>
+      <c r="E58" s="217"/>
       <c r="F58" s="114">
         <v>0</v>
       </c>
-      <c r="I58" s="184" t="s">
+      <c r="I58" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="185"/>
-      <c r="K58" s="186">
+      <c r="J58" s="219"/>
+      <c r="K58" s="220">
         <f>K54+K56</f>
         <v>212068.15000000002</v>
       </c>
-      <c r="L58" s="186"/>
+      <c r="L58" s="220"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="115"/>
@@ -4442,7 +4424,7 @@
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I60" s="120"/>
       <c r="J60" s="120"/>
-      <c r="K60" s="237"/>
+      <c r="K60" s="198"/>
       <c r="L60" s="121"/>
     </row>
     <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4452,7 +4434,7 @@
       <c r="E61" s="34"/>
       <c r="I61" s="120"/>
       <c r="J61" s="120"/>
-      <c r="K61" s="237"/>
+      <c r="K61" s="198"/>
       <c r="L61" s="121"/>
       <c r="M61" s="125"/>
       <c r="N61" s="98"/>
@@ -4574,12 +4556,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -4594,6 +4570,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.16" top="0.36" bottom="0.31" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5951,10 +5933,10 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="A23:G49"/>
+  <dimension ref="A23:G51"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5973,135 +5955,90 @@
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="157"/>
-      <c r="B41" s="210" t="s">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="157"/>
+      <c r="B43" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="211"/>
-      <c r="D41" s="211"/>
-      <c r="E41" s="212"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="158">
-        <v>44498</v>
-      </c>
-      <c r="B42" s="159" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="160">
-        <v>94.83</v>
-      </c>
-      <c r="D42" s="161" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="101">
-        <v>0</v>
-      </c>
-      <c r="G42" s="172" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="158">
-        <v>44498</v>
-      </c>
-      <c r="B43" s="159" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="160">
-        <v>141.83000000000001</v>
-      </c>
-      <c r="D43" s="163" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="162" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="101">
-        <v>128</v>
-      </c>
-      <c r="G43" s="173"/>
+      <c r="C43" s="242"/>
+      <c r="D43" s="242"/>
+      <c r="E43" s="243"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="158">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B44" s="159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="160">
-        <v>64</v>
-      </c>
-      <c r="D44" s="163" t="s">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D44" s="161" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="101">
+        <v>0</v>
+      </c>
+      <c r="G44" s="172" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="158"/>
+      <c r="B45" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="101">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="158">
-        <v>44498</v>
-      </c>
-      <c r="B45" s="159" t="s">
-        <v>55</v>
-      </c>
       <c r="C45" s="160">
-        <v>340.85</v>
+        <v>0</v>
       </c>
       <c r="D45" s="163" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="162" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F45" s="101">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="173"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="158"/>
       <c r="B46" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="160">
+        <v>0</v>
+      </c>
+      <c r="D46" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="160">
-        <v>0</v>
-      </c>
-      <c r="D46" s="165" t="s">
+      <c r="F46" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="158"/>
+      <c r="B47" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="160">
+        <v>0</v>
+      </c>
+      <c r="D47" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="162" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
-      <c r="B47" s="159" t="s">
+      <c r="E47" s="162" t="s">
         <v>30</v>
-      </c>
-      <c r="C47" s="160">
-        <v>0</v>
-      </c>
-      <c r="D47" s="165" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="162" t="s">
-        <v>31</v>
       </c>
       <c r="F47" s="101">
         <v>0</v>
@@ -6110,7 +6047,7 @@
     <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="164"/>
       <c r="B48" s="159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" s="160">
         <v>0</v>
@@ -6119,33 +6056,69 @@
         <v>29</v>
       </c>
       <c r="E48" s="162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="164"/>
+      <c r="B49" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="166"/>
-      <c r="B49" s="159" t="s">
+      <c r="C49" s="160">
+        <v>0</v>
+      </c>
+      <c r="D49" s="165" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="160">
-        <v>0</v>
-      </c>
-      <c r="D49" s="167" t="s">
+      <c r="F49" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="164"/>
+      <c r="B50" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="160">
+        <v>0</v>
+      </c>
+      <c r="D50" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="162" t="s">
+      <c r="E50" s="162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="166"/>
+      <c r="B51" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="101">
+      <c r="C51" s="160">
+        <v>0</v>
+      </c>
+      <c r="D51" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="101">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.13" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -235,13 +235,28 @@
     <t>SERRANO--LACTEOS</t>
   </si>
   <si>
-    <t>lo dejaron</t>
-  </si>
-  <si>
     <t>QUESOS-JAMONES-SALCHICHONERIA</t>
   </si>
   <si>
-    <t>#  1318</t>
+    <t xml:space="preserve">QUESOS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV. OBRADOR CENTRAL </t>
+  </si>
+  <si>
+    <t>#  1523</t>
+  </si>
+  <si>
+    <t># 1524</t>
+  </si>
+  <si>
+    <t>LACTEOS</t>
+  </si>
+  <si>
+    <t>Tranp JULIO</t>
+  </si>
+  <si>
+    <t>RES-LONGANIZAS--ENCHILADA-CARNES FRIAS</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1786,6 +1801,81 @@
     </xf>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1819,81 +1909,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1902,6 +1917,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2623,7 +2641,7 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,23 +2665,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="205"/>
-      <c r="C1" s="207" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="206"/>
+      <c r="B2" s="231"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2673,17 +2691,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="209" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="210"/>
+      <c r="B3" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="235"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="211" t="s">
+      <c r="H3" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="211"/>
+      <c r="I3" s="236"/>
       <c r="K3" s="184"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -2695,14 +2713,14 @@
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="212" t="s">
+      <c r="E4" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="213"/>
-      <c r="H4" s="214" t="s">
+      <c r="F4" s="238"/>
+      <c r="H4" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="215"/>
+      <c r="I4" s="240"/>
       <c r="J4" s="19"/>
       <c r="K4" s="185"/>
       <c r="L4" s="20"/>
@@ -2712,10 +2730,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="221" t="s">
+      <c r="P4" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="222"/>
+      <c r="Q4" s="211"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -3217,7 +3235,7 @@
         <v>9347.5</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="27">
         <v>44498</v>
@@ -3253,20 +3271,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="24">
         <v>44499</v>
       </c>
       <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="35"/>
+        <v>1588</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="27">
         <v>44499</v>
       </c>
       <c r="F16" s="28">
-        <v>0</v>
+        <v>1126436</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="36">
@@ -3275,24 +3295,32 @@
       <c r="I16" s="30">
         <v>0</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="9"/>
+      <c r="J16" s="37">
+        <v>44499</v>
+      </c>
+      <c r="K16" s="244" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="201">
+        <v>1078495</v>
+      </c>
       <c r="M16" s="32">
-        <v>0</v>
+        <v>33550</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>14745</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
+        <v>1128378</v>
+      </c>
+      <c r="Q16" s="201">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="31"/>
+        <v>1942</v>
+      </c>
+      <c r="R16" s="202" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
@@ -3307,33 +3335,35 @@
         <v>44500</v>
       </c>
       <c r="F17" s="28">
-        <v>0</v>
+        <v>38493</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="36">
         <v>44500</v>
       </c>
       <c r="I17" s="30">
-        <v>0</v>
+        <v>2153.5</v>
       </c>
       <c r="J17" s="37"/>
       <c r="K17" s="38"/>
       <c r="L17" s="45"/>
       <c r="M17" s="32">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>15118</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
+        <v>38871.5</v>
+      </c>
+      <c r="Q17" s="201">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="31"/>
+        <v>378.5</v>
+      </c>
+      <c r="R17" s="202" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
@@ -3341,40 +3371,51 @@
         <v>44501</v>
       </c>
       <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="35"/>
+        <v>1225</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="E18" s="27">
         <v>44501</v>
       </c>
       <c r="F18" s="28">
-        <v>0</v>
+        <v>43190</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="36">
         <v>44501</v>
       </c>
       <c r="I18" s="30">
-        <v>0</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="39"/>
+        <v>119</v>
+      </c>
+      <c r="J18" s="37">
+        <v>44501</v>
+      </c>
+      <c r="K18" s="189" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="39">
+        <v>1440</v>
+      </c>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>2220+25000</f>
+        <v>27220</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>9734</v>
       </c>
       <c r="P18" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
+        <v>39738</v>
+      </c>
+      <c r="Q18" s="180">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="31"/>
+        <v>-3452</v>
+      </c>
+      <c r="R18" s="179" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
@@ -3382,40 +3423,45 @@
         <v>44502</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="35"/>
+        <f>18318+4846</f>
+        <v>23164</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="E19" s="27">
         <v>44502</v>
       </c>
       <c r="F19" s="28">
-        <v>0</v>
+        <v>38179</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="36">
         <v>44502</v>
       </c>
       <c r="I19" s="30">
-        <v>0</v>
+        <v>231.5</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>8261</v>
       </c>
       <c r="P19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
+        <v>37356.5</v>
+      </c>
+      <c r="Q19" s="180">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="31"/>
+        <v>-822.5</v>
+      </c>
+      <c r="R19" s="179" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
@@ -4053,21 +4099,21 @@
       <c r="J39" s="60"/>
       <c r="K39" s="196"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="223">
+      <c r="M39" s="212">
         <f>SUM(M5:M38)</f>
-        <v>138311</v>
-      </c>
-      <c r="N39" s="225">
+        <v>226381</v>
+      </c>
+      <c r="N39" s="214">
         <f>SUM(N5:N38)</f>
-        <v>69208</v>
+        <v>117066</v>
       </c>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>287272.84999999998</v>
+        <v>1531616.85</v>
       </c>
       <c r="Q39" s="13">
         <f>SUM(Q5:Q38)</f>
-        <v>-4549.1500000000015</v>
+        <v>-6503.1500000000015</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4083,8 +4129,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="224"/>
-      <c r="N40" s="226"/>
+      <c r="M40" s="213"/>
+      <c r="N40" s="215"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4257,7 +4303,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>53069</v>
+        <v>79046</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -4265,7 +4311,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>291822</v>
+        <v>1538120</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -4273,7 +4319,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>4484.8500000000004</v>
+        <v>6988.85</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -4281,7 +4327,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>22200</v>
+        <v>1102135</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -4299,32 +4345,32 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="227" t="s">
+      <c r="H52" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="228"/>
+      <c r="I52" s="217"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="229">
+      <c r="K52" s="218">
         <f>I50+L50</f>
-        <v>26684.85</v>
-      </c>
-      <c r="L52" s="230"/>
-      <c r="M52" s="231">
+        <v>1109123.8500000001</v>
+      </c>
+      <c r="L52" s="219"/>
+      <c r="M52" s="220">
         <f>N39+M39</f>
-        <v>207519</v>
-      </c>
-      <c r="N52" s="232"/>
+        <v>343447</v>
+      </c>
+      <c r="N52" s="221"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="233" t="s">
+      <c r="D53" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="233"/>
+      <c r="E53" s="222"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>212068.15000000002</v>
+        <v>349950.14999999991</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
@@ -4332,22 +4378,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="234" t="s">
+      <c r="D54" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="234"/>
+      <c r="E54" s="223"/>
       <c r="F54" s="96">
         <v>0</v>
       </c>
-      <c r="I54" s="235" t="s">
+      <c r="I54" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="236"/>
-      <c r="K54" s="237">
+      <c r="J54" s="225"/>
+      <c r="K54" s="226">
         <f>F56+F57+F58</f>
-        <v>212068.15000000002</v>
-      </c>
-      <c r="L54" s="238"/>
+        <v>349950.14999999991</v>
+      </c>
+      <c r="L54" s="227"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -4371,18 +4417,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>212068.15000000002</v>
+        <v>349950.14999999991</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="109" t="s">
         <v>16</v>
       </c>
       <c r="J56" s="110"/>
-      <c r="K56" s="239">
+      <c r="K56" s="228">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="240"/>
+      <c r="L56" s="229"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="111" t="s">
@@ -4397,22 +4443,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="113"/>
-      <c r="D58" s="216" t="s">
+      <c r="D58" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="217"/>
+      <c r="E58" s="206"/>
       <c r="F58" s="114">
         <v>0</v>
       </c>
-      <c r="I58" s="218" t="s">
+      <c r="I58" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="219"/>
-      <c r="K58" s="220">
+      <c r="J58" s="208"/>
+      <c r="K58" s="209">
         <f>K54+K56</f>
-        <v>212068.15000000002</v>
-      </c>
-      <c r="L58" s="220"/>
+        <v>349950.14999999991</v>
+      </c>
+      <c r="L58" s="209"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="115"/>
@@ -4556,6 +4602,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -4570,12 +4622,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.16" top="0.36" bottom="0.31" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5935,8 +5981,8 @@
   </sheetPr>
   <dimension ref="A23:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5968,26 +6014,24 @@
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="158">
-        <v>44499</v>
+        <v>44501</v>
       </c>
       <c r="B44" s="159" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="160">
-        <v>37.799999999999997</v>
+        <v>484.09</v>
       </c>
       <c r="D44" s="161" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="162" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F44" s="101">
-        <v>0</v>
-      </c>
-      <c r="G44" s="172" t="s">
-        <v>49</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G44" s="172"/>
     </row>
     <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="158"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -253,10 +253,19 @@
     <t>LACTEOS</t>
   </si>
   <si>
-    <t>Tranp JULIO</t>
+    <t>RES-LONGANIZAS--ENCHILADA-CARNES FRIAS</t>
   </si>
   <si>
-    <t>RES-LONGANIZAS--ENCHILADA-CARNES FRIAS</t>
+    <t>TranSp JULIO</t>
+  </si>
+  <si>
+    <t>RES--ENCHILADA</t>
+  </si>
+  <si>
+    <t>DEBEN RES</t>
+  </si>
+  <si>
+    <t>RES-</t>
   </si>
 </sst>
 </file>
@@ -1801,6 +1810,42 @@
     </xf>
     <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1876,39 +1921,6 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1917,9 +1929,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2640,8 +2649,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,23 +2674,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="230"/>
-      <c r="C1" s="232" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2691,17 +2700,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="235"/>
+      <c r="B3" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="211"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="236" t="s">
+      <c r="H3" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="236"/>
+      <c r="I3" s="212"/>
       <c r="K3" s="184"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -2713,14 +2722,14 @@
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="H4" s="239" t="s">
+      <c r="F4" s="214"/>
+      <c r="H4" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="240"/>
+      <c r="I4" s="216"/>
       <c r="J4" s="19"/>
       <c r="K4" s="185"/>
       <c r="L4" s="20"/>
@@ -2730,10 +2739,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="210" t="s">
+      <c r="P4" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="211"/>
+      <c r="Q4" s="223"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -3286,7 +3295,7 @@
         <v>44499</v>
       </c>
       <c r="F16" s="28">
-        <v>1126436</v>
+        <v>47941</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="36">
@@ -3298,7 +3307,7 @@
       <c r="J16" s="37">
         <v>44499</v>
       </c>
-      <c r="K16" s="244" t="s">
+      <c r="K16" s="205" t="s">
         <v>51</v>
       </c>
       <c r="L16" s="201">
@@ -3316,7 +3325,7 @@
       </c>
       <c r="Q16" s="201">
         <f t="shared" si="1"/>
-        <v>1942</v>
+        <v>1080437</v>
       </c>
       <c r="R16" s="202" t="s">
         <v>46</v>
@@ -3393,7 +3402,7 @@
         <v>44501</v>
       </c>
       <c r="K18" s="189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L18" s="39">
         <v>1440</v>
@@ -3427,7 +3436,7 @@
         <v>23164</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="27">
         <v>44502</v>
@@ -3469,14 +3478,17 @@
         <v>44503</v>
       </c>
       <c r="C20" s="25">
-        <v>0</v>
-      </c>
-      <c r="D20" s="35"/>
+        <f>28379.9+5070</f>
+        <v>33449.9</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="27">
         <v>44503</v>
       </c>
       <c r="F20" s="28">
-        <v>0</v>
+        <v>39315</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="36">
@@ -3492,17 +3504,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="P20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
+        <v>39315.9</v>
+      </c>
+      <c r="Q20" s="201">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="31"/>
+        <v>0.90000000000145519</v>
+      </c>
+      <c r="R20" s="202" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
@@ -3510,14 +3524,17 @@
         <v>44504</v>
       </c>
       <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="35"/>
+        <f>29452+692+5469</f>
+        <v>35613</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="E21" s="27">
         <v>44504</v>
       </c>
       <c r="F21" s="28">
-        <v>0</v>
+        <v>43752</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="36">
@@ -3537,11 +3554,11 @@
       </c>
       <c r="P21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35613</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8139</v>
       </c>
       <c r="R21" s="31"/>
     </row>
@@ -4099,21 +4116,21 @@
       <c r="J39" s="60"/>
       <c r="K39" s="196"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="212">
+      <c r="M39" s="224">
         <f>SUM(M5:M38)</f>
         <v>226381</v>
       </c>
-      <c r="N39" s="214">
+      <c r="N39" s="226">
         <f>SUM(N5:N38)</f>
-        <v>117066</v>
+        <v>122932</v>
       </c>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1531616.85</v>
+        <v>1606545.75</v>
       </c>
       <c r="Q39" s="13">
         <f>SUM(Q5:Q38)</f>
-        <v>-6503.1500000000015</v>
+        <v>1063853.75</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4129,8 +4146,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="213"/>
-      <c r="N40" s="215"/>
+      <c r="M40" s="225"/>
+      <c r="N40" s="227"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4303,7 +4320,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>79046</v>
+        <v>148108.9</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -4311,7 +4328,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1538120</v>
+        <v>542692</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -4345,32 +4362,32 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="216" t="s">
+      <c r="H52" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="217"/>
+      <c r="I52" s="229"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="218">
+      <c r="K52" s="230">
         <f>I50+L50</f>
         <v>1109123.8500000001</v>
       </c>
-      <c r="L52" s="219"/>
-      <c r="M52" s="220">
+      <c r="L52" s="231"/>
+      <c r="M52" s="232">
         <f>N39+M39</f>
-        <v>343447</v>
-      </c>
-      <c r="N52" s="221"/>
+        <v>349313</v>
+      </c>
+      <c r="N52" s="233"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="222" t="s">
+      <c r="D53" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="222"/>
+      <c r="E53" s="234"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>349950.14999999991</v>
+        <v>-714540.75000000012</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
@@ -4378,22 +4395,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="223" t="s">
+      <c r="D54" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="223"/>
+      <c r="E54" s="235"/>
       <c r="F54" s="96">
         <v>0</v>
       </c>
-      <c r="I54" s="224" t="s">
+      <c r="I54" s="236" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="225"/>
-      <c r="K54" s="226">
+      <c r="J54" s="237"/>
+      <c r="K54" s="238">
         <f>F56+F57+F58</f>
-        <v>349950.14999999991</v>
-      </c>
-      <c r="L54" s="227"/>
+        <v>-714540.75000000012</v>
+      </c>
+      <c r="L54" s="239"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -4417,18 +4434,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>349950.14999999991</v>
+        <v>-714540.75000000012</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="109" t="s">
         <v>16</v>
       </c>
       <c r="J56" s="110"/>
-      <c r="K56" s="228">
+      <c r="K56" s="240">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="229"/>
+      <c r="L56" s="241"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="111" t="s">
@@ -4443,22 +4460,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="113"/>
-      <c r="D58" s="205" t="s">
+      <c r="D58" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="206"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="114">
         <v>0</v>
       </c>
-      <c r="I58" s="207" t="s">
+      <c r="I58" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="208"/>
-      <c r="K58" s="209">
+      <c r="J58" s="220"/>
+      <c r="K58" s="221">
         <f>K54+K56</f>
-        <v>349950.14999999991</v>
-      </c>
-      <c r="L58" s="209"/>
+        <v>-714540.75000000012</v>
+      </c>
+      <c r="L58" s="221"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="115"/>
@@ -4602,12 +4619,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -4622,6 +4633,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.16" top="0.36" bottom="0.31" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6004,12 +6021,12 @@
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="157"/>
-      <c r="B43" s="241" t="s">
+      <c r="B43" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="242"/>
-      <c r="D43" s="242"/>
-      <c r="E43" s="243"/>
+      <c r="C43" s="243"/>
+      <c r="D43" s="243"/>
+      <c r="E43" s="244"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -127,9 +127,6 @@
     <t>VENTAS NETAS</t>
   </si>
   <si>
-    <t xml:space="preserve">PROVEEDOREES ODELPA </t>
-  </si>
-  <si>
     <t>SUB TOTAL</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>GANANCIA</t>
   </si>
   <si>
-    <t>REMISIONES  ABASTO 4 CARNES       2 0 2 1</t>
-  </si>
-  <si>
     <t>FECHA</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t xml:space="preserve">QUESOS   </t>
   </si>
   <si>
-    <t xml:space="preserve">DEV. OBRADOR CENTRAL </t>
-  </si>
-  <si>
     <t>#  1523</t>
   </si>
   <si>
@@ -262,10 +253,151 @@
     <t>RES--ENCHILADA</t>
   </si>
   <si>
-    <t>DEBEN RES</t>
-  </si>
-  <si>
-    <t>RES-</t>
+    <t>RES-SALCHICHONERIA--LACTEOS</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>ENCHILADA-LACTEOS</t>
+  </si>
+  <si>
+    <t>NOMINA # 45</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>23694 B</t>
+  </si>
+  <si>
+    <t>23813 B</t>
+  </si>
+  <si>
+    <t>23810 B</t>
+  </si>
+  <si>
+    <t>23814 B</t>
+  </si>
+  <si>
+    <t>23815 B</t>
+  </si>
+  <si>
+    <t>23863 B</t>
+  </si>
+  <si>
+    <t>23904 B</t>
+  </si>
+  <si>
+    <t>23906 B</t>
+  </si>
+  <si>
+    <t>23907 B</t>
+  </si>
+  <si>
+    <t>23908 B</t>
+  </si>
+  <si>
+    <t>DEVOLUCION</t>
+  </si>
+  <si>
+    <t>23914 B</t>
+  </si>
+  <si>
+    <t>23929 B</t>
+  </si>
+  <si>
+    <t>23963 B</t>
+  </si>
+  <si>
+    <t>24044 B</t>
+  </si>
+  <si>
+    <t>24080 B</t>
+  </si>
+  <si>
+    <t>24218 B</t>
+  </si>
+  <si>
+    <t>24301 B</t>
+  </si>
+  <si>
+    <t>24376 B</t>
+  </si>
+  <si>
+    <t>24529 B</t>
+  </si>
+  <si>
+    <t>24594 B</t>
+  </si>
+  <si>
+    <t>24658 B</t>
+  </si>
+  <si>
+    <t>24683 B</t>
+  </si>
+  <si>
+    <t>24695 B</t>
+  </si>
+  <si>
+    <t>24760 B</t>
+  </si>
+  <si>
+    <t>24810 B</t>
+  </si>
+  <si>
+    <t>24943 B</t>
+  </si>
+  <si>
+    <t>24949 B</t>
+  </si>
+  <si>
+    <t>58 C</t>
+  </si>
+  <si>
+    <t>275 C</t>
+  </si>
+  <si>
+    <t>339 C</t>
+  </si>
+  <si>
+    <t>505 C</t>
+  </si>
+  <si>
+    <t>646 C</t>
+  </si>
+  <si>
+    <t>726 C</t>
+  </si>
+  <si>
+    <t>802 C</t>
+  </si>
+  <si>
+    <t>847 C</t>
+  </si>
+  <si>
+    <t>859 C</t>
+  </si>
+  <si>
+    <t>REMISIONES             O B R A DO R       2 0 2 1</t>
+  </si>
+  <si>
+    <t>REMISIONES            CENTRAL          2 0 2 1</t>
+  </si>
+  <si>
+    <t>Devolucion Notas 32--33-40</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PROVEEDOR  CENTRAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVEEDOR ODELPA </t>
+  </si>
+  <si>
+    <t>Devoluciones</t>
   </si>
 </sst>
 </file>
@@ -280,7 +412,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,14 +618,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF660066"/>
@@ -614,14 +738,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -630,14 +746,47 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color rgb="FF6600FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +841,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="57">
     <border>
@@ -1408,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1603,7 +1758,6 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1622,10 +1776,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1634,7 +1788,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1642,7 +1796,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1662,35 +1816,34 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="39" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="36" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1700,17 +1853,17 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1725,12 +1878,12 @@
     <xf numFmtId="44" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="35" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1744,15 +1897,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="42" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="43" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1797,32 +1942,41 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="10" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="44" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1846,10 +2000,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,9 +2054,6 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1921,6 +2072,12 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1930,6 +2087,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="46" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1940,8 +2138,9 @@
   <colors>
     <mruColors>
       <color rgb="FF99CCFF"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF800000"/>
       <color rgb="FF6600FF"/>
-      <color rgb="FF800000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2649,48 +2848,49 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E31:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="97" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="177" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="175" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="178" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="176" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="206"/>
-      <c r="C1" s="208" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="207" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="207"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2700,18 +2900,18 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="211"/>
+      <c r="B3" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="210"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="212" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="212"/>
-      <c r="K3" s="184"/>
+      <c r="H3" s="211" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="211"/>
+      <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
     </row>
@@ -2720,18 +2920,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="213" t="s">
+      <c r="E4" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="H4" s="215" t="s">
+      <c r="F4" s="213"/>
+      <c r="H4" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="216"/>
+      <c r="I4" s="215"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="185"/>
+      <c r="K4" s="179"/>
       <c r="L4" s="20"/>
       <c r="M4" s="21" t="s">
         <v>4</v>
@@ -2739,10 +2941,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="222" t="s">
+      <c r="P4" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="223"/>
+      <c r="Q4" s="222"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -2751,25 +2953,25 @@
       <c r="B5" s="24">
         <v>44488</v>
       </c>
-      <c r="C5" s="176">
+      <c r="C5" s="174">
         <v>0</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27">
         <v>44488</v>
       </c>
-      <c r="F5" s="174">
+      <c r="F5" s="172">
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="29">
         <v>44488</v>
       </c>
-      <c r="I5" s="175">
+      <c r="I5" s="173">
         <v>0</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
@@ -2816,7 +3018,7 @@
         <v>44489</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="39">
         <v>3000</v>
@@ -2828,16 +3030,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="34">
+      <c r="P6" s="69">
         <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
         <v>20860</v>
       </c>
-      <c r="Q6" s="181">
+      <c r="Q6" s="258">
         <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
         <v>-2677</v>
       </c>
-      <c r="R6" s="179" t="s">
-        <v>35</v>
+      <c r="R6" s="256" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2866,7 +3068,7 @@
         <v>44489</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" s="39">
         <v>3000</v>
@@ -2877,19 +3079,19 @@
       <c r="N7" s="33">
         <v>8843</v>
       </c>
-      <c r="O7" s="183" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="34">
+      <c r="O7" s="255" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="69">
         <f t="shared" si="0"/>
         <v>27818</v>
       </c>
-      <c r="Q7" s="203">
+      <c r="Q7" s="259">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="R7" s="202" t="s">
-        <v>46</v>
+      <c r="R7" s="257" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2901,7 +3103,7 @@
         <v>206.5</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="27">
         <v>44491</v>
@@ -2920,7 +3122,7 @@
         <v>44491</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="39">
         <v>3300</v>
@@ -2932,16 +3134,16 @@
         <v>6044</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="34">
+      <c r="P8" s="69">
         <f t="shared" si="0"/>
         <v>25278.5</v>
       </c>
-      <c r="Q8" s="180">
+      <c r="Q8" s="260">
         <f t="shared" si="1"/>
         <v>-3392.5</v>
       </c>
-      <c r="R8" s="179" t="s">
-        <v>35</v>
+      <c r="R8" s="256" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2969,29 +3171,29 @@
       <c r="J9" s="37">
         <v>44492</v>
       </c>
-      <c r="K9" s="199" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="200">
-        <v>5400</v>
+      <c r="K9" s="193" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="194">
+        <v>1800</v>
       </c>
       <c r="M9" s="32">
-        <v>18050</v>
+        <f>18050+3600</f>
+        <v>21650</v>
       </c>
       <c r="N9" s="33">
         <v>12838</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="34">
+      <c r="P9" s="69">
         <f>N9+M9+L9+I9+C9</f>
         <v>36624.5</v>
       </c>
-      <c r="Q9" s="201">
-        <f>P9-F9</f>
-        <v>2548.5</v>
-      </c>
-      <c r="R9" s="202" t="s">
-        <v>41</v>
+      <c r="Q9" s="261" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="257" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3003,7 +3205,7 @@
         <v>326</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="27">
         <v>44493</v>
@@ -3021,8 +3223,8 @@
       <c r="J10" s="37">
         <v>44493</v>
       </c>
-      <c r="K10" s="186" t="s">
-        <v>43</v>
+      <c r="K10" s="180" t="s">
+        <v>41</v>
       </c>
       <c r="L10" s="45">
         <v>7500</v>
@@ -3034,16 +3236,16 @@
         <v>9392</v>
       </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="34">
+      <c r="P10" s="69">
         <f t="shared" ref="P10:P13" si="2">N10+M10+L10+I10+C10</f>
         <v>26298</v>
       </c>
-      <c r="Q10" s="180">
+      <c r="Q10" s="260">
         <f t="shared" si="1"/>
         <v>-1776</v>
       </c>
-      <c r="R10" s="179" t="s">
-        <v>35</v>
+      <c r="R10" s="256" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3056,7 +3258,7 @@
         <v>21328</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="27">
         <v>44494</v>
@@ -3072,7 +3274,7 @@
         <v>1476</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="187"/>
+      <c r="K11" s="181"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
         <v>0</v>
@@ -3081,16 +3283,16 @@
         <v>5718</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="34">
+      <c r="P11" s="69">
         <f t="shared" si="2"/>
         <v>28522</v>
       </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>27</v>
+      <c r="Q11" s="262">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3103,7 +3305,7 @@
         <v>14061</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="27">
         <v>44495</v>
@@ -3119,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="37"/>
-      <c r="K12" s="188"/>
+      <c r="K12" s="182"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
         <v>7341</v>
@@ -3128,16 +3330,16 @@
         <v>10244</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="34">
+      <c r="P12" s="69">
         <f t="shared" si="2"/>
         <v>31646</v>
       </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>27</v>
+      <c r="Q12" s="262">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3149,7 +3351,7 @@
         <v>2890</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="27">
         <v>44496</v>
@@ -3177,16 +3379,16 @@
         <v>4440</v>
       </c>
       <c r="O13" s="2"/>
-      <c r="P13" s="34">
+      <c r="P13" s="69">
         <f t="shared" si="2"/>
         <v>28816.35</v>
       </c>
-      <c r="Q13" s="203">
+      <c r="Q13" s="259">
         <f t="shared" si="1"/>
         <v>1016.3499999999985</v>
       </c>
-      <c r="R13" s="202" t="s">
-        <v>46</v>
+      <c r="R13" s="257" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3198,7 +3400,7 @@
         <v>4910</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="27">
         <v>44497</v>
@@ -3223,16 +3425,16 @@
         <v>3358</v>
       </c>
       <c r="O14" s="2"/>
-      <c r="P14" s="34">
+      <c r="P14" s="69">
         <f t="shared" ref="P14" si="3">N14+M14+L14+I14+C14</f>
         <v>32621</v>
       </c>
-      <c r="Q14" s="204">
+      <c r="Q14" s="261">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="R14" s="202" t="s">
-        <v>46</v>
+      <c r="R14" s="257" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3244,7 +3446,7 @@
         <v>9347.5</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="27">
         <v>44498</v>
@@ -3268,16 +3470,16 @@
       <c r="N15" s="33">
         <v>8331</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="69">
         <f t="shared" si="0"/>
         <v>28788.5</v>
       </c>
-      <c r="Q15" s="181">
+      <c r="Q15" s="258">
         <f t="shared" si="1"/>
         <v>-2472.5</v>
       </c>
-      <c r="R15" s="179" t="s">
-        <v>35</v>
+      <c r="R15" s="256" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3289,7 +3491,7 @@
         <v>1588</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="27">
         <v>44499</v>
@@ -3304,31 +3506,25 @@
       <c r="I16" s="30">
         <v>0</v>
       </c>
-      <c r="J16" s="37">
-        <v>44499</v>
-      </c>
-      <c r="K16" s="205" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="201">
-        <v>1078495</v>
-      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="32">
         <v>33550</v>
       </c>
       <c r="N16" s="33">
         <v>14745</v>
       </c>
-      <c r="P16" s="34">
-        <f t="shared" si="0"/>
-        <v>1128378</v>
-      </c>
-      <c r="Q16" s="201">
-        <f t="shared" si="1"/>
-        <v>1080437</v>
-      </c>
-      <c r="R16" s="202" t="s">
-        <v>46</v>
+      <c r="P16" s="69">
+        <f t="shared" si="0"/>
+        <v>49883</v>
+      </c>
+      <c r="Q16" s="263">
+        <f t="shared" si="1"/>
+        <v>1942</v>
+      </c>
+      <c r="R16" s="257" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3362,16 +3558,16 @@
       <c r="N17" s="33">
         <v>15118</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="69">
         <f t="shared" si="0"/>
         <v>38871.5</v>
       </c>
-      <c r="Q17" s="201">
+      <c r="Q17" s="263">
         <f t="shared" si="1"/>
         <v>378.5</v>
       </c>
-      <c r="R17" s="202" t="s">
-        <v>46</v>
+      <c r="R17" s="257" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3383,7 +3579,7 @@
         <v>1225</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="27">
         <v>44501</v>
@@ -3401,8 +3597,8 @@
       <c r="J18" s="37">
         <v>44501</v>
       </c>
-      <c r="K18" s="189" t="s">
-        <v>56</v>
+      <c r="K18" s="183" t="s">
+        <v>53</v>
       </c>
       <c r="L18" s="39">
         <v>1440</v>
@@ -3414,16 +3610,16 @@
       <c r="N18" s="33">
         <v>9734</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="69">
         <f t="shared" si="0"/>
         <v>39738</v>
       </c>
-      <c r="Q18" s="180">
+      <c r="Q18" s="260">
         <f t="shared" si="1"/>
         <v>-3452</v>
       </c>
-      <c r="R18" s="179" t="s">
-        <v>35</v>
+      <c r="R18" s="256" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3436,7 +3632,7 @@
         <v>23164</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="27">
         <v>44502</v>
@@ -3460,16 +3656,16 @@
       <c r="N19" s="33">
         <v>8261</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="69">
         <f t="shared" si="0"/>
         <v>37356.5</v>
       </c>
-      <c r="Q19" s="180">
+      <c r="Q19" s="260">
         <f t="shared" si="1"/>
         <v>-822.5</v>
       </c>
-      <c r="R19" s="179" t="s">
-        <v>35</v>
+      <c r="R19" s="256" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3482,7 +3678,7 @@
         <v>33449.9</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="27">
         <v>44503</v>
@@ -3498,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="37"/>
-      <c r="K20" s="190"/>
+      <c r="K20" s="184"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
         <v>0</v>
@@ -3506,17 +3702,15 @@
       <c r="N20" s="33">
         <v>5866</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="69">
         <f t="shared" si="0"/>
         <v>39315.9</v>
       </c>
-      <c r="Q20" s="201">
+      <c r="Q20" s="262">
         <f t="shared" si="1"/>
         <v>0.90000000000145519</v>
       </c>
-      <c r="R20" s="202" t="s">
-        <v>58</v>
-      </c>
+      <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
@@ -3528,7 +3722,7 @@
         <v>35613</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E21" s="27">
         <v>44504</v>
@@ -3541,7 +3735,7 @@
         <v>44504</v>
       </c>
       <c r="I21" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="48"/>
@@ -3550,17 +3744,17 @@
         <v>0</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
-      </c>
-      <c r="P21" s="34">
-        <f t="shared" si="0"/>
-        <v>35613</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="shared" si="1"/>
-        <v>-8139</v>
-      </c>
-      <c r="R21" s="31"/>
+        <v>8124</v>
+      </c>
+      <c r="P21" s="69">
+        <f t="shared" si="0"/>
+        <v>43752</v>
+      </c>
+      <c r="Q21" s="262">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="38"/>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
@@ -3568,39 +3762,44 @@
         <v>44505</v>
       </c>
       <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="35"/>
+        <v>1777</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="E22" s="27">
         <v>44505</v>
       </c>
       <c r="F22" s="28">
-        <v>0</v>
+        <v>30961</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="36">
         <v>44505</v>
       </c>
       <c r="I22" s="30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <v>17080</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
-      </c>
-      <c r="P22" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="31"/>
+        <v>10617</v>
+      </c>
+      <c r="P22" s="69">
+        <f t="shared" si="0"/>
+        <v>29504</v>
+      </c>
+      <c r="Q22" s="260">
+        <f t="shared" si="1"/>
+        <v>-1457</v>
+      </c>
+      <c r="R22" s="256" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
@@ -3608,40 +3807,51 @@
         <v>44506</v>
       </c>
       <c r="C23" s="25">
-        <v>0</v>
-      </c>
-      <c r="D23" s="35"/>
+        <f>2354+252</f>
+        <v>2606</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="27">
         <v>44506</v>
       </c>
       <c r="F23" s="28">
-        <v>0</v>
+        <v>69547</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="36">
         <v>44506</v>
       </c>
       <c r="I23" s="30">
-        <v>0</v>
-      </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="32">
+        <v>2992</v>
+      </c>
+      <c r="J23" s="50">
+        <v>44506</v>
+      </c>
+      <c r="K23" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="45">
+        <v>23657.14</v>
+      </c>
+      <c r="M23" s="195">
         <v>0</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
-      </c>
-      <c r="P23" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="31"/>
+        <v>21472</v>
+      </c>
+      <c r="P23" s="69">
+        <f t="shared" si="0"/>
+        <v>50727.14</v>
+      </c>
+      <c r="Q23" s="260">
+        <f t="shared" si="1"/>
+        <v>-18819.86</v>
+      </c>
+      <c r="R23" s="256" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
@@ -3656,33 +3866,35 @@
         <v>44507</v>
       </c>
       <c r="F24" s="28">
-        <v>0</v>
+        <v>34204</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="36">
         <v>44507</v>
       </c>
       <c r="I24" s="30">
-        <v>0</v>
+        <v>150.5</v>
       </c>
       <c r="J24" s="51"/>
-      <c r="K24" s="192"/>
+      <c r="K24" s="186"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="32">
+      <c r="M24" s="195">
         <v>0</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
-      </c>
-      <c r="P24" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="31"/>
+        <v>9718</v>
+      </c>
+      <c r="P24" s="69">
+        <f t="shared" si="0"/>
+        <v>9868.5</v>
+      </c>
+      <c r="Q24" s="260">
+        <f t="shared" si="1"/>
+        <v>-24335.5</v>
+      </c>
+      <c r="R24" s="256" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
@@ -3703,7 +3915,7 @@
       <c r="N25" s="33">
         <v>0</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3727,7 +3939,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="30"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="192"/>
+      <c r="K26" s="186"/>
       <c r="L26" s="45"/>
       <c r="M26" s="32">
         <v>0</v>
@@ -3735,7 +3947,7 @@
       <c r="N26" s="33">
         <v>0</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3756,7 +3968,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="30"/>
       <c r="J27" s="55"/>
-      <c r="K27" s="193"/>
+      <c r="K27" s="187"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
         <v>0</v>
@@ -3764,7 +3976,7 @@
       <c r="N27" s="33">
         <v>0</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3774,7 +3986,7 @@
       </c>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -3803,7 +4015,7 @@
       </c>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -3814,7 +4026,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="30"/>
       <c r="J29" s="59"/>
-      <c r="K29" s="194"/>
+      <c r="K29" s="188"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
         <v>0</v>
@@ -3832,7 +4044,7 @@
       </c>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -3861,7 +4073,7 @@
       </c>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -3890,7 +4102,7 @@
       </c>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -3919,7 +4131,7 @@
       </c>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -3947,7 +4159,7 @@
       </c>
       <c r="R33" s="31"/>
     </row>
-    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25">
@@ -3981,7 +4193,7 @@
       </c>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25">
@@ -4015,7 +4227,7 @@
       </c>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25">
@@ -4032,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="60"/>
-      <c r="K36" s="195"/>
+      <c r="K36" s="189"/>
       <c r="L36" s="44"/>
       <c r="M36" s="32"/>
       <c r="N36" s="33"/>
@@ -4095,10 +4307,10 @@
       <c r="L38" s="66"/>
       <c r="M38" s="32"/>
       <c r="N38" s="33"/>
-      <c r="P38" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="9">
+      <c r="P38" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="151">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4114,23 +4326,23 @@
       <c r="H39" s="36"/>
       <c r="I39" s="71"/>
       <c r="J39" s="60"/>
-      <c r="K39" s="196"/>
+      <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="224">
+      <c r="M39" s="223">
         <f>SUM(M5:M38)</f>
-        <v>226381</v>
-      </c>
-      <c r="N39" s="226">
+        <v>247061</v>
+      </c>
+      <c r="N39" s="225">
         <f>SUM(N5:N38)</f>
-        <v>122932</v>
+        <v>172863</v>
       </c>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1606545.75</v>
+        <v>626289.39</v>
       </c>
       <c r="Q39" s="13">
         <f>SUM(Q5:Q38)</f>
-        <v>1063853.75</v>
+        <v>-53663.11</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4146,12 +4358,12 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="225"/>
-      <c r="N40" s="227"/>
+      <c r="M40" s="224"/>
+      <c r="N40" s="226"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="72"/>
@@ -4169,7 +4381,7 @@
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="72"/>
@@ -4187,7 +4399,7 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="72"/>
@@ -4205,7 +4417,7 @@
       <c r="P43" s="34"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="72"/>
@@ -4307,7 +4519,7 @@
       <c r="H49" s="83"/>
       <c r="I49" s="77"/>
       <c r="J49" s="84"/>
-      <c r="K49" s="182"/>
+      <c r="K49" s="177"/>
       <c r="L49" s="9"/>
       <c r="M49" s="85"/>
       <c r="N49" s="33"/>
@@ -4320,7 +4532,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>148108.9</v>
+        <v>152491.9</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -4328,7 +4540,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>542692</v>
+        <v>677404</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -4336,7 +4548,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>6988.85</v>
+        <v>10176.35</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -4344,7 +4556,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>1102135</v>
+        <v>43697.14</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -4362,32 +4574,32 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="228" t="s">
+      <c r="H52" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="229"/>
+      <c r="I52" s="228"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="230">
+      <c r="K52" s="229">
         <f>I50+L50</f>
-        <v>1109123.8500000001</v>
-      </c>
-      <c r="L52" s="231"/>
-      <c r="M52" s="232">
+        <v>53873.49</v>
+      </c>
+      <c r="L52" s="230"/>
+      <c r="M52" s="231">
         <f>N39+M39</f>
-        <v>349313</v>
-      </c>
-      <c r="N52" s="233"/>
+        <v>419924</v>
+      </c>
+      <c r="N52" s="232"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="234" t="s">
+      <c r="D53" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="234"/>
+      <c r="E53" s="233"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
-        <v>-714540.75000000012</v>
+        <v>471038.61</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
@@ -4395,227 +4607,231 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="235" t="s">
+      <c r="D54" s="233" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="233"/>
+      <c r="F54" s="96">
+        <v>-409976.4</v>
+      </c>
+      <c r="I54" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="235"/>
-      <c r="F54" s="96">
-        <v>0</v>
-      </c>
-      <c r="I54" s="236" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="237"/>
-      <c r="K54" s="238">
+      <c r="J54" s="235"/>
+      <c r="K54" s="236">
         <f>F56+F57+F58</f>
-        <v>-714540.75000000012</v>
-      </c>
-      <c r="L54" s="239"/>
+        <v>115422.59999999992</v>
+      </c>
+      <c r="L54" s="237"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="104"/>
+      <c r="D55" s="203" t="s">
+        <v>101</v>
+      </c>
       <c r="E55" s="98"/>
-      <c r="F55" s="105">
-        <v>0</v>
-      </c>
-      <c r="I55" s="106"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="197"/>
-      <c r="L55" s="108"/>
+      <c r="F55" s="104">
+        <v>-513028.96</v>
+      </c>
+      <c r="I55" s="105"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="191"/>
+      <c r="L55" s="107"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-714540.75000000012</v>
+        <v>-451966.75000000006</v>
       </c>
       <c r="H56" s="23"/>
-      <c r="I56" s="109" t="s">
+      <c r="I56" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="109"/>
+      <c r="K56" s="238">
+        <f>-C4</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="239"/>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="110"/>
-      <c r="K56" s="240">
-        <f>-C4</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="241"/>
-    </row>
-    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="111" t="s">
+      <c r="E57" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="98" t="s">
+      <c r="F57" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="112">
+        <v>44507</v>
+      </c>
+      <c r="D58" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="113"/>
-      <c r="D58" s="217" t="s">
+      <c r="E58" s="217"/>
+      <c r="F58" s="113">
+        <v>567389.35</v>
+      </c>
+      <c r="I58" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="218"/>
-      <c r="F58" s="114">
-        <v>0</v>
-      </c>
-      <c r="I58" s="219" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="220"/>
-      <c r="K58" s="221">
+      <c r="J58" s="219"/>
+      <c r="K58" s="220">
         <f>K54+K56</f>
-        <v>-714540.75000000012</v>
-      </c>
-      <c r="L58" s="221"/>
+        <v>115422.59999999992</v>
+      </c>
+      <c r="L58" s="220"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C59" s="115"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="118"/>
-      <c r="J59" s="119"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="117"/>
+      <c r="J59" s="118"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="120"/>
-      <c r="J60" s="120"/>
-      <c r="K60" s="198"/>
-      <c r="L60" s="121"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="192"/>
+      <c r="L60" s="120"/>
     </row>
     <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="122"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="124"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
       <c r="E61" s="34"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="120"/>
-      <c r="K61" s="198"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="125"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="192"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="124"/>
       <c r="N61" s="98"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="122"/>
-      <c r="C62" s="126"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="125"/>
       <c r="E62" s="34"/>
-      <c r="M62" s="125"/>
+      <c r="M62" s="124"/>
       <c r="N62" s="98"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="122"/>
-      <c r="C63" s="126"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="125"/>
       <c r="E63" s="34"/>
-      <c r="F63" s="127"/>
-      <c r="L63" s="128"/>
+      <c r="F63" s="126"/>
+      <c r="L63" s="127"/>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="122"/>
-      <c r="C64" s="126"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="125"/>
       <c r="E64" s="34"/>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="122"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="129"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="128"/>
       <c r="E65" s="34"/>
-      <c r="F65" s="130"/>
+      <c r="F65" s="129"/>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D66" s="129"/>
-      <c r="E66" s="131"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="130"/>
       <c r="F66" s="34"/>
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="129"/>
-      <c r="E67" s="131"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="130"/>
       <c r="F67" s="34"/>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="129"/>
-      <c r="E68" s="131"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="130"/>
       <c r="F68" s="34"/>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="129"/>
-      <c r="E69" s="131"/>
+      <c r="D69" s="128"/>
+      <c r="E69" s="130"/>
       <c r="F69" s="34"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="129"/>
-      <c r="E70" s="131"/>
+      <c r="D70" s="128"/>
+      <c r="E70" s="130"/>
       <c r="F70" s="34"/>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="129"/>
-      <c r="E71" s="131"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="130"/>
       <c r="F71" s="34"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="129"/>
-      <c r="E72" s="131"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="130"/>
       <c r="F72" s="34"/>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="129"/>
-      <c r="E73" s="131"/>
+      <c r="D73" s="128"/>
+      <c r="E73" s="130"/>
       <c r="F73" s="34"/>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D74" s="129"/>
-      <c r="E74" s="131"/>
+      <c r="D74" s="128"/>
+      <c r="E74" s="130"/>
       <c r="F74" s="34"/>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="129"/>
-      <c r="E75" s="131"/>
+      <c r="D75" s="128"/>
+      <c r="E75" s="130"/>
       <c r="F75" s="34"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="129"/>
-      <c r="E76" s="131"/>
+      <c r="D76" s="128"/>
+      <c r="E76" s="130"/>
       <c r="F76" s="34"/>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D77" s="129"/>
-      <c r="E77" s="131"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="130"/>
       <c r="F77" s="34"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="129"/>
-      <c r="E78" s="129"/>
-      <c r="F78" s="130"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="129"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="129"/>
-      <c r="E79" s="129"/>
-      <c r="F79" s="130"/>
+      <c r="D79" s="128"/>
+      <c r="E79" s="128"/>
+      <c r="F79" s="129"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="129"/>
-      <c r="E80" s="129"/>
-      <c r="F80" s="130"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4640,8 +4856,8 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <pageMargins left="0.21" right="0.16" top="0.36" bottom="0.31" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -4652,1316 +4868,2926 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:14" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="200" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="247"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="171" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="C2" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="D2" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="E2" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="246" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="132" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="135"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="137"/>
+      <c r="N2" s="133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="134">
+        <v>44487</v>
+      </c>
+      <c r="B3" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="69">
+        <v>225686.58</v>
+      </c>
+      <c r="D3" s="136"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="138">
+      <c r="F3" s="196">
         <f>C3-E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="137"/>
+        <v>225686.58</v>
+      </c>
+      <c r="I3" s="245">
+        <v>44483</v>
+      </c>
+      <c r="J3" s="249">
+        <v>2554</v>
+      </c>
+      <c r="K3" s="250">
+        <v>19269</v>
+      </c>
+      <c r="L3" s="136"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="196">
+        <f>K3-M3</f>
+        <v>19269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="134">
+        <v>44488</v>
+      </c>
+      <c r="B4" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="69">
+        <v>53647.199999999997</v>
+      </c>
+      <c r="D4" s="136"/>
       <c r="E4" s="69"/>
-      <c r="F4" s="139">
+      <c r="F4" s="137">
         <f>F3+C4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="140"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="137"/>
+        <v>279333.77999999997</v>
+      </c>
+      <c r="G4" s="138"/>
+      <c r="I4" s="245">
+        <v>44487</v>
+      </c>
+      <c r="J4" s="249">
+        <v>2579</v>
+      </c>
+      <c r="K4" s="250">
+        <v>25542</v>
+      </c>
+      <c r="L4" s="136"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="137">
+        <f>N3+K4-M4</f>
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="134">
+        <v>44488</v>
+      </c>
+      <c r="B5" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="69">
+        <v>117061.64</v>
+      </c>
+      <c r="D5" s="136"/>
       <c r="E5" s="69"/>
-      <c r="F5" s="139">
+      <c r="F5" s="137">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="137"/>
+        <v>396395.42</v>
+      </c>
+      <c r="I5" s="245">
+        <v>44487</v>
+      </c>
+      <c r="J5" s="249">
+        <v>2581</v>
+      </c>
+      <c r="K5" s="250">
+        <v>10208</v>
+      </c>
+      <c r="L5" s="136"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="137">
+        <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
+        <v>55019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="134">
+        <v>44488</v>
+      </c>
+      <c r="B6" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="69">
+        <v>1300</v>
+      </c>
+      <c r="D6" s="136"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="137"/>
+      <c r="F6" s="137">
+        <f t="shared" si="0"/>
+        <v>397695.42</v>
+      </c>
+      <c r="I6" s="245">
+        <v>44487</v>
+      </c>
+      <c r="J6" s="249">
+        <v>2582</v>
+      </c>
+      <c r="K6" s="250">
+        <v>14172</v>
+      </c>
+      <c r="L6" s="136"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="137">
+        <f t="shared" si="1"/>
+        <v>69191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="134">
+        <v>44488</v>
+      </c>
+      <c r="B7" s="135" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="69">
+        <v>1741.6</v>
+      </c>
+      <c r="D7" s="136"/>
       <c r="E7" s="69"/>
-      <c r="F7" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="137"/>
+      <c r="F7" s="137">
+        <f t="shared" si="0"/>
+        <v>399437.01999999996</v>
+      </c>
+      <c r="I7" s="245">
+        <v>44487</v>
+      </c>
+      <c r="J7" s="249">
+        <v>2583</v>
+      </c>
+      <c r="K7" s="250">
+        <v>1616</v>
+      </c>
+      <c r="L7" s="136"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="137">
+        <f t="shared" si="1"/>
+        <v>70807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="134">
+        <v>44489</v>
+      </c>
+      <c r="B8" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="69">
+        <v>15000</v>
+      </c>
+      <c r="D8" s="136"/>
       <c r="E8" s="69"/>
-      <c r="F8" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="137"/>
+      <c r="F8" s="137">
+        <f t="shared" si="0"/>
+        <v>414437.01999999996</v>
+      </c>
+      <c r="I8" s="245">
+        <v>44488</v>
+      </c>
+      <c r="J8" s="249">
+        <v>2591</v>
+      </c>
+      <c r="K8" s="250">
+        <v>15642</v>
+      </c>
+      <c r="L8" s="136"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="137">
+        <f t="shared" si="1"/>
+        <v>86449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="134">
+        <v>44489</v>
+      </c>
+      <c r="B9" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="69">
+        <v>23362.9</v>
+      </c>
+      <c r="D9" s="136"/>
       <c r="E9" s="69"/>
-      <c r="F9" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="135"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="137"/>
+      <c r="F9" s="137">
+        <f t="shared" si="0"/>
+        <v>437799.92</v>
+      </c>
+      <c r="I9" s="245">
+        <v>44488</v>
+      </c>
+      <c r="J9" s="249">
+        <v>2592</v>
+      </c>
+      <c r="K9" s="250">
+        <v>13192</v>
+      </c>
+      <c r="L9" s="136"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="137">
+        <f t="shared" si="1"/>
+        <v>99641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="134">
+        <v>44489</v>
+      </c>
+      <c r="B10" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="69">
+        <v>199330</v>
+      </c>
+      <c r="D10" s="136"/>
       <c r="E10" s="69"/>
-      <c r="F10" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="140"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="142"/>
+      <c r="F10" s="137">
+        <f t="shared" si="0"/>
+        <v>637129.91999999993</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="I10" s="245">
+        <v>44488</v>
+      </c>
+      <c r="J10" s="249">
+        <v>2593</v>
+      </c>
+      <c r="K10" s="250">
+        <v>21530</v>
+      </c>
+      <c r="L10" s="136"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="137">
+        <f t="shared" si="1"/>
+        <v>121171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="134">
+        <v>44489</v>
+      </c>
+      <c r="B11" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="69">
+        <v>198868.1</v>
+      </c>
+      <c r="D11" s="140"/>
       <c r="E11" s="69"/>
-      <c r="F11" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="142"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="142"/>
+      <c r="F11" s="137">
+        <f t="shared" si="0"/>
+        <v>835998.0199999999</v>
+      </c>
+      <c r="I11" s="245">
+        <v>44488</v>
+      </c>
+      <c r="J11" s="249">
+        <v>2594</v>
+      </c>
+      <c r="K11" s="250">
+        <v>10768</v>
+      </c>
+      <c r="L11" s="140"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="137">
+        <f t="shared" si="1"/>
+        <v>131939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="140">
+        <v>44489</v>
+      </c>
+      <c r="B12" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="69">
+        <v>191153.5</v>
+      </c>
+      <c r="D12" s="140"/>
       <c r="E12" s="69"/>
-      <c r="F12" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="142"/>
+      <c r="F12" s="137">
+        <f t="shared" si="0"/>
+        <v>1027151.5199999999</v>
+      </c>
+      <c r="I12" s="245">
+        <v>44488</v>
+      </c>
+      <c r="J12" s="249">
+        <v>2595</v>
+      </c>
+      <c r="K12" s="250">
+        <v>90060</v>
+      </c>
+      <c r="L12" s="140"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="137">
+        <f t="shared" si="1"/>
+        <v>221999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="197">
+        <v>44498</v>
+      </c>
+      <c r="B13" s="198" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="199">
+        <v>-1027151.52</v>
+      </c>
+      <c r="D13" s="140"/>
       <c r="E13" s="69"/>
-      <c r="F13" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="142"/>
+      <c r="F13" s="137">
+        <f t="shared" si="0"/>
+        <v>-1.1641532182693481E-10</v>
+      </c>
+      <c r="I13" s="245">
+        <v>44488</v>
+      </c>
+      <c r="J13" s="249">
+        <v>2596</v>
+      </c>
+      <c r="K13" s="250">
+        <v>18321</v>
+      </c>
+      <c r="L13" s="140"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="137">
+        <f t="shared" si="1"/>
+        <v>240320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="140">
+        <v>44498</v>
+      </c>
+      <c r="B14" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="69">
+        <v>6239</v>
+      </c>
+      <c r="D14" s="140"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="142"/>
+      <c r="F14" s="137">
+        <f t="shared" si="0"/>
+        <v>6238.9999999998836</v>
+      </c>
+      <c r="I14" s="245">
+        <v>44488</v>
+      </c>
+      <c r="J14" s="249">
+        <v>2597</v>
+      </c>
+      <c r="K14" s="250">
+        <v>20989</v>
+      </c>
+      <c r="L14" s="140"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="137">
+        <f t="shared" si="1"/>
+        <v>261309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="140">
+        <v>44489</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="69">
+        <v>2200</v>
+      </c>
+      <c r="D15" s="140"/>
       <c r="E15" s="69"/>
-      <c r="F15" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="142"/>
+      <c r="F15" s="137">
+        <f t="shared" si="0"/>
+        <v>8438.9999999998836</v>
+      </c>
+      <c r="I15" s="245">
+        <v>44488</v>
+      </c>
+      <c r="J15" s="249">
+        <v>2598</v>
+      </c>
+      <c r="K15" s="250">
+        <v>25399</v>
+      </c>
+      <c r="L15" s="140"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="137">
+        <f t="shared" si="1"/>
+        <v>286708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="140">
+        <v>44489</v>
+      </c>
+      <c r="B16" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="69">
+        <v>283491.90000000002</v>
+      </c>
+      <c r="D16" s="140">
+        <v>44499</v>
+      </c>
+      <c r="E16" s="69">
+        <v>145000</v>
+      </c>
+      <c r="F16" s="137">
+        <f t="shared" si="0"/>
+        <v>146930.89999999991</v>
+      </c>
+      <c r="I16" s="245">
+        <v>44489</v>
+      </c>
+      <c r="J16" s="249">
+        <v>2600</v>
+      </c>
+      <c r="K16" s="250">
+        <v>6297</v>
+      </c>
+      <c r="L16" s="140"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="137">
+        <f t="shared" si="1"/>
+        <v>293005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="140">
+        <v>44490</v>
+      </c>
+      <c r="B17" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="69">
+        <v>19643.5</v>
+      </c>
+      <c r="D17" s="140"/>
       <c r="E17" s="69"/>
-      <c r="F17" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="142"/>
+      <c r="F17" s="137">
+        <f t="shared" si="0"/>
+        <v>166574.39999999991</v>
+      </c>
+      <c r="I17" s="245">
+        <v>44489</v>
+      </c>
+      <c r="J17" s="249">
+        <v>2601</v>
+      </c>
+      <c r="K17" s="250">
+        <v>12350</v>
+      </c>
+      <c r="L17" s="140"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="137">
+        <f t="shared" si="1"/>
+        <v>305355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="140">
+        <v>44490</v>
+      </c>
+      <c r="B18" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="69">
+        <v>3737</v>
+      </c>
+      <c r="D18" s="140"/>
       <c r="E18" s="69"/>
-      <c r="F18" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="142"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="142"/>
+      <c r="F18" s="137">
+        <f t="shared" si="0"/>
+        <v>170311.39999999991</v>
+      </c>
+      <c r="I18" s="245">
+        <v>44489</v>
+      </c>
+      <c r="J18" s="249">
+        <v>2602</v>
+      </c>
+      <c r="K18" s="250">
+        <v>5444</v>
+      </c>
+      <c r="L18" s="140"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="137">
+        <f t="shared" si="1"/>
+        <v>310799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="140">
+        <v>44491</v>
+      </c>
+      <c r="B19" s="139" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="69">
+        <v>1072.5</v>
+      </c>
+      <c r="D19" s="140"/>
       <c r="E19" s="69"/>
-      <c r="F19" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="142"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="142"/>
+      <c r="F19" s="137">
+        <f t="shared" si="0"/>
+        <v>171383.89999999991</v>
+      </c>
+      <c r="I19" s="245">
+        <v>44489</v>
+      </c>
+      <c r="J19" s="249">
+        <v>2603</v>
+      </c>
+      <c r="K19" s="250">
+        <v>1717</v>
+      </c>
+      <c r="L19" s="140"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="137">
+        <f t="shared" si="1"/>
+        <v>312516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="140">
+        <v>44492</v>
+      </c>
+      <c r="B20" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="69">
+        <v>19152.8</v>
+      </c>
+      <c r="D20" s="140"/>
       <c r="E20" s="69"/>
-      <c r="F20" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="142"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="142"/>
+      <c r="F20" s="137">
+        <f t="shared" si="0"/>
+        <v>190536.6999999999</v>
+      </c>
+      <c r="I20" s="245">
+        <v>44489</v>
+      </c>
+      <c r="J20" s="249">
+        <v>2608</v>
+      </c>
+      <c r="K20" s="250">
+        <v>16136</v>
+      </c>
+      <c r="L20" s="140"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="137">
+        <f t="shared" si="1"/>
+        <v>328652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="140">
+        <v>44492</v>
+      </c>
+      <c r="B21" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="69">
+        <v>2509</v>
+      </c>
+      <c r="D21" s="140"/>
       <c r="E21" s="69"/>
-      <c r="F21" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="142"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="142"/>
+      <c r="F21" s="137">
+        <f t="shared" si="0"/>
+        <v>193045.6999999999</v>
+      </c>
+      <c r="I21" s="245">
+        <v>44489</v>
+      </c>
+      <c r="J21" s="249">
+        <v>2609</v>
+      </c>
+      <c r="K21" s="250">
+        <v>9256</v>
+      </c>
+      <c r="L21" s="140"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="137">
+        <f t="shared" si="1"/>
+        <v>337908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="140">
+        <v>44494</v>
+      </c>
+      <c r="B22" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="69">
+        <v>1228.5</v>
+      </c>
+      <c r="D22" s="140"/>
       <c r="E22" s="69"/>
-      <c r="F22" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="140"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="142"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="142"/>
+      <c r="F22" s="137">
+        <f t="shared" si="0"/>
+        <v>194274.1999999999</v>
+      </c>
+      <c r="G22" s="138"/>
+      <c r="I22" s="245">
+        <v>44490</v>
+      </c>
+      <c r="J22" s="249">
+        <v>2611</v>
+      </c>
+      <c r="K22" s="250">
+        <v>5500</v>
+      </c>
+      <c r="L22" s="140"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="137">
+        <f t="shared" si="1"/>
+        <v>343408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="140">
+        <v>44495</v>
+      </c>
+      <c r="B23" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="69">
+        <v>46234</v>
+      </c>
+      <c r="D23" s="140"/>
       <c r="E23" s="69"/>
-      <c r="F23" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="142"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="142"/>
+      <c r="F23" s="137">
+        <f t="shared" si="0"/>
+        <v>240508.1999999999</v>
+      </c>
+      <c r="I23" s="245">
+        <v>44490</v>
+      </c>
+      <c r="J23" s="249">
+        <v>2615</v>
+      </c>
+      <c r="K23" s="250">
+        <v>1331</v>
+      </c>
+      <c r="L23" s="140"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="137">
+        <f t="shared" si="1"/>
+        <v>344739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="140">
+        <v>44495</v>
+      </c>
+      <c r="B24" s="139" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="69">
+        <v>6250</v>
+      </c>
+      <c r="D24" s="140"/>
       <c r="E24" s="69"/>
-      <c r="F24" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="142"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="142"/>
+      <c r="F24" s="137">
+        <f t="shared" si="0"/>
+        <v>246758.1999999999</v>
+      </c>
+      <c r="I24" s="245">
+        <v>44490</v>
+      </c>
+      <c r="J24" s="249">
+        <v>2619</v>
+      </c>
+      <c r="K24" s="250">
+        <v>420</v>
+      </c>
+      <c r="L24" s="140"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="137">
+        <f t="shared" si="1"/>
+        <v>345159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="140">
+        <v>44496</v>
+      </c>
+      <c r="B25" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="69">
+        <v>2092.1999999999998</v>
+      </c>
+      <c r="D25" s="140"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="142"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="142"/>
+      <c r="F25" s="137">
+        <f t="shared" si="0"/>
+        <v>248850.39999999991</v>
+      </c>
+      <c r="I25" s="245">
+        <v>44490</v>
+      </c>
+      <c r="J25" s="249">
+        <v>2620</v>
+      </c>
+      <c r="K25" s="250">
+        <v>770</v>
+      </c>
+      <c r="L25" s="140"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="137">
+        <f t="shared" si="1"/>
+        <v>345929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="140">
+        <v>44496</v>
+      </c>
+      <c r="B26" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="69">
+        <v>2756</v>
+      </c>
+      <c r="D26" s="140"/>
       <c r="E26" s="69"/>
-      <c r="F26" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="142"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="142"/>
+      <c r="F26" s="137">
+        <f t="shared" si="0"/>
+        <v>251606.39999999991</v>
+      </c>
+      <c r="I26" s="245">
+        <v>44491</v>
+      </c>
+      <c r="J26" s="249">
+        <v>2622</v>
+      </c>
+      <c r="K26" s="250">
+        <v>2257</v>
+      </c>
+      <c r="L26" s="140"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="137">
+        <f t="shared" si="1"/>
+        <v>348186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="140">
+        <v>44496</v>
+      </c>
+      <c r="B27" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="69">
+        <v>9313.6</v>
+      </c>
+      <c r="D27" s="140"/>
       <c r="E27" s="69"/>
-      <c r="F27" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="142"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="142"/>
+      <c r="F27" s="137">
+        <f t="shared" si="0"/>
+        <v>260919.99999999991</v>
+      </c>
+      <c r="I27" s="245">
+        <v>44491</v>
+      </c>
+      <c r="J27" s="249">
+        <v>2623</v>
+      </c>
+      <c r="K27" s="250">
+        <v>60</v>
+      </c>
+      <c r="L27" s="140"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="137">
+        <f t="shared" si="1"/>
+        <v>348246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="140">
+        <v>44497</v>
+      </c>
+      <c r="B28" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="69">
+        <v>10048.5</v>
+      </c>
+      <c r="D28" s="140"/>
       <c r="E28" s="69"/>
-      <c r="F28" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="142"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="142"/>
+      <c r="F28" s="137">
+        <f t="shared" si="0"/>
+        <v>270968.49999999988</v>
+      </c>
+      <c r="I28" s="245">
+        <v>44491</v>
+      </c>
+      <c r="J28" s="249">
+        <v>2628</v>
+      </c>
+      <c r="K28" s="250">
+        <v>39533</v>
+      </c>
+      <c r="L28" s="140"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="137">
+        <f t="shared" si="1"/>
+        <v>387779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="140">
+        <v>44497</v>
+      </c>
+      <c r="B29" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="69">
+        <v>3233</v>
+      </c>
+      <c r="D29" s="140"/>
       <c r="E29" s="69"/>
-      <c r="F29" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="142"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="142"/>
+      <c r="F29" s="137">
+        <f t="shared" si="0"/>
+        <v>274201.49999999988</v>
+      </c>
+      <c r="I29" s="245">
+        <v>44492</v>
+      </c>
+      <c r="J29" s="249">
+        <v>2633</v>
+      </c>
+      <c r="K29" s="250">
+        <v>3727</v>
+      </c>
+      <c r="L29" s="140"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="137">
+        <f t="shared" si="1"/>
+        <v>391506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="140">
+        <v>44498</v>
+      </c>
+      <c r="B30" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="69">
+        <v>18440.3</v>
+      </c>
+      <c r="D30" s="140"/>
       <c r="E30" s="69"/>
-      <c r="F30" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="140"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="142"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="142"/>
+      <c r="F30" s="137">
+        <f t="shared" si="0"/>
+        <v>292641.79999999987</v>
+      </c>
+      <c r="G30" s="138"/>
+      <c r="I30" s="245">
+        <v>44493</v>
+      </c>
+      <c r="J30" s="251">
+        <v>2638</v>
+      </c>
+      <c r="K30" s="252">
+        <v>3861</v>
+      </c>
+      <c r="L30" s="140"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="137">
+        <f t="shared" si="1"/>
+        <v>395367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="140">
+        <v>44498</v>
+      </c>
+      <c r="B31" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="69">
+        <v>5634.12</v>
+      </c>
+      <c r="D31" s="140"/>
       <c r="E31" s="69"/>
-      <c r="F31" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="142"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="142"/>
+      <c r="F31" s="137">
+        <f t="shared" si="0"/>
+        <v>298275.91999999987</v>
+      </c>
+      <c r="I31" s="245">
+        <v>44493</v>
+      </c>
+      <c r="J31" s="249">
+        <v>2641</v>
+      </c>
+      <c r="K31" s="250">
+        <v>24825</v>
+      </c>
+      <c r="L31" s="140"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="137">
+        <f t="shared" si="1"/>
+        <v>420192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="140">
+        <v>44499</v>
+      </c>
+      <c r="B32" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="69">
+        <v>42852</v>
+      </c>
+      <c r="D32" s="140"/>
       <c r="E32" s="69"/>
-      <c r="F32" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="142"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="142"/>
+      <c r="F32" s="137">
+        <f t="shared" si="0"/>
+        <v>341127.91999999987</v>
+      </c>
+      <c r="I32" s="245">
+        <v>44493</v>
+      </c>
+      <c r="J32" s="249">
+        <v>2642</v>
+      </c>
+      <c r="K32" s="250">
+        <v>614</v>
+      </c>
+      <c r="L32" s="140"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="137">
+        <f t="shared" si="1"/>
+        <v>420806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="140">
+        <v>44501</v>
+      </c>
+      <c r="B33" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="69">
+        <v>7757.6</v>
+      </c>
+      <c r="D33" s="140"/>
       <c r="E33" s="69"/>
-      <c r="F33" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="142"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="142"/>
+      <c r="F33" s="137">
+        <f t="shared" si="0"/>
+        <v>348885.51999999984</v>
+      </c>
+      <c r="I33" s="245">
+        <v>44494</v>
+      </c>
+      <c r="J33" s="249">
+        <v>2644</v>
+      </c>
+      <c r="K33" s="250">
+        <v>2901</v>
+      </c>
+      <c r="L33" s="140"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="137">
+        <f t="shared" si="1"/>
+        <v>423707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="140">
+        <v>44502</v>
+      </c>
+      <c r="B34" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="69">
+        <v>6498</v>
+      </c>
+      <c r="D34" s="140"/>
       <c r="E34" s="69"/>
-      <c r="F34" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="142"/>
-      <c r="B35" s="141"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="142"/>
+      <c r="F34" s="137">
+        <f t="shared" si="0"/>
+        <v>355383.51999999984</v>
+      </c>
+      <c r="I34" s="245">
+        <v>44495</v>
+      </c>
+      <c r="J34" s="249">
+        <v>2648</v>
+      </c>
+      <c r="K34" s="250">
+        <v>2623</v>
+      </c>
+      <c r="L34" s="140"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="137">
+        <f t="shared" si="1"/>
+        <v>426330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="140">
+        <v>44504</v>
+      </c>
+      <c r="B35" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="69">
+        <v>5926.3</v>
+      </c>
+      <c r="D35" s="140"/>
       <c r="E35" s="69"/>
-      <c r="F35" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="142"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="142"/>
+      <c r="F35" s="137">
+        <f t="shared" si="0"/>
+        <v>361309.81999999983</v>
+      </c>
+      <c r="I35" s="245">
+        <v>44495</v>
+      </c>
+      <c r="J35" s="249">
+        <v>2653</v>
+      </c>
+      <c r="K35" s="250">
+        <v>740</v>
+      </c>
+      <c r="L35" s="140"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="137">
+        <f t="shared" si="1"/>
+        <v>427070</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="140">
+        <v>44505</v>
+      </c>
+      <c r="B36" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="69">
+        <v>19420.8</v>
+      </c>
+      <c r="D36" s="140"/>
       <c r="E36" s="69"/>
-      <c r="F36" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="142"/>
-      <c r="B37" s="141"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="142"/>
+      <c r="F36" s="137">
+        <f t="shared" si="0"/>
+        <v>380730.61999999982</v>
+      </c>
+      <c r="I36" s="245">
+        <v>44495</v>
+      </c>
+      <c r="J36" s="251">
+        <v>2655</v>
+      </c>
+      <c r="K36" s="252">
+        <v>1189</v>
+      </c>
+      <c r="L36" s="140"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="137">
+        <f t="shared" si="1"/>
+        <v>428259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="140">
+        <v>44505</v>
+      </c>
+      <c r="B37" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="69">
+        <v>10233.200000000001</v>
+      </c>
+      <c r="D37" s="140"/>
       <c r="E37" s="69"/>
-      <c r="F37" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="142"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="142"/>
+      <c r="F37" s="137">
+        <f t="shared" si="0"/>
+        <v>390963.81999999983</v>
+      </c>
+      <c r="I37" s="245">
+        <v>44496</v>
+      </c>
+      <c r="J37" s="249">
+        <v>2659</v>
+      </c>
+      <c r="K37" s="250">
+        <v>6711</v>
+      </c>
+      <c r="L37" s="140"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="137">
+        <f t="shared" si="1"/>
+        <v>434970</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="140">
+        <v>44506</v>
+      </c>
+      <c r="B38" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="69">
+        <v>15301.7</v>
+      </c>
+      <c r="D38" s="140"/>
       <c r="E38" s="69"/>
-      <c r="F38" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="142"/>
-      <c r="B39" s="141"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="142"/>
+      <c r="F38" s="137">
+        <f t="shared" si="0"/>
+        <v>406265.51999999984</v>
+      </c>
+      <c r="I38" s="245">
+        <v>44497</v>
+      </c>
+      <c r="J38" s="249">
+        <v>2666</v>
+      </c>
+      <c r="K38" s="250">
+        <v>71111</v>
+      </c>
+      <c r="L38" s="140"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="137">
+        <f t="shared" si="1"/>
+        <v>506081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="140">
+        <v>44506</v>
+      </c>
+      <c r="B39" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="69">
+        <v>3101.84</v>
+      </c>
+      <c r="D39" s="140"/>
       <c r="E39" s="69"/>
-      <c r="F39" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="142"/>
-      <c r="B40" s="141"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="142"/>
+      <c r="F39" s="137">
+        <f t="shared" si="0"/>
+        <v>409367.35999999987</v>
+      </c>
+      <c r="I39" s="245">
+        <v>44497</v>
+      </c>
+      <c r="J39" s="249">
+        <v>2668</v>
+      </c>
+      <c r="K39" s="250">
+        <v>13525</v>
+      </c>
+      <c r="L39" s="140"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="137">
+        <f t="shared" si="1"/>
+        <v>519606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="140">
+        <v>44506</v>
+      </c>
+      <c r="B40" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="69">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D40" s="140"/>
       <c r="E40" s="69"/>
-      <c r="F40" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="142"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="142"/>
+      <c r="F40" s="137">
+        <f t="shared" si="0"/>
+        <v>409448.95999999985</v>
+      </c>
+      <c r="I40" s="245">
+        <v>44497</v>
+      </c>
+      <c r="J40" s="249">
+        <v>2669</v>
+      </c>
+      <c r="K40" s="250">
+        <v>7227</v>
+      </c>
+      <c r="L40" s="140"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="137">
+        <f t="shared" si="1"/>
+        <v>526833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="140">
+        <v>44507</v>
+      </c>
+      <c r="B41" s="240" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="204">
+        <v>-4472.5600000000004</v>
+      </c>
+      <c r="D41" s="140"/>
       <c r="E41" s="69"/>
-      <c r="F41" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="142"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="142"/>
+      <c r="F41" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I41" s="245">
+        <v>44497</v>
+      </c>
+      <c r="J41" s="249">
+        <v>2672</v>
+      </c>
+      <c r="K41" s="250">
+        <v>2618</v>
+      </c>
+      <c r="L41" s="140"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="137">
+        <f t="shared" si="1"/>
+        <v>529451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="241"/>
+      <c r="C42" s="143">
+        <v>0</v>
+      </c>
+      <c r="D42" s="140"/>
       <c r="E42" s="69"/>
-      <c r="F42" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="142"/>
-      <c r="B43" s="141"/>
+      <c r="F42" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I42" s="245">
+        <v>44498</v>
+      </c>
+      <c r="J42" s="249">
+        <v>2675</v>
+      </c>
+      <c r="K42" s="250">
+        <v>8371</v>
+      </c>
+      <c r="L42" s="140"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="137">
+        <f t="shared" si="1"/>
+        <v>537822</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="140"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="69"/>
-      <c r="D43" s="142"/>
+      <c r="D43" s="140"/>
       <c r="E43" s="69"/>
-      <c r="F43" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="142"/>
-      <c r="B44" s="141"/>
+      <c r="F43" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I43" s="245">
+        <v>44498</v>
+      </c>
+      <c r="J43" s="249">
+        <v>2676</v>
+      </c>
+      <c r="K43" s="250">
+        <v>753</v>
+      </c>
+      <c r="L43" s="140"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="137">
+        <f t="shared" si="1"/>
+        <v>538575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="140"/>
+      <c r="B44" s="139"/>
       <c r="C44" s="69"/>
-      <c r="D44" s="142"/>
+      <c r="D44" s="140"/>
       <c r="E44" s="69"/>
-      <c r="F44" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="142"/>
-      <c r="B45" s="141"/>
+      <c r="F44" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I44" s="245">
+        <v>44498</v>
+      </c>
+      <c r="J44" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="254">
+        <v>-51341.58</v>
+      </c>
+      <c r="L44" s="140"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="137">
+        <f t="shared" si="1"/>
+        <v>487233.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="140"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="69"/>
-      <c r="D45" s="142"/>
+      <c r="D45" s="140"/>
       <c r="E45" s="69"/>
-      <c r="F45" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="142"/>
-      <c r="B46" s="141"/>
+      <c r="F45" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I45" s="245">
+        <v>44499</v>
+      </c>
+      <c r="J45" s="249">
+        <v>2684</v>
+      </c>
+      <c r="K45" s="250">
+        <v>5240</v>
+      </c>
+      <c r="L45" s="140"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="137">
+        <f t="shared" si="1"/>
+        <v>492473.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="140"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="69"/>
-      <c r="D46" s="142"/>
+      <c r="D46" s="140"/>
       <c r="E46" s="69"/>
-      <c r="F46" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="142"/>
-      <c r="B47" s="141"/>
+      <c r="F46" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I46" s="245">
+        <v>44501</v>
+      </c>
+      <c r="J46" s="249">
+        <v>2691</v>
+      </c>
+      <c r="K46" s="250">
+        <v>15576</v>
+      </c>
+      <c r="L46" s="140"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="137">
+        <f t="shared" si="1"/>
+        <v>508049.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="140"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="69"/>
-      <c r="D47" s="142"/>
+      <c r="D47" s="140"/>
       <c r="E47" s="69"/>
-      <c r="F47" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="142"/>
-      <c r="B48" s="141"/>
+      <c r="F47" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I47" s="245">
+        <v>44501</v>
+      </c>
+      <c r="J47" s="249">
+        <v>2692</v>
+      </c>
+      <c r="K47" s="250">
+        <v>739</v>
+      </c>
+      <c r="L47" s="140"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="137">
+        <f t="shared" si="1"/>
+        <v>508788.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="140"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="69"/>
-      <c r="D48" s="142"/>
+      <c r="D48" s="140"/>
       <c r="E48" s="69"/>
-      <c r="F48" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="142"/>
-      <c r="B49" s="141"/>
+      <c r="F48" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I48" s="245">
+        <v>44501</v>
+      </c>
+      <c r="J48" s="249">
+        <v>2693</v>
+      </c>
+      <c r="K48" s="250">
+        <v>623</v>
+      </c>
+      <c r="L48" s="140"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="137">
+        <f t="shared" si="1"/>
+        <v>509411.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="140"/>
+      <c r="B49" s="139"/>
       <c r="C49" s="69"/>
-      <c r="D49" s="142"/>
+      <c r="D49" s="140"/>
       <c r="E49" s="69"/>
-      <c r="F49" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="142"/>
-      <c r="B50" s="141"/>
+      <c r="F49" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I49" s="245">
+        <v>44502</v>
+      </c>
+      <c r="J49" s="249">
+        <v>2700</v>
+      </c>
+      <c r="K49" s="250">
+        <v>2636</v>
+      </c>
+      <c r="L49" s="140"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="137">
+        <f t="shared" si="1"/>
+        <v>512047.42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="140"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="69"/>
-      <c r="D50" s="142"/>
+      <c r="D50" s="140"/>
       <c r="E50" s="69"/>
-      <c r="F50" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="141"/>
+      <c r="F50" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I50" s="245">
+        <v>44502</v>
+      </c>
+      <c r="J50" s="249">
+        <v>2702</v>
+      </c>
+      <c r="K50" s="250">
+        <v>120</v>
+      </c>
+      <c r="L50" s="140"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="137">
+        <f t="shared" si="1"/>
+        <v>512167.42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="140"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="69"/>
-      <c r="D51" s="142"/>
+      <c r="D51" s="140"/>
       <c r="E51" s="69"/>
-      <c r="F51" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="142"/>
-      <c r="B52" s="141"/>
+      <c r="F51" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I51" s="245">
+        <v>44503</v>
+      </c>
+      <c r="J51" s="249">
+        <v>2711</v>
+      </c>
+      <c r="K51" s="250">
+        <v>14669</v>
+      </c>
+      <c r="L51" s="140"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="137">
+        <f t="shared" si="1"/>
+        <v>526836.41999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="140"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="69"/>
-      <c r="D52" s="142"/>
+      <c r="D52" s="140"/>
       <c r="E52" s="69"/>
-      <c r="F52" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="142"/>
-      <c r="B53" s="141"/>
+      <c r="F52" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I52" s="245">
+        <v>44504</v>
+      </c>
+      <c r="J52" s="249">
+        <v>2712</v>
+      </c>
+      <c r="K52" s="250">
+        <v>2897</v>
+      </c>
+      <c r="L52" s="140"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="137">
+        <f t="shared" si="1"/>
+        <v>529733.41999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="140"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="69"/>
-      <c r="D53" s="142"/>
+      <c r="D53" s="140"/>
       <c r="E53" s="69"/>
-      <c r="F53" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="135"/>
-      <c r="B54" s="141"/>
+      <c r="F53" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I53" s="245">
+        <v>44504</v>
+      </c>
+      <c r="J53" s="249">
+        <v>2717</v>
+      </c>
+      <c r="K53" s="250">
+        <v>360</v>
+      </c>
+      <c r="L53" s="140"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="137">
+        <f t="shared" si="1"/>
+        <v>530093.41999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="134"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="142"/>
+      <c r="D54" s="140"/>
       <c r="E54" s="69"/>
-      <c r="F54" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="135"/>
-      <c r="B55" s="141"/>
+      <c r="F54" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I54" s="245">
+        <v>44505</v>
+      </c>
+      <c r="J54" s="249">
+        <v>2722</v>
+      </c>
+      <c r="K54" s="250">
+        <v>4820</v>
+      </c>
+      <c r="L54" s="140"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="137">
+        <f t="shared" si="1"/>
+        <v>534913.41999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="134"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="69"/>
-      <c r="D55" s="142"/>
+      <c r="D55" s="140"/>
       <c r="E55" s="69"/>
-      <c r="F55" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="135"/>
-      <c r="B56" s="141"/>
+      <c r="F55" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I55" s="245">
+        <v>44505</v>
+      </c>
+      <c r="J55" s="249">
+        <v>2724</v>
+      </c>
+      <c r="K55" s="250">
+        <v>4925</v>
+      </c>
+      <c r="L55" s="140"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="137">
+        <f t="shared" si="1"/>
+        <v>539838.41999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="134"/>
+      <c r="B56" s="139"/>
       <c r="C56" s="69"/>
-      <c r="D56" s="142"/>
+      <c r="D56" s="140"/>
       <c r="E56" s="69"/>
-      <c r="F56" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="142"/>
-      <c r="B57" s="141"/>
+      <c r="F56" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I56" s="245">
+        <v>44506</v>
+      </c>
+      <c r="J56" s="249">
+        <v>2732</v>
+      </c>
+      <c r="K56" s="250">
+        <v>5</v>
+      </c>
+      <c r="L56" s="140"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="137">
+        <f t="shared" si="1"/>
+        <v>539843.41999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="140"/>
+      <c r="B57" s="139"/>
       <c r="C57" s="69"/>
-      <c r="D57" s="142"/>
+      <c r="D57" s="140"/>
       <c r="E57" s="69"/>
-      <c r="F57" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="142"/>
-      <c r="B58" s="141"/>
+      <c r="F57" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I57" s="245">
+        <v>44506</v>
+      </c>
+      <c r="J57" s="249">
+        <v>2733</v>
+      </c>
+      <c r="K57" s="250">
+        <v>6665</v>
+      </c>
+      <c r="L57" s="140"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="137">
+        <f t="shared" si="1"/>
+        <v>546508.41999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="140"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="69"/>
-      <c r="D58" s="142"/>
+      <c r="D58" s="140"/>
       <c r="E58" s="69"/>
-      <c r="F58" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="142"/>
-      <c r="B59" s="141"/>
+      <c r="F58" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I58" s="245">
+        <v>44507</v>
+      </c>
+      <c r="J58" s="249">
+        <v>2738</v>
+      </c>
+      <c r="K58" s="250">
+        <v>646</v>
+      </c>
+      <c r="L58" s="140"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="137">
+        <f t="shared" si="1"/>
+        <v>547154.41999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="140"/>
+      <c r="B59" s="139"/>
       <c r="C59" s="69"/>
-      <c r="D59" s="142"/>
+      <c r="D59" s="140"/>
       <c r="E59" s="69"/>
-      <c r="F59" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="135"/>
-      <c r="B60" s="141"/>
+      <c r="F59" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I59" s="245">
+        <v>44507</v>
+      </c>
+      <c r="J59" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" s="254">
+        <v>-34125.46</v>
+      </c>
+      <c r="L59" s="140"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="134"/>
+      <c r="B60" s="139"/>
       <c r="C60" s="69"/>
-      <c r="D60" s="142"/>
+      <c r="D60" s="140"/>
       <c r="E60" s="69"/>
-      <c r="F60" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="135"/>
-      <c r="B61" s="141"/>
+      <c r="F60" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I60" s="134"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="134"/>
+      <c r="B61" s="139"/>
       <c r="C61" s="69"/>
-      <c r="D61" s="142"/>
+      <c r="D61" s="140"/>
       <c r="E61" s="69"/>
-      <c r="F61" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="135"/>
-      <c r="B62" s="141"/>
+      <c r="F61" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I61" s="134"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="134"/>
+      <c r="B62" s="139"/>
       <c r="C62" s="69"/>
-      <c r="D62" s="142"/>
+      <c r="D62" s="140"/>
       <c r="E62" s="69"/>
-      <c r="F62" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="143"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="142"/>
+      <c r="F62" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I62" s="134"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="141"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="140"/>
       <c r="E63" s="69"/>
-      <c r="F63" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="143"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="142"/>
+      <c r="F63" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I63" s="141"/>
+      <c r="J63" s="142"/>
+      <c r="K63" s="143"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="141"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="140"/>
       <c r="E64" s="69"/>
-      <c r="F64" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="143"/>
-      <c r="B65" s="144"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="142"/>
+      <c r="F64" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I64" s="141"/>
+      <c r="J64" s="142"/>
+      <c r="K64" s="143"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="141"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="140"/>
       <c r="E65" s="69"/>
-      <c r="F65" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="143"/>
-      <c r="B66" s="144"/>
-      <c r="C66" s="145"/>
-      <c r="D66" s="142"/>
+      <c r="F65" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I65" s="141"/>
+      <c r="J65" s="142"/>
+      <c r="K65" s="143"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="141"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="69"/>
-      <c r="F66" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="143"/>
-      <c r="B67" s="144"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="142"/>
+      <c r="F66" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I66" s="141"/>
+      <c r="J66" s="142"/>
+      <c r="K66" s="143"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="141"/>
+      <c r="B67" s="142"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="140"/>
       <c r="E67" s="69"/>
-      <c r="F67" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="143"/>
-      <c r="B68" s="144"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="142"/>
+      <c r="F67" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I67" s="141"/>
+      <c r="J67" s="142"/>
+      <c r="K67" s="143"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="141"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="140"/>
       <c r="E68" s="69"/>
-      <c r="F68" s="139">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="143"/>
-      <c r="B69" s="144"/>
-      <c r="C69" s="145"/>
-      <c r="D69" s="142"/>
+      <c r="F68" s="137">
+        <f t="shared" si="0"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I68" s="141"/>
+      <c r="J68" s="142"/>
+      <c r="K68" s="143"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="137">
+        <f t="shared" si="1"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="141"/>
+      <c r="B69" s="142"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="140"/>
       <c r="E69" s="69"/>
-      <c r="F69" s="139">
-        <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="143"/>
-      <c r="B70" s="144"/>
-      <c r="C70" s="145"/>
-      <c r="D70" s="142"/>
+      <c r="F69" s="137">
+        <f t="shared" ref="F69:F97" si="2">F68+C69-E69</f>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I69" s="141"/>
+      <c r="J69" s="142"/>
+      <c r="K69" s="143"/>
+      <c r="L69" s="140"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="137">
+        <f t="shared" ref="N69:N97" si="3">N68+K69-M69</f>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="141"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="140"/>
       <c r="E70" s="69"/>
-      <c r="F70" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="143"/>
-      <c r="B71" s="144"/>
-      <c r="C71" s="145"/>
-      <c r="D71" s="142"/>
+      <c r="F70" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I70" s="141"/>
+      <c r="J70" s="142"/>
+      <c r="K70" s="143"/>
+      <c r="L70" s="140"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="141"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="140"/>
       <c r="E71" s="69"/>
-      <c r="F71" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="143"/>
-      <c r="B72" s="144"/>
-      <c r="C72" s="145"/>
-      <c r="D72" s="142"/>
+      <c r="F71" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I71" s="141"/>
+      <c r="J71" s="142"/>
+      <c r="K71" s="143"/>
+      <c r="L71" s="140"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="141"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="140"/>
       <c r="E72" s="69"/>
-      <c r="F72" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="143"/>
-      <c r="B73" s="144"/>
-      <c r="C73" s="145"/>
-      <c r="D73" s="142"/>
+      <c r="F72" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I72" s="141"/>
+      <c r="J72" s="142"/>
+      <c r="K72" s="143"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="141"/>
+      <c r="B73" s="142"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="140"/>
       <c r="E73" s="69"/>
-      <c r="F73" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="143"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="145"/>
-      <c r="D74" s="142"/>
+      <c r="F73" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I73" s="141"/>
+      <c r="J73" s="142"/>
+      <c r="K73" s="143"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="141"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="140"/>
       <c r="E74" s="69"/>
-      <c r="F74" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="143"/>
-      <c r="B75" s="144"/>
-      <c r="C75" s="145"/>
-      <c r="D75" s="142"/>
+      <c r="F74" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I74" s="141"/>
+      <c r="J74" s="142"/>
+      <c r="K74" s="143"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="141"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="140"/>
       <c r="E75" s="69"/>
-      <c r="F75" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="143"/>
-      <c r="B76" s="144"/>
-      <c r="C76" s="145"/>
-      <c r="D76" s="142"/>
+      <c r="F75" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I75" s="141"/>
+      <c r="J75" s="142"/>
+      <c r="K75" s="143"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="141"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="140"/>
       <c r="E76" s="69"/>
-      <c r="F76" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="143"/>
-      <c r="B77" s="144"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="142"/>
+      <c r="F76" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I76" s="141"/>
+      <c r="J76" s="142"/>
+      <c r="K76" s="143"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="141"/>
+      <c r="B77" s="142"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="140"/>
       <c r="E77" s="69"/>
-      <c r="F77" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="143"/>
-      <c r="B78" s="144"/>
-      <c r="C78" s="145"/>
-      <c r="D78" s="142"/>
+      <c r="F77" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I77" s="141"/>
+      <c r="J77" s="142"/>
+      <c r="K77" s="143"/>
+      <c r="L77" s="140"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="141"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="140"/>
       <c r="E78" s="69"/>
-      <c r="F78" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="143"/>
-      <c r="B79" s="144"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="142"/>
+      <c r="F78" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I78" s="141"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="143"/>
+      <c r="L78" s="140"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="141"/>
+      <c r="B79" s="142"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="140"/>
       <c r="E79" s="69"/>
-      <c r="F79" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="143"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="142"/>
+      <c r="F79" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I79" s="141"/>
+      <c r="J79" s="142"/>
+      <c r="K79" s="143"/>
+      <c r="L79" s="140"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="141"/>
+      <c r="B80" s="142"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="140"/>
       <c r="E80" s="69"/>
-      <c r="F80" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="146"/>
-      <c r="B81" s="147"/>
-      <c r="C81" s="148"/>
-      <c r="D81" s="149"/>
+      <c r="F80" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I80" s="141"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="143"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="144"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="146"/>
+      <c r="D81" s="147"/>
       <c r="E81" s="34"/>
-      <c r="F81" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="146"/>
-      <c r="B82" s="147"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="149"/>
+      <c r="F81" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I81" s="144"/>
+      <c r="J81" s="145"/>
+      <c r="K81" s="146"/>
+      <c r="L81" s="147"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="144"/>
+      <c r="B82" s="145"/>
+      <c r="C82" s="146"/>
+      <c r="D82" s="147"/>
       <c r="E82" s="34"/>
-      <c r="F82" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="146"/>
-      <c r="B83" s="147"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="149"/>
+      <c r="F82" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I82" s="144"/>
+      <c r="J82" s="145"/>
+      <c r="K82" s="146"/>
+      <c r="L82" s="147"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="144"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="146"/>
+      <c r="D83" s="147"/>
       <c r="E83" s="34"/>
-      <c r="F83" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="146"/>
-      <c r="B84" s="147"/>
-      <c r="C84" s="148"/>
-      <c r="D84" s="149"/>
+      <c r="F83" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I83" s="144"/>
+      <c r="J83" s="145"/>
+      <c r="K83" s="146"/>
+      <c r="L83" s="147"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="144"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="146"/>
+      <c r="D84" s="147"/>
       <c r="E84" s="34"/>
-      <c r="F84" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="146"/>
-      <c r="B85" s="147"/>
-      <c r="C85" s="148"/>
-      <c r="D85" s="149"/>
+      <c r="F84" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I84" s="144"/>
+      <c r="J84" s="145"/>
+      <c r="K84" s="146"/>
+      <c r="L84" s="147"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="144"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="146"/>
+      <c r="D85" s="147"/>
       <c r="E85" s="34"/>
-      <c r="F85" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="146"/>
-      <c r="B86" s="147"/>
-      <c r="C86" s="148"/>
-      <c r="D86" s="149"/>
+      <c r="F85" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I85" s="144"/>
+      <c r="J85" s="145"/>
+      <c r="K85" s="146"/>
+      <c r="L85" s="147"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="144"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="147"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="143"/>
-      <c r="B87" s="144"/>
-      <c r="C87" s="145"/>
-      <c r="D87" s="150"/>
+      <c r="F86" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I86" s="144"/>
+      <c r="J86" s="145"/>
+      <c r="K86" s="146"/>
+      <c r="L86" s="147"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="141"/>
+      <c r="B87" s="142"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="148"/>
       <c r="E87" s="69"/>
-      <c r="F87" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="143"/>
-      <c r="B88" s="144"/>
-      <c r="C88" s="145"/>
-      <c r="D88" s="150"/>
+      <c r="F87" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I87" s="141"/>
+      <c r="J87" s="142"/>
+      <c r="K87" s="143"/>
+      <c r="L87" s="148"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="141"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="148"/>
       <c r="E88" s="69"/>
-      <c r="F88" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="143"/>
-      <c r="B89" s="144"/>
-      <c r="C89" s="145"/>
-      <c r="D89" s="150"/>
+      <c r="F88" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I88" s="141"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="143"/>
+      <c r="L88" s="148"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="141"/>
+      <c r="B89" s="142"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="148"/>
       <c r="E89" s="69"/>
-      <c r="F89" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="143"/>
-      <c r="B90" s="144"/>
-      <c r="C90" s="145"/>
-      <c r="D90" s="150"/>
+      <c r="F89" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I89" s="141"/>
+      <c r="J89" s="142"/>
+      <c r="K89" s="143"/>
+      <c r="L89" s="148"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="141"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="148"/>
       <c r="E90" s="69"/>
-      <c r="F90" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="143"/>
-      <c r="B91" s="144"/>
-      <c r="C91" s="145"/>
-      <c r="D91" s="150"/>
+      <c r="F90" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I90" s="141"/>
+      <c r="J90" s="142"/>
+      <c r="K90" s="143"/>
+      <c r="L90" s="148"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="141"/>
+      <c r="B91" s="142"/>
+      <c r="C91" s="143"/>
+      <c r="D91" s="148"/>
       <c r="E91" s="69"/>
-      <c r="F91" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="143"/>
-      <c r="B92" s="144"/>
-      <c r="C92" s="145"/>
-      <c r="D92" s="150"/>
+      <c r="F91" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I91" s="141"/>
+      <c r="J91" s="142"/>
+      <c r="K91" s="143"/>
+      <c r="L91" s="148"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="141"/>
+      <c r="B92" s="142"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="148"/>
       <c r="E92" s="69"/>
-      <c r="F92" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="143"/>
-      <c r="B93" s="144"/>
-      <c r="C93" s="145"/>
-      <c r="D93" s="150"/>
+      <c r="F92" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I92" s="141"/>
+      <c r="J92" s="142"/>
+      <c r="K92" s="143"/>
+      <c r="L92" s="148"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="141"/>
+      <c r="B93" s="142"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="148"/>
       <c r="E93" s="69"/>
-      <c r="F93" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="143"/>
-      <c r="B94" s="144"/>
-      <c r="C94" s="145"/>
-      <c r="D94" s="150"/>
+      <c r="F93" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I93" s="141"/>
+      <c r="J93" s="142"/>
+      <c r="K93" s="143"/>
+      <c r="L93" s="148"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="141"/>
+      <c r="B94" s="142"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="148"/>
       <c r="E94" s="69"/>
-      <c r="F94" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="143"/>
-      <c r="B95" s="144"/>
-      <c r="C95" s="145"/>
-      <c r="D95" s="150"/>
+      <c r="F94" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I94" s="141"/>
+      <c r="J94" s="142"/>
+      <c r="K94" s="143"/>
+      <c r="L94" s="148"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="141"/>
+      <c r="B95" s="142"/>
+      <c r="C95" s="143"/>
+      <c r="D95" s="148"/>
       <c r="E95" s="69"/>
-      <c r="F95" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="143"/>
-      <c r="B96" s="144"/>
-      <c r="C96" s="145"/>
-      <c r="D96" s="150"/>
+      <c r="F95" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I95" s="141"/>
+      <c r="J95" s="142"/>
+      <c r="K95" s="143"/>
+      <c r="L95" s="148"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="141"/>
+      <c r="B96" s="142"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="148"/>
       <c r="E96" s="69"/>
-      <c r="F96" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="151"/>
-      <c r="B97" s="152"/>
-      <c r="C97" s="153">
-        <v>0</v>
-      </c>
-      <c r="D97" s="154"/>
-      <c r="E97" s="153"/>
-      <c r="F97" s="139">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F96" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I96" s="141"/>
+      <c r="J96" s="142"/>
+      <c r="K96" s="143"/>
+      <c r="L96" s="148"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="149"/>
+      <c r="B97" s="150"/>
+      <c r="C97" s="151">
+        <v>0</v>
+      </c>
+      <c r="D97" s="152"/>
+      <c r="E97" s="151"/>
+      <c r="F97" s="137">
+        <f t="shared" si="2"/>
+        <v>404976.39999999985</v>
+      </c>
+      <c r="I97" s="149"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="151">
+        <v>0</v>
+      </c>
+      <c r="L97" s="152"/>
+      <c r="M97" s="151"/>
+      <c r="N97" s="137">
+        <f t="shared" si="3"/>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="98"/>
       <c r="C98" s="1">
         <f>SUM(C3:C97)</f>
-        <v>0</v>
+        <v>549976.39999999967</v>
       </c>
       <c r="D98" s="97"/>
       <c r="E98" s="1">
         <f>SUM(E3:E97)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="155">
+        <v>145000</v>
+      </c>
+      <c r="F98" s="153">
         <f>F97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>404976.39999999985</v>
+      </c>
+      <c r="K98" s="1">
+        <f>SUM(K3:K97)</f>
+        <v>513028.9599999999</v>
+      </c>
+      <c r="L98" s="97"/>
+      <c r="M98" s="1">
+        <f>SUM(M3:M97)</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="153">
+        <f>N97</f>
+        <v>513028.9599999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B99" s="98"/>
       <c r="C99" s="1"/>
       <c r="D99" s="97"/>
       <c r="E99" s="3"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K99" s="1"/>
+      <c r="L99" s="97"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B100" s="98"/>
       <c r="C100" s="1"/>
       <c r="D100" s="97"/>
       <c r="E100" s="3"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K100" s="1"/>
+      <c r="L100" s="97"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101" s="23"/>
       <c r="D101" s="23"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I101"/>
+      <c r="J101" s="248"/>
+      <c r="L101" s="23"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102" s="23"/>
       <c r="D102" s="23"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I102"/>
+      <c r="J102" s="248"/>
+      <c r="L102" s="23"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103" s="23"/>
       <c r="D103" s="23"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I103"/>
+      <c r="J103" s="248"/>
+      <c r="L103" s="23"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104" s="23"/>
       <c r="D104" s="23"/>
       <c r="F104"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I104"/>
+      <c r="J104" s="248"/>
+      <c r="L104" s="23"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105" s="23"/>
       <c r="D105" s="23"/>
       <c r="F105"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I105"/>
+      <c r="J105" s="248"/>
+      <c r="L105" s="23"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106" s="23"/>
       <c r="D106" s="23"/>
       <c r="F106"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I106"/>
+      <c r="J106" s="248"/>
+      <c r="L106" s="23"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107" s="23"/>
       <c r="D107" s="23"/>
       <c r="F107"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I107"/>
+      <c r="J107" s="248"/>
+      <c r="L107" s="23"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108" s="23"/>
       <c r="D108" s="23"/>
       <c r="F108"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I108"/>
+      <c r="J108" s="248"/>
+      <c r="L108" s="23"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109" s="23"/>
       <c r="D109" s="23"/>
       <c r="F109"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I109"/>
+      <c r="J109" s="248"/>
+      <c r="L109" s="23"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110" s="23"/>
       <c r="D110" s="23"/>
       <c r="F110"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I110"/>
+      <c r="J110" s="248"/>
+      <c r="L110" s="23"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111" s="23"/>
       <c r="D111" s="23"/>
       <c r="F111"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I111"/>
+      <c r="J111" s="248"/>
+      <c r="L111" s="23"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112" s="23"/>
       <c r="D112" s="23"/>
       <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I112"/>
+      <c r="J112" s="248"/>
+      <c r="L112" s="23"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113"/>
       <c r="F113"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I113"/>
+      <c r="J113" s="248"/>
+      <c r="L113" s="23"/>
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114"/>
       <c r="F114"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I114"/>
+      <c r="J114" s="248"/>
+      <c r="L114" s="23"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115" s="23"/>
       <c r="D115" s="23"/>
       <c r="E115"/>
       <c r="F115"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I115"/>
+      <c r="J115" s="248"/>
+      <c r="L115" s="23"/>
+      <c r="M115"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116" s="23"/>
       <c r="D116" s="23"/>
       <c r="E116"/>
       <c r="F116"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I116"/>
+      <c r="J116" s="248"/>
+      <c r="L116" s="23"/>
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117"/>
       <c r="F117"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I117"/>
+      <c r="J117" s="248"/>
+      <c r="L117" s="23"/>
+      <c r="M117"/>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118" s="23"/>
       <c r="D118" s="23"/>
       <c r="E118"/>
       <c r="F118"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I118"/>
+      <c r="J118" s="248"/>
+      <c r="L118" s="23"/>
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J119" s="248"/>
+      <c r="L119" s="23"/>
+      <c r="M119"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B120" s="23"/>
       <c r="D120" s="23"/>
       <c r="E120"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J120" s="248"/>
+      <c r="L120" s="23"/>
+      <c r="M120"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J121" s="248"/>
+      <c r="L121" s="23"/>
+      <c r="M121"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J122" s="248"/>
+      <c r="L122" s="23"/>
+      <c r="M122"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J123" s="248"/>
+      <c r="L123" s="23"/>
+      <c r="M123"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" s="23"/>
       <c r="D124" s="23"/>
       <c r="E124"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J124" s="248"/>
+      <c r="L124" s="23"/>
+      <c r="M124"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J125" s="248"/>
+      <c r="L125" s="23"/>
+      <c r="M125"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" s="23"/>
       <c r="D126" s="23"/>
       <c r="E126"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J126" s="248"/>
+      <c r="L126" s="23"/>
+      <c r="M126"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" s="23"/>
       <c r="D127" s="23"/>
       <c r="E127"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J127" s="248"/>
+      <c r="L127" s="23"/>
+      <c r="M127"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" s="23"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="J128" s="248"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" s="23"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="J129" s="248"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" s="23"/>
       <c r="D130" s="23"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="J130" s="248"/>
+      <c r="L130" s="23"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" s="23"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="J131" s="248"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="23"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="J132" s="248"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133" s="23"/>
-    </row>
-    <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="156"/>
+      <c r="J133" s="248"/>
+    </row>
+    <row r="134" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C134" s="154"/>
+      <c r="K134" s="154"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B41:B42"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.11811023622047245" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6014,15 +7840,15 @@
   <sheetData>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="157"/>
+      <c r="A43" s="155"/>
       <c r="B43" s="242" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="243"/>
       <c r="D43" s="243"/>
@@ -6030,148 +7856,148 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="158">
+      <c r="A44" s="156">
         <v>44501</v>
       </c>
-      <c r="B44" s="159" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="160">
+      <c r="B44" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="158">
         <v>484.09</v>
       </c>
-      <c r="D44" s="161" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="162" t="s">
-        <v>53</v>
+      <c r="D44" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="160" t="s">
+        <v>50</v>
       </c>
       <c r="F44" s="101">
         <v>333</v>
       </c>
-      <c r="G44" s="172"/>
+      <c r="G44" s="170"/>
     </row>
     <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="158"/>
-      <c r="B45" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="160">
-        <v>0</v>
-      </c>
-      <c r="D45" s="163" t="s">
+      <c r="A45" s="156"/>
+      <c r="B45" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="162" t="s">
-        <v>30</v>
+      <c r="C45" s="158">
+        <v>0</v>
+      </c>
+      <c r="D45" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="160" t="s">
+        <v>28</v>
       </c>
       <c r="F45" s="101">
         <v>0</v>
       </c>
-      <c r="G45" s="173"/>
+      <c r="G45" s="171"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="158"/>
-      <c r="B46" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="160">
-        <v>0</v>
-      </c>
-      <c r="D46" s="163" t="s">
+      <c r="A46" s="156"/>
+      <c r="B46" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="162" t="s">
-        <v>30</v>
+      <c r="C46" s="158">
+        <v>0</v>
+      </c>
+      <c r="D46" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="160" t="s">
+        <v>28</v>
       </c>
       <c r="F46" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="158"/>
-      <c r="B47" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="160">
-        <v>0</v>
-      </c>
-      <c r="D47" s="163" t="s">
+      <c r="A47" s="156"/>
+      <c r="B47" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="162" t="s">
-        <v>30</v>
+      <c r="C47" s="158">
+        <v>0</v>
+      </c>
+      <c r="D47" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="160" t="s">
+        <v>28</v>
       </c>
       <c r="F47" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="164"/>
-      <c r="B48" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="160">
-        <v>0</v>
-      </c>
-      <c r="D48" s="165" t="s">
+      <c r="A48" s="162"/>
+      <c r="B48" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="162" t="s">
-        <v>30</v>
+      <c r="C48" s="158">
+        <v>0</v>
+      </c>
+      <c r="D48" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="160" t="s">
+        <v>28</v>
       </c>
       <c r="F48" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
-      <c r="B49" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="160">
-        <v>0</v>
-      </c>
-      <c r="D49" s="165" t="s">
+      <c r="A49" s="162"/>
+      <c r="B49" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="162" t="s">
-        <v>30</v>
+      <c r="C49" s="158">
+        <v>0</v>
+      </c>
+      <c r="D49" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="160" t="s">
+        <v>28</v>
       </c>
       <c r="F49" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="164"/>
-      <c r="B50" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="160">
-        <v>0</v>
-      </c>
-      <c r="D50" s="165" t="s">
+      <c r="A50" s="162"/>
+      <c r="B50" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="162" t="s">
-        <v>30</v>
+      <c r="C50" s="158">
+        <v>0</v>
+      </c>
+      <c r="D50" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="160" t="s">
+        <v>28</v>
       </c>
       <c r="F50" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="166"/>
-      <c r="B51" s="159" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="160">
-        <v>0</v>
-      </c>
-      <c r="D51" s="167" t="s">
+      <c r="A51" s="164"/>
+      <c r="B51" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="162" t="s">
-        <v>30</v>
+      <c r="C51" s="158">
+        <v>0</v>
+      </c>
+      <c r="D51" s="165" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="160" t="s">
+        <v>28</v>
       </c>
       <c r="F51" s="101">
         <v>0</v>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
@@ -145,9 +145,6 @@
     <t>INVENTARIO FINAL</t>
   </si>
   <si>
-    <t>GANANCIA</t>
-  </si>
-  <si>
     <t>FECHA</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>Devoluciones</t>
+  </si>
+  <si>
+    <t>PERDIDA</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,8 +785,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,8 +855,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1558,12 +1572,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1967,126 +2025,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="44" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2128,6 +2066,141 @@
     <xf numFmtId="44" fontId="3" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="39" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2848,17 +2921,17 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="97" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="1.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
@@ -2867,30 +2940,30 @@
     <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" style="176" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="205"/>
-      <c r="C1" s="207" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="206"/>
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="235"/>
+      <c r="C1" s="237" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="236"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2899,23 +2972,23 @@
       <c r="M2" s="6"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="209" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="210"/>
+    <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="240"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="211"/>
+      <c r="H3" s="241" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="241"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -2924,14 +2997,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="212" t="s">
+      <c r="E4" s="242" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="213"/>
-      <c r="H4" s="214" t="s">
+      <c r="F4" s="243"/>
+      <c r="H4" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="215"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -2941,12 +3014,12 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="221" t="s">
+      <c r="P4" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="222"/>
-    </row>
-    <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="252"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
@@ -2971,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
@@ -2992,7 +3065,7 @@
       </c>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="24">
         <v>44489</v>
@@ -3018,7 +3091,7 @@
         <v>44489</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="39">
         <v>3000</v>
@@ -3034,15 +3107,18 @@
         <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
         <v>20860</v>
       </c>
-      <c r="Q6" s="258">
+      <c r="Q6" s="218">
         <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
         <v>-2677</v>
       </c>
-      <c r="R6" s="256" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R6" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="147">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="24">
         <v>44490</v>
@@ -3068,7 +3144,7 @@
         <v>44489</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="39">
         <v>3000</v>
@@ -3079,22 +3155,25 @@
       <c r="N7" s="33">
         <v>8843</v>
       </c>
-      <c r="O7" s="255" t="s">
-        <v>36</v>
+      <c r="O7" s="215" t="s">
+        <v>35</v>
       </c>
       <c r="P7" s="69">
         <f t="shared" si="0"/>
         <v>27818</v>
       </c>
-      <c r="Q7" s="259">
+      <c r="Q7" s="219">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="R7" s="257" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R7" s="217" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="147">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="24">
         <v>44491</v>
@@ -3103,7 +3182,7 @@
         <v>206.5</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="27">
         <v>44491</v>
@@ -3122,7 +3201,7 @@
         <v>44491</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="39">
         <v>3300</v>
@@ -3138,15 +3217,18 @@
         <f t="shared" si="0"/>
         <v>25278.5</v>
       </c>
-      <c r="Q8" s="260">
+      <c r="Q8" s="220">
         <f t="shared" si="1"/>
         <v>-3392.5</v>
       </c>
-      <c r="R8" s="256" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R8" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="147">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="24">
         <v>44492</v>
@@ -3172,7 +3254,7 @@
         <v>44492</v>
       </c>
       <c r="K9" s="193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="194">
         <v>1800</v>
@@ -3189,14 +3271,17 @@
         <f>N9+M9+L9+I9+C9</f>
         <v>36624.5</v>
       </c>
-      <c r="Q9" s="261" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="257" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="221" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="217" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="147">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="24">
         <v>44493</v>
@@ -3205,7 +3290,7 @@
         <v>326</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="27">
         <v>44493</v>
@@ -3224,7 +3309,7 @@
         <v>44493</v>
       </c>
       <c r="K10" s="180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="45">
         <v>7500</v>
@@ -3240,15 +3325,18 @@
         <f t="shared" ref="P10:P13" si="2">N10+M10+L10+I10+C10</f>
         <v>26298</v>
       </c>
-      <c r="Q10" s="260">
+      <c r="Q10" s="220">
         <f t="shared" si="1"/>
         <v>-1776</v>
       </c>
-      <c r="R10" s="256" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R10" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="147">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="24">
         <v>44494</v>
@@ -3258,7 +3346,7 @@
         <v>21328</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="27">
         <v>44494</v>
@@ -3287,15 +3375,18 @@
         <f t="shared" si="2"/>
         <v>28522</v>
       </c>
-      <c r="Q11" s="262">
+      <c r="Q11" s="222">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="S11" s="147">
+        <v>44494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="24">
         <v>44495</v>
@@ -3305,7 +3396,7 @@
         <v>14061</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="27">
         <v>44495</v>
@@ -3334,15 +3425,18 @@
         <f t="shared" si="2"/>
         <v>31646</v>
       </c>
-      <c r="Q12" s="262">
+      <c r="Q12" s="222">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="S12" s="147">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="24">
         <v>44496</v>
@@ -3351,7 +3445,7 @@
         <v>2890</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="27">
         <v>44496</v>
@@ -3383,15 +3477,18 @@
         <f t="shared" si="2"/>
         <v>28816.35</v>
       </c>
-      <c r="Q13" s="259">
+      <c r="Q13" s="219">
         <f t="shared" si="1"/>
         <v>1016.3499999999985</v>
       </c>
-      <c r="R13" s="257" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R13" s="217" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="147">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="24">
         <v>44497</v>
@@ -3400,7 +3497,7 @@
         <v>4910</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="27">
         <v>44497</v>
@@ -3429,15 +3526,18 @@
         <f t="shared" ref="P14" si="3">N14+M14+L14+I14+C14</f>
         <v>32621</v>
       </c>
-      <c r="Q14" s="261">
+      <c r="Q14" s="221">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="R14" s="257" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="217" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="147">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="24">
         <v>44498</v>
@@ -3446,7 +3546,7 @@
         <v>9347.5</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="27">
         <v>44498</v>
@@ -3474,15 +3574,18 @@
         <f t="shared" si="0"/>
         <v>28788.5</v>
       </c>
-      <c r="Q15" s="258">
+      <c r="Q15" s="218">
         <f t="shared" si="1"/>
         <v>-2472.5</v>
       </c>
-      <c r="R15" s="256" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R15" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="147">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="24">
         <v>44499</v>
@@ -3491,7 +3594,7 @@
         <v>1588</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="27">
         <v>44499</v>
@@ -3519,12 +3622,15 @@
         <f t="shared" si="0"/>
         <v>49883</v>
       </c>
-      <c r="Q16" s="263">
+      <c r="Q16" s="223">
         <f t="shared" si="1"/>
         <v>1942</v>
       </c>
-      <c r="R16" s="257" t="s">
-        <v>44</v>
+      <c r="R16" s="217" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="147">
+        <v>44499</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3562,12 +3668,15 @@
         <f t="shared" si="0"/>
         <v>38871.5</v>
       </c>
-      <c r="Q17" s="263">
+      <c r="Q17" s="223">
         <f t="shared" si="1"/>
         <v>378.5</v>
       </c>
-      <c r="R17" s="257" t="s">
-        <v>44</v>
+      <c r="R17" s="217" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="147">
+        <v>44500</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3579,7 +3688,7 @@
         <v>1225</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="27">
         <v>44501</v>
@@ -3598,7 +3707,7 @@
         <v>44501</v>
       </c>
       <c r="K18" s="183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="39">
         <v>1440</v>
@@ -3614,12 +3723,15 @@
         <f t="shared" si="0"/>
         <v>39738</v>
       </c>
-      <c r="Q18" s="260">
+      <c r="Q18" s="220">
         <f t="shared" si="1"/>
         <v>-3452</v>
       </c>
-      <c r="R18" s="256" t="s">
-        <v>33</v>
+      <c r="R18" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="147">
+        <v>44501</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3632,7 +3744,7 @@
         <v>23164</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="27">
         <v>44502</v>
@@ -3660,12 +3772,15 @@
         <f t="shared" si="0"/>
         <v>37356.5</v>
       </c>
-      <c r="Q19" s="260">
+      <c r="Q19" s="220">
         <f t="shared" si="1"/>
         <v>-822.5</v>
       </c>
-      <c r="R19" s="256" t="s">
-        <v>33</v>
+      <c r="R19" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="147">
+        <v>44502</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3678,7 +3793,7 @@
         <v>33449.9</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="27">
         <v>44503</v>
@@ -3706,11 +3821,14 @@
         <f t="shared" si="0"/>
         <v>39315.9</v>
       </c>
-      <c r="Q20" s="262">
+      <c r="Q20" s="222">
         <f t="shared" si="1"/>
         <v>0.90000000000145519</v>
       </c>
       <c r="R20" s="38"/>
+      <c r="S20" s="147">
+        <v>44503</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
@@ -3722,7 +3840,7 @@
         <v>35613</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="27">
         <v>44504</v>
@@ -3750,11 +3868,14 @@
         <f t="shared" si="0"/>
         <v>43752</v>
       </c>
-      <c r="Q21" s="262">
+      <c r="Q21" s="222">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="38"/>
+      <c r="S21" s="147">
+        <v>44504</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
@@ -3765,7 +3886,7 @@
         <v>1777</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="27">
         <v>44505</v>
@@ -3793,12 +3914,15 @@
         <f t="shared" si="0"/>
         <v>29504</v>
       </c>
-      <c r="Q22" s="260">
+      <c r="Q22" s="220">
         <f t="shared" si="1"/>
         <v>-1457</v>
       </c>
-      <c r="R22" s="256" t="s">
-        <v>33</v>
+      <c r="R22" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="147">
+        <v>44505</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3811,7 +3935,7 @@
         <v>2606</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="27">
         <v>44506</v>
@@ -3830,7 +3954,7 @@
         <v>44506</v>
       </c>
       <c r="K23" s="185" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L23" s="45">
         <v>23657.14</v>
@@ -3845,12 +3969,15 @@
         <f t="shared" si="0"/>
         <v>50727.14</v>
       </c>
-      <c r="Q23" s="260">
+      <c r="Q23" s="220">
         <f t="shared" si="1"/>
         <v>-18819.86</v>
       </c>
-      <c r="R23" s="256" t="s">
-        <v>33</v>
+      <c r="R23" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="147">
+        <v>44506</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3888,12 +4015,15 @@
         <f t="shared" si="0"/>
         <v>9868.5</v>
       </c>
-      <c r="Q24" s="260">
+      <c r="Q24" s="220">
         <f t="shared" si="1"/>
         <v>-24335.5</v>
       </c>
-      <c r="R24" s="256" t="s">
-        <v>33</v>
+      <c r="R24" s="216" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="147">
+        <v>44507</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -3915,11 +4045,11 @@
       <c r="N25" s="33">
         <v>0</v>
       </c>
-      <c r="P25" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
+      <c r="P25" s="232">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="233">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3928,7 +4058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -3947,7 +4077,7 @@
       <c r="N26" s="33">
         <v>0</v>
       </c>
-      <c r="P26" s="69">
+      <c r="P26" s="231">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3957,7 +4087,7 @@
       </c>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -4257,7 +4387,7 @@
       </c>
       <c r="R36" s="31"/>
     </row>
-    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25">
@@ -4286,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25">
@@ -4328,11 +4458,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="223">
+      <c r="M39" s="253">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="225">
+      <c r="N39" s="255">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -4340,7 +4470,7 @@
         <f>SUM(P5:P38)</f>
         <v>626289.39</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="234">
         <f>SUM(Q5:Q38)</f>
         <v>-53663.11</v>
       </c>
@@ -4358,8 +4488,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="224"/>
-      <c r="N40" s="226"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="256"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4574,29 +4704,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="227" t="s">
+      <c r="H52" s="257" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="228"/>
+      <c r="I52" s="258"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="229">
+      <c r="K52" s="259">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="230"/>
-      <c r="M52" s="231">
+      <c r="L52" s="260"/>
+      <c r="M52" s="261">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="232"/>
+      <c r="N52" s="262"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="233" t="s">
+      <c r="D53" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="233"/>
+      <c r="E53" s="263"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -4607,28 +4737,28 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="233" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="233"/>
+      <c r="D54" s="263" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="263"/>
       <c r="F54" s="96">
-        <v>-409976.4</v>
-      </c>
-      <c r="I54" s="234" t="s">
+        <v>-549976.4</v>
+      </c>
+      <c r="I54" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="235"/>
-      <c r="K54" s="236">
+      <c r="J54" s="265"/>
+      <c r="K54" s="266">
         <f>F56+F57+F58</f>
-        <v>115422.59999999992</v>
-      </c>
-      <c r="L54" s="237"/>
+        <v>-24577.400000000023</v>
+      </c>
+      <c r="L54" s="267"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="203" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" s="98"/>
       <c r="F55" s="104">
@@ -4648,18 +4778,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>-451966.75000000006</v>
+        <v>-591966.75</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="238">
+      <c r="K56" s="268">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="239"/>
+      <c r="L56" s="269"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -4676,22 +4806,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="216" t="s">
+      <c r="D58" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="217"/>
+      <c r="E58" s="247"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="218" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="219"/>
-      <c r="K58" s="220">
+      <c r="I58" s="248" t="s">
+        <v>103</v>
+      </c>
+      <c r="J58" s="249"/>
+      <c r="K58" s="250">
         <f>K54+K56</f>
-        <v>115422.59999999992</v>
-      </c>
-      <c r="L58" s="220"/>
+        <v>-24577.400000000023</v>
+      </c>
+      <c r="L58" s="250"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -4870,8 +5000,8 @@
   </sheetPr>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,62 +5023,62 @@
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="168"/>
       <c r="D1" s="167"/>
       <c r="E1" s="168"/>
       <c r="F1" s="169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="247"/>
+        <v>97</v>
+      </c>
+      <c r="J1" s="207"/>
       <c r="K1" s="202"/>
       <c r="L1" s="201"/>
       <c r="M1" s="202"/>
       <c r="N1" s="169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="C2" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="D2" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="E2" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="132" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="206" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="246" t="s">
+      <c r="M2" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="133" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="132" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="132" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="133" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4956,7 +5086,7 @@
         <v>44487</v>
       </c>
       <c r="B3" s="135" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="69">
         <v>225686.58</v>
@@ -4967,13 +5097,13 @@
         <f>C3-E3</f>
         <v>225686.58</v>
       </c>
-      <c r="I3" s="245">
+      <c r="I3" s="205">
         <v>44483</v>
       </c>
-      <c r="J3" s="249">
+      <c r="J3" s="209">
         <v>2554</v>
       </c>
-      <c r="K3" s="250">
+      <c r="K3" s="210">
         <v>19269</v>
       </c>
       <c r="L3" s="136"/>
@@ -4988,7 +5118,7 @@
         <v>44488</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="69">
         <v>53647.199999999997</v>
@@ -5000,13 +5130,13 @@
         <v>279333.77999999997</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="245">
+      <c r="I4" s="205">
         <v>44487</v>
       </c>
-      <c r="J4" s="249">
+      <c r="J4" s="209">
         <v>2579</v>
       </c>
-      <c r="K4" s="250">
+      <c r="K4" s="210">
         <v>25542</v>
       </c>
       <c r="L4" s="136"/>
@@ -5021,7 +5151,7 @@
         <v>44488</v>
       </c>
       <c r="B5" s="135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="69">
         <v>117061.64</v>
@@ -5032,13 +5162,13 @@
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>396395.42</v>
       </c>
-      <c r="I5" s="245">
+      <c r="I5" s="205">
         <v>44487</v>
       </c>
-      <c r="J5" s="249">
+      <c r="J5" s="209">
         <v>2581</v>
       </c>
-      <c r="K5" s="250">
+      <c r="K5" s="210">
         <v>10208</v>
       </c>
       <c r="L5" s="136"/>
@@ -5053,7 +5183,7 @@
         <v>44488</v>
       </c>
       <c r="B6" s="135" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="69">
         <v>1300</v>
@@ -5064,13 +5194,13 @@
         <f t="shared" si="0"/>
         <v>397695.42</v>
       </c>
-      <c r="I6" s="245">
+      <c r="I6" s="205">
         <v>44487</v>
       </c>
-      <c r="J6" s="249">
+      <c r="J6" s="209">
         <v>2582</v>
       </c>
-      <c r="K6" s="250">
+      <c r="K6" s="210">
         <v>14172</v>
       </c>
       <c r="L6" s="136"/>
@@ -5085,7 +5215,7 @@
         <v>44488</v>
       </c>
       <c r="B7" s="135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="69">
         <v>1741.6</v>
@@ -5096,13 +5226,13 @@
         <f t="shared" si="0"/>
         <v>399437.01999999996</v>
       </c>
-      <c r="I7" s="245">
+      <c r="I7" s="205">
         <v>44487</v>
       </c>
-      <c r="J7" s="249">
+      <c r="J7" s="209">
         <v>2583</v>
       </c>
-      <c r="K7" s="250">
+      <c r="K7" s="210">
         <v>1616</v>
       </c>
       <c r="L7" s="136"/>
@@ -5117,7 +5247,7 @@
         <v>44489</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="69">
         <v>15000</v>
@@ -5128,13 +5258,13 @@
         <f t="shared" si="0"/>
         <v>414437.01999999996</v>
       </c>
-      <c r="I8" s="245">
+      <c r="I8" s="205">
         <v>44488</v>
       </c>
-      <c r="J8" s="249">
+      <c r="J8" s="209">
         <v>2591</v>
       </c>
-      <c r="K8" s="250">
+      <c r="K8" s="210">
         <v>15642</v>
       </c>
       <c r="L8" s="136"/>
@@ -5149,7 +5279,7 @@
         <v>44489</v>
       </c>
       <c r="B9" s="135" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="69">
         <v>23362.9</v>
@@ -5160,13 +5290,13 @@
         <f t="shared" si="0"/>
         <v>437799.92</v>
       </c>
-      <c r="I9" s="245">
+      <c r="I9" s="205">
         <v>44488</v>
       </c>
-      <c r="J9" s="249">
+      <c r="J9" s="209">
         <v>2592</v>
       </c>
-      <c r="K9" s="250">
+      <c r="K9" s="210">
         <v>13192</v>
       </c>
       <c r="L9" s="136"/>
@@ -5181,7 +5311,7 @@
         <v>44489</v>
       </c>
       <c r="B10" s="135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="69">
         <v>199330</v>
@@ -5193,13 +5323,13 @@
         <v>637129.91999999993</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="245">
+      <c r="I10" s="205">
         <v>44488</v>
       </c>
-      <c r="J10" s="249">
+      <c r="J10" s="209">
         <v>2593</v>
       </c>
-      <c r="K10" s="250">
+      <c r="K10" s="210">
         <v>21530</v>
       </c>
       <c r="L10" s="136"/>
@@ -5214,7 +5344,7 @@
         <v>44489</v>
       </c>
       <c r="B11" s="139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="69">
         <v>198868.1</v>
@@ -5225,13 +5355,13 @@
         <f t="shared" si="0"/>
         <v>835998.0199999999</v>
       </c>
-      <c r="I11" s="245">
+      <c r="I11" s="205">
         <v>44488</v>
       </c>
-      <c r="J11" s="249">
+      <c r="J11" s="209">
         <v>2594</v>
       </c>
-      <c r="K11" s="250">
+      <c r="K11" s="210">
         <v>10768</v>
       </c>
       <c r="L11" s="140"/>
@@ -5245,8 +5375,8 @@
       <c r="A12" s="140">
         <v>44489</v>
       </c>
-      <c r="B12" s="139" t="s">
-        <v>69</v>
+      <c r="B12" s="224" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="69">
         <v>191153.5</v>
@@ -5257,13 +5387,13 @@
         <f t="shared" si="0"/>
         <v>1027151.5199999999</v>
       </c>
-      <c r="I12" s="245">
+      <c r="I12" s="205">
         <v>44488</v>
       </c>
-      <c r="J12" s="249">
+      <c r="J12" s="209">
         <v>2595</v>
       </c>
-      <c r="K12" s="250">
+      <c r="K12" s="210">
         <v>90060</v>
       </c>
       <c r="L12" s="140"/>
@@ -5278,7 +5408,7 @@
         <v>44498</v>
       </c>
       <c r="B13" s="198" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="199">
         <v>-1027151.52</v>
@@ -5289,13 +5419,13 @@
         <f t="shared" si="0"/>
         <v>-1.1641532182693481E-10</v>
       </c>
-      <c r="I13" s="245">
+      <c r="I13" s="205">
         <v>44488</v>
       </c>
-      <c r="J13" s="249">
+      <c r="J13" s="209">
         <v>2596</v>
       </c>
-      <c r="K13" s="250">
+      <c r="K13" s="210">
         <v>18321</v>
       </c>
       <c r="L13" s="140"/>
@@ -5309,8 +5439,8 @@
       <c r="A14" s="140">
         <v>44498</v>
       </c>
-      <c r="B14" s="139" t="s">
-        <v>69</v>
+      <c r="B14" s="224" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="69">
         <v>6239</v>
@@ -5321,13 +5451,13 @@
         <f t="shared" si="0"/>
         <v>6238.9999999998836</v>
       </c>
-      <c r="I14" s="245">
+      <c r="I14" s="205">
         <v>44488</v>
       </c>
-      <c r="J14" s="249">
+      <c r="J14" s="209">
         <v>2597</v>
       </c>
-      <c r="K14" s="250">
+      <c r="K14" s="210">
         <v>20989</v>
       </c>
       <c r="L14" s="140"/>
@@ -5342,7 +5472,7 @@
         <v>44489</v>
       </c>
       <c r="B15" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="69">
         <v>2200</v>
@@ -5353,13 +5483,13 @@
         <f t="shared" si="0"/>
         <v>8438.9999999998836</v>
       </c>
-      <c r="I15" s="245">
+      <c r="I15" s="205">
         <v>44488</v>
       </c>
-      <c r="J15" s="249">
+      <c r="J15" s="209">
         <v>2598</v>
       </c>
-      <c r="K15" s="250">
+      <c r="K15" s="210">
         <v>25399</v>
       </c>
       <c r="L15" s="140"/>
@@ -5374,7 +5504,7 @@
         <v>44489</v>
       </c>
       <c r="B16" s="139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="69">
         <v>283491.90000000002</v>
@@ -5389,13 +5519,13 @@
         <f t="shared" si="0"/>
         <v>146930.89999999991</v>
       </c>
-      <c r="I16" s="245">
+      <c r="I16" s="205">
         <v>44489</v>
       </c>
-      <c r="J16" s="249">
+      <c r="J16" s="209">
         <v>2600</v>
       </c>
-      <c r="K16" s="250">
+      <c r="K16" s="210">
         <v>6297</v>
       </c>
       <c r="L16" s="140"/>
@@ -5410,7 +5540,7 @@
         <v>44490</v>
       </c>
       <c r="B17" s="139" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="69">
         <v>19643.5</v>
@@ -5421,13 +5551,13 @@
         <f t="shared" si="0"/>
         <v>166574.39999999991</v>
       </c>
-      <c r="I17" s="245">
+      <c r="I17" s="205">
         <v>44489</v>
       </c>
-      <c r="J17" s="249">
+      <c r="J17" s="209">
         <v>2601</v>
       </c>
-      <c r="K17" s="250">
+      <c r="K17" s="210">
         <v>12350</v>
       </c>
       <c r="L17" s="140"/>
@@ -5442,7 +5572,7 @@
         <v>44490</v>
       </c>
       <c r="B18" s="139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="69">
         <v>3737</v>
@@ -5453,13 +5583,13 @@
         <f t="shared" si="0"/>
         <v>170311.39999999991</v>
       </c>
-      <c r="I18" s="245">
+      <c r="I18" s="205">
         <v>44489</v>
       </c>
-      <c r="J18" s="249">
+      <c r="J18" s="209">
         <v>2602</v>
       </c>
-      <c r="K18" s="250">
+      <c r="K18" s="210">
         <v>5444</v>
       </c>
       <c r="L18" s="140"/>
@@ -5474,7 +5604,7 @@
         <v>44491</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="69">
         <v>1072.5</v>
@@ -5485,13 +5615,13 @@
         <f t="shared" si="0"/>
         <v>171383.89999999991</v>
       </c>
-      <c r="I19" s="245">
+      <c r="I19" s="205">
         <v>44489</v>
       </c>
-      <c r="J19" s="249">
+      <c r="J19" s="209">
         <v>2603</v>
       </c>
-      <c r="K19" s="250">
+      <c r="K19" s="210">
         <v>1717</v>
       </c>
       <c r="L19" s="140"/>
@@ -5506,7 +5636,7 @@
         <v>44492</v>
       </c>
       <c r="B20" s="139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="69">
         <v>19152.8</v>
@@ -5517,13 +5647,13 @@
         <f t="shared" si="0"/>
         <v>190536.6999999999</v>
       </c>
-      <c r="I20" s="245">
+      <c r="I20" s="205">
         <v>44489</v>
       </c>
-      <c r="J20" s="249">
+      <c r="J20" s="209">
         <v>2608</v>
       </c>
-      <c r="K20" s="250">
+      <c r="K20" s="210">
         <v>16136</v>
       </c>
       <c r="L20" s="140"/>
@@ -5538,7 +5668,7 @@
         <v>44492</v>
       </c>
       <c r="B21" s="139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="69">
         <v>2509</v>
@@ -5549,13 +5679,13 @@
         <f t="shared" si="0"/>
         <v>193045.6999999999</v>
       </c>
-      <c r="I21" s="245">
+      <c r="I21" s="205">
         <v>44489</v>
       </c>
-      <c r="J21" s="249">
+      <c r="J21" s="209">
         <v>2609</v>
       </c>
-      <c r="K21" s="250">
+      <c r="K21" s="210">
         <v>9256</v>
       </c>
       <c r="L21" s="140"/>
@@ -5570,7 +5700,7 @@
         <v>44494</v>
       </c>
       <c r="B22" s="139" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="69">
         <v>1228.5</v>
@@ -5582,13 +5712,13 @@
         <v>194274.1999999999</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="245">
+      <c r="I22" s="205">
         <v>44490</v>
       </c>
-      <c r="J22" s="249">
+      <c r="J22" s="209">
         <v>2611</v>
       </c>
-      <c r="K22" s="250">
+      <c r="K22" s="210">
         <v>5500</v>
       </c>
       <c r="L22" s="140"/>
@@ -5603,7 +5733,7 @@
         <v>44495</v>
       </c>
       <c r="B23" s="139" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="69">
         <v>46234</v>
@@ -5614,13 +5744,13 @@
         <f t="shared" si="0"/>
         <v>240508.1999999999</v>
       </c>
-      <c r="I23" s="245">
+      <c r="I23" s="205">
         <v>44490</v>
       </c>
-      <c r="J23" s="249">
+      <c r="J23" s="209">
         <v>2615</v>
       </c>
-      <c r="K23" s="250">
+      <c r="K23" s="210">
         <v>1331</v>
       </c>
       <c r="L23" s="140"/>
@@ -5635,7 +5765,7 @@
         <v>44495</v>
       </c>
       <c r="B24" s="139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="69">
         <v>6250</v>
@@ -5646,13 +5776,13 @@
         <f t="shared" si="0"/>
         <v>246758.1999999999</v>
       </c>
-      <c r="I24" s="245">
+      <c r="I24" s="205">
         <v>44490</v>
       </c>
-      <c r="J24" s="249">
+      <c r="J24" s="209">
         <v>2619</v>
       </c>
-      <c r="K24" s="250">
+      <c r="K24" s="210">
         <v>420</v>
       </c>
       <c r="L24" s="140"/>
@@ -5667,7 +5797,7 @@
         <v>44496</v>
       </c>
       <c r="B25" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="69">
         <v>2092.1999999999998</v>
@@ -5678,13 +5808,13 @@
         <f t="shared" si="0"/>
         <v>248850.39999999991</v>
       </c>
-      <c r="I25" s="245">
+      <c r="I25" s="205">
         <v>44490</v>
       </c>
-      <c r="J25" s="249">
+      <c r="J25" s="209">
         <v>2620</v>
       </c>
-      <c r="K25" s="250">
+      <c r="K25" s="210">
         <v>770</v>
       </c>
       <c r="L25" s="140"/>
@@ -5699,7 +5829,7 @@
         <v>44496</v>
       </c>
       <c r="B26" s="139" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="69">
         <v>2756</v>
@@ -5710,13 +5840,13 @@
         <f t="shared" si="0"/>
         <v>251606.39999999991</v>
       </c>
-      <c r="I26" s="245">
+      <c r="I26" s="205">
         <v>44491</v>
       </c>
-      <c r="J26" s="249">
+      <c r="J26" s="209">
         <v>2622</v>
       </c>
-      <c r="K26" s="250">
+      <c r="K26" s="210">
         <v>2257</v>
       </c>
       <c r="L26" s="140"/>
@@ -5731,7 +5861,7 @@
         <v>44496</v>
       </c>
       <c r="B27" s="139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="69">
         <v>9313.6</v>
@@ -5742,13 +5872,13 @@
         <f t="shared" si="0"/>
         <v>260919.99999999991</v>
       </c>
-      <c r="I27" s="245">
+      <c r="I27" s="205">
         <v>44491</v>
       </c>
-      <c r="J27" s="249">
+      <c r="J27" s="209">
         <v>2623</v>
       </c>
-      <c r="K27" s="250">
+      <c r="K27" s="210">
         <v>60</v>
       </c>
       <c r="L27" s="140"/>
@@ -5763,7 +5893,7 @@
         <v>44497</v>
       </c>
       <c r="B28" s="139" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="69">
         <v>10048.5</v>
@@ -5774,13 +5904,13 @@
         <f t="shared" si="0"/>
         <v>270968.49999999988</v>
       </c>
-      <c r="I28" s="245">
+      <c r="I28" s="205">
         <v>44491</v>
       </c>
-      <c r="J28" s="249">
+      <c r="J28" s="209">
         <v>2628</v>
       </c>
-      <c r="K28" s="250">
+      <c r="K28" s="210">
         <v>39533</v>
       </c>
       <c r="L28" s="140"/>
@@ -5795,7 +5925,7 @@
         <v>44497</v>
       </c>
       <c r="B29" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="69">
         <v>3233</v>
@@ -5806,13 +5936,13 @@
         <f t="shared" si="0"/>
         <v>274201.49999999988</v>
       </c>
-      <c r="I29" s="245">
+      <c r="I29" s="205">
         <v>44492</v>
       </c>
-      <c r="J29" s="249">
+      <c r="J29" s="209">
         <v>2633</v>
       </c>
-      <c r="K29" s="250">
+      <c r="K29" s="210">
         <v>3727</v>
       </c>
       <c r="L29" s="140"/>
@@ -5827,7 +5957,7 @@
         <v>44498</v>
       </c>
       <c r="B30" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="69">
         <v>18440.3</v>
@@ -5839,13 +5969,13 @@
         <v>292641.79999999987</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="245">
+      <c r="I30" s="205">
         <v>44493</v>
       </c>
-      <c r="J30" s="251">
+      <c r="J30" s="211">
         <v>2638</v>
       </c>
-      <c r="K30" s="252">
+      <c r="K30" s="212">
         <v>3861</v>
       </c>
       <c r="L30" s="140"/>
@@ -5860,7 +5990,7 @@
         <v>44498</v>
       </c>
       <c r="B31" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="69">
         <v>5634.12</v>
@@ -5871,13 +6001,13 @@
         <f t="shared" si="0"/>
         <v>298275.91999999987</v>
       </c>
-      <c r="I31" s="245">
+      <c r="I31" s="205">
         <v>44493</v>
       </c>
-      <c r="J31" s="249">
+      <c r="J31" s="209">
         <v>2641</v>
       </c>
-      <c r="K31" s="250">
+      <c r="K31" s="210">
         <v>24825</v>
       </c>
       <c r="L31" s="140"/>
@@ -5892,7 +6022,7 @@
         <v>44499</v>
       </c>
       <c r="B32" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="69">
         <v>42852</v>
@@ -5903,13 +6033,13 @@
         <f t="shared" si="0"/>
         <v>341127.91999999987</v>
       </c>
-      <c r="I32" s="245">
+      <c r="I32" s="205">
         <v>44493</v>
       </c>
-      <c r="J32" s="249">
+      <c r="J32" s="209">
         <v>2642</v>
       </c>
-      <c r="K32" s="250">
+      <c r="K32" s="210">
         <v>614</v>
       </c>
       <c r="L32" s="140"/>
@@ -5924,7 +6054,7 @@
         <v>44501</v>
       </c>
       <c r="B33" s="139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="69">
         <v>7757.6</v>
@@ -5935,13 +6065,13 @@
         <f t="shared" si="0"/>
         <v>348885.51999999984</v>
       </c>
-      <c r="I33" s="245">
+      <c r="I33" s="205">
         <v>44494</v>
       </c>
-      <c r="J33" s="249">
+      <c r="J33" s="209">
         <v>2644</v>
       </c>
-      <c r="K33" s="250">
+      <c r="K33" s="210">
         <v>2901</v>
       </c>
       <c r="L33" s="140"/>
@@ -5956,7 +6086,7 @@
         <v>44502</v>
       </c>
       <c r="B34" s="139" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="69">
         <v>6498</v>
@@ -5967,13 +6097,13 @@
         <f t="shared" si="0"/>
         <v>355383.51999999984</v>
       </c>
-      <c r="I34" s="245">
+      <c r="I34" s="205">
         <v>44495</v>
       </c>
-      <c r="J34" s="249">
+      <c r="J34" s="209">
         <v>2648</v>
       </c>
-      <c r="K34" s="250">
+      <c r="K34" s="210">
         <v>2623</v>
       </c>
       <c r="L34" s="140"/>
@@ -5988,7 +6118,7 @@
         <v>44504</v>
       </c>
       <c r="B35" s="139" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="69">
         <v>5926.3</v>
@@ -5999,13 +6129,13 @@
         <f t="shared" si="0"/>
         <v>361309.81999999983</v>
       </c>
-      <c r="I35" s="245">
+      <c r="I35" s="205">
         <v>44495</v>
       </c>
-      <c r="J35" s="249">
+      <c r="J35" s="209">
         <v>2653</v>
       </c>
-      <c r="K35" s="250">
+      <c r="K35" s="210">
         <v>740</v>
       </c>
       <c r="L35" s="140"/>
@@ -6020,7 +6150,7 @@
         <v>44505</v>
       </c>
       <c r="B36" s="139" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="69">
         <v>19420.8</v>
@@ -6031,13 +6161,13 @@
         <f t="shared" si="0"/>
         <v>380730.61999999982</v>
       </c>
-      <c r="I36" s="245">
+      <c r="I36" s="205">
         <v>44495</v>
       </c>
-      <c r="J36" s="251">
+      <c r="J36" s="211">
         <v>2655</v>
       </c>
-      <c r="K36" s="252">
+      <c r="K36" s="212">
         <v>1189</v>
       </c>
       <c r="L36" s="140"/>
@@ -6052,7 +6182,7 @@
         <v>44505</v>
       </c>
       <c r="B37" s="139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="69">
         <v>10233.200000000001</v>
@@ -6063,13 +6193,13 @@
         <f t="shared" si="0"/>
         <v>390963.81999999983</v>
       </c>
-      <c r="I37" s="245">
+      <c r="I37" s="205">
         <v>44496</v>
       </c>
-      <c r="J37" s="249">
+      <c r="J37" s="209">
         <v>2659</v>
       </c>
-      <c r="K37" s="250">
+      <c r="K37" s="210">
         <v>6711</v>
       </c>
       <c r="L37" s="140"/>
@@ -6084,7 +6214,7 @@
         <v>44506</v>
       </c>
       <c r="B38" s="139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="69">
         <v>15301.7</v>
@@ -6095,13 +6225,13 @@
         <f t="shared" si="0"/>
         <v>406265.51999999984</v>
       </c>
-      <c r="I38" s="245">
+      <c r="I38" s="205">
         <v>44497</v>
       </c>
-      <c r="J38" s="249">
+      <c r="J38" s="209">
         <v>2666</v>
       </c>
-      <c r="K38" s="250">
+      <c r="K38" s="210">
         <v>71111</v>
       </c>
       <c r="L38" s="140"/>
@@ -6116,7 +6246,7 @@
         <v>44506</v>
       </c>
       <c r="B39" s="139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="69">
         <v>3101.84</v>
@@ -6127,13 +6257,13 @@
         <f t="shared" si="0"/>
         <v>409367.35999999987</v>
       </c>
-      <c r="I39" s="245">
+      <c r="I39" s="205">
         <v>44497</v>
       </c>
-      <c r="J39" s="249">
+      <c r="J39" s="209">
         <v>2668</v>
       </c>
-      <c r="K39" s="250">
+      <c r="K39" s="210">
         <v>13525</v>
       </c>
       <c r="L39" s="140"/>
@@ -6148,7 +6278,7 @@
         <v>44506</v>
       </c>
       <c r="B40" s="139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="69">
         <v>81.599999999999994</v>
@@ -6159,13 +6289,13 @@
         <f t="shared" si="0"/>
         <v>409448.95999999985</v>
       </c>
-      <c r="I40" s="245">
+      <c r="I40" s="205">
         <v>44497</v>
       </c>
-      <c r="J40" s="249">
+      <c r="J40" s="209">
         <v>2669</v>
       </c>
-      <c r="K40" s="250">
+      <c r="K40" s="210">
         <v>7227</v>
       </c>
       <c r="L40" s="140"/>
@@ -6179,8 +6309,8 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="240" t="s">
-        <v>99</v>
+      <c r="B41" s="270" t="s">
+        <v>98</v>
       </c>
       <c r="C41" s="204">
         <v>-4472.5600000000004</v>
@@ -6191,13 +6321,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I41" s="245">
+      <c r="I41" s="205">
         <v>44497</v>
       </c>
-      <c r="J41" s="249">
+      <c r="J41" s="209">
         <v>2672</v>
       </c>
-      <c r="K41" s="250">
+      <c r="K41" s="210">
         <v>2618</v>
       </c>
       <c r="L41" s="140"/>
@@ -6209,9 +6339,9 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="241"/>
+        <v>99</v>
+      </c>
+      <c r="B42" s="271"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -6221,13 +6351,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I42" s="245">
+      <c r="I42" s="205">
         <v>44498</v>
       </c>
-      <c r="J42" s="249">
+      <c r="J42" s="209">
         <v>2675</v>
       </c>
-      <c r="K42" s="250">
+      <c r="K42" s="210">
         <v>8371</v>
       </c>
       <c r="L42" s="140"/>
@@ -6247,13 +6377,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I43" s="245">
+      <c r="I43" s="205">
         <v>44498</v>
       </c>
-      <c r="J43" s="249">
+      <c r="J43" s="209">
         <v>2676</v>
       </c>
-      <c r="K43" s="250">
+      <c r="K43" s="210">
         <v>753</v>
       </c>
       <c r="L43" s="140"/>
@@ -6273,13 +6403,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I44" s="245">
+      <c r="I44" s="205">
         <v>44498</v>
       </c>
-      <c r="J44" s="253" t="s">
-        <v>103</v>
-      </c>
-      <c r="K44" s="254">
+      <c r="J44" s="213" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" s="214">
         <v>-51341.58</v>
       </c>
       <c r="L44" s="140"/>
@@ -6299,13 +6429,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I45" s="245">
+      <c r="I45" s="205">
         <v>44499</v>
       </c>
-      <c r="J45" s="249">
+      <c r="J45" s="209">
         <v>2684</v>
       </c>
-      <c r="K45" s="250">
+      <c r="K45" s="210">
         <v>5240</v>
       </c>
       <c r="L45" s="140"/>
@@ -6325,13 +6455,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I46" s="245">
+      <c r="I46" s="205">
         <v>44501</v>
       </c>
-      <c r="J46" s="249">
+      <c r="J46" s="209">
         <v>2691</v>
       </c>
-      <c r="K46" s="250">
+      <c r="K46" s="210">
         <v>15576</v>
       </c>
       <c r="L46" s="140"/>
@@ -6351,13 +6481,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I47" s="245">
+      <c r="I47" s="205">
         <v>44501</v>
       </c>
-      <c r="J47" s="249">
+      <c r="J47" s="209">
         <v>2692</v>
       </c>
-      <c r="K47" s="250">
+      <c r="K47" s="210">
         <v>739</v>
       </c>
       <c r="L47" s="140"/>
@@ -6377,13 +6507,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I48" s="245">
+      <c r="I48" s="205">
         <v>44501</v>
       </c>
-      <c r="J48" s="249">
+      <c r="J48" s="209">
         <v>2693</v>
       </c>
-      <c r="K48" s="250">
+      <c r="K48" s="210">
         <v>623</v>
       </c>
       <c r="L48" s="140"/>
@@ -6403,13 +6533,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I49" s="245">
+      <c r="I49" s="205">
         <v>44502</v>
       </c>
-      <c r="J49" s="249">
+      <c r="J49" s="209">
         <v>2700</v>
       </c>
-      <c r="K49" s="250">
+      <c r="K49" s="210">
         <v>2636</v>
       </c>
       <c r="L49" s="140"/>
@@ -6429,13 +6559,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I50" s="245">
+      <c r="I50" s="205">
         <v>44502</v>
       </c>
-      <c r="J50" s="249">
+      <c r="J50" s="209">
         <v>2702</v>
       </c>
-      <c r="K50" s="250">
+      <c r="K50" s="210">
         <v>120</v>
       </c>
       <c r="L50" s="140"/>
@@ -6455,13 +6585,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I51" s="245">
+      <c r="I51" s="205">
         <v>44503</v>
       </c>
-      <c r="J51" s="249">
+      <c r="J51" s="209">
         <v>2711</v>
       </c>
-      <c r="K51" s="250">
+      <c r="K51" s="210">
         <v>14669</v>
       </c>
       <c r="L51" s="140"/>
@@ -6481,13 +6611,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I52" s="245">
+      <c r="I52" s="205">
         <v>44504</v>
       </c>
-      <c r="J52" s="249">
+      <c r="J52" s="209">
         <v>2712</v>
       </c>
-      <c r="K52" s="250">
+      <c r="K52" s="210">
         <v>2897</v>
       </c>
       <c r="L52" s="140"/>
@@ -6507,13 +6637,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I53" s="245">
+      <c r="I53" s="205">
         <v>44504</v>
       </c>
-      <c r="J53" s="249">
+      <c r="J53" s="209">
         <v>2717</v>
       </c>
-      <c r="K53" s="250">
+      <c r="K53" s="210">
         <v>360</v>
       </c>
       <c r="L53" s="140"/>
@@ -6533,13 +6663,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I54" s="245">
+      <c r="I54" s="205">
         <v>44505</v>
       </c>
-      <c r="J54" s="249">
+      <c r="J54" s="209">
         <v>2722</v>
       </c>
-      <c r="K54" s="250">
+      <c r="K54" s="210">
         <v>4820</v>
       </c>
       <c r="L54" s="140"/>
@@ -6559,13 +6689,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I55" s="245">
+      <c r="I55" s="205">
         <v>44505</v>
       </c>
-      <c r="J55" s="249">
+      <c r="J55" s="209">
         <v>2724</v>
       </c>
-      <c r="K55" s="250">
+      <c r="K55" s="210">
         <v>4925</v>
       </c>
       <c r="L55" s="140"/>
@@ -6585,13 +6715,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I56" s="245">
+      <c r="I56" s="205">
         <v>44506</v>
       </c>
-      <c r="J56" s="249">
+      <c r="J56" s="209">
         <v>2732</v>
       </c>
-      <c r="K56" s="250">
+      <c r="K56" s="210">
         <v>5</v>
       </c>
       <c r="L56" s="140"/>
@@ -6611,13 +6741,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I57" s="245">
+      <c r="I57" s="205">
         <v>44506</v>
       </c>
-      <c r="J57" s="249">
+      <c r="J57" s="209">
         <v>2733</v>
       </c>
-      <c r="K57" s="250">
+      <c r="K57" s="210">
         <v>6665</v>
       </c>
       <c r="L57" s="140"/>
@@ -6637,13 +6767,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I58" s="245">
+      <c r="I58" s="205">
         <v>44507</v>
       </c>
-      <c r="J58" s="249">
+      <c r="J58" s="209">
         <v>2738</v>
       </c>
-      <c r="K58" s="250">
+      <c r="K58" s="210">
         <v>646</v>
       </c>
       <c r="L58" s="140"/>
@@ -6663,13 +6793,13 @@
         <f t="shared" si="0"/>
         <v>404976.39999999985</v>
       </c>
-      <c r="I59" s="245">
+      <c r="I59" s="205">
         <v>44507</v>
       </c>
-      <c r="J59" s="253" t="s">
-        <v>103</v>
-      </c>
-      <c r="K59" s="254">
+      <c r="J59" s="213" t="s">
+        <v>102</v>
+      </c>
+      <c r="K59" s="214">
         <v>-34125.46</v>
       </c>
       <c r="L59" s="140"/>
@@ -6719,7 +6849,7 @@
         <v>513028.9599999999</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="134"/>
       <c r="B62" s="139"/>
       <c r="C62" s="69"/>
@@ -7421,8 +7551,8 @@
     </row>
     <row r="97" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="149"/>
-      <c r="B97" s="150"/>
-      <c r="C97" s="151">
+      <c r="B97" s="226"/>
+      <c r="C97" s="34">
         <v>0</v>
       </c>
       <c r="D97" s="152"/>
@@ -7444,8 +7574,8 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="98"/>
-      <c r="C98" s="1">
+      <c r="B98" s="227"/>
+      <c r="C98" s="228">
         <f>SUM(C3:C97)</f>
         <v>549976.39999999967</v>
       </c>
@@ -7458,7 +7588,7 @@
         <f>F97</f>
         <v>404976.39999999985</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K98" s="225">
         <f>SUM(K3:K97)</f>
         <v>513028.9599999999</v>
       </c>
@@ -7472,9 +7602,9 @@
         <v>513028.9599999999</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B99" s="98"/>
-      <c r="C99" s="1"/>
+    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="229"/>
+      <c r="C99" s="230"/>
       <c r="D99" s="97"/>
       <c r="E99" s="3"/>
       <c r="F99" s="1"/>
@@ -7499,7 +7629,7 @@
       <c r="B101" s="23"/>
       <c r="D101" s="23"/>
       <c r="I101"/>
-      <c r="J101" s="248"/>
+      <c r="J101" s="208"/>
       <c r="L101" s="23"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -7507,7 +7637,7 @@
       <c r="B102" s="23"/>
       <c r="D102" s="23"/>
       <c r="I102"/>
-      <c r="J102" s="248"/>
+      <c r="J102" s="208"/>
       <c r="L102" s="23"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -7515,7 +7645,7 @@
       <c r="B103" s="23"/>
       <c r="D103" s="23"/>
       <c r="I103"/>
-      <c r="J103" s="248"/>
+      <c r="J103" s="208"/>
       <c r="L103" s="23"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -7524,7 +7654,7 @@
       <c r="D104" s="23"/>
       <c r="F104"/>
       <c r="I104"/>
-      <c r="J104" s="248"/>
+      <c r="J104" s="208"/>
       <c r="L104" s="23"/>
       <c r="N104"/>
     </row>
@@ -7534,7 +7664,7 @@
       <c r="D105" s="23"/>
       <c r="F105"/>
       <c r="I105"/>
-      <c r="J105" s="248"/>
+      <c r="J105" s="208"/>
       <c r="L105" s="23"/>
       <c r="N105"/>
     </row>
@@ -7544,7 +7674,7 @@
       <c r="D106" s="23"/>
       <c r="F106"/>
       <c r="I106"/>
-      <c r="J106" s="248"/>
+      <c r="J106" s="208"/>
       <c r="L106" s="23"/>
       <c r="N106"/>
     </row>
@@ -7554,7 +7684,7 @@
       <c r="D107" s="23"/>
       <c r="F107"/>
       <c r="I107"/>
-      <c r="J107" s="248"/>
+      <c r="J107" s="208"/>
       <c r="L107" s="23"/>
       <c r="N107"/>
     </row>
@@ -7564,7 +7694,7 @@
       <c r="D108" s="23"/>
       <c r="F108"/>
       <c r="I108"/>
-      <c r="J108" s="248"/>
+      <c r="J108" s="208"/>
       <c r="L108" s="23"/>
       <c r="N108"/>
     </row>
@@ -7574,7 +7704,7 @@
       <c r="D109" s="23"/>
       <c r="F109"/>
       <c r="I109"/>
-      <c r="J109" s="248"/>
+      <c r="J109" s="208"/>
       <c r="L109" s="23"/>
       <c r="N109"/>
     </row>
@@ -7584,7 +7714,7 @@
       <c r="D110" s="23"/>
       <c r="F110"/>
       <c r="I110"/>
-      <c r="J110" s="248"/>
+      <c r="J110" s="208"/>
       <c r="L110" s="23"/>
       <c r="N110"/>
     </row>
@@ -7594,7 +7724,7 @@
       <c r="D111" s="23"/>
       <c r="F111"/>
       <c r="I111"/>
-      <c r="J111" s="248"/>
+      <c r="J111" s="208"/>
       <c r="L111" s="23"/>
       <c r="N111"/>
     </row>
@@ -7604,7 +7734,7 @@
       <c r="D112" s="23"/>
       <c r="F112"/>
       <c r="I112"/>
-      <c r="J112" s="248"/>
+      <c r="J112" s="208"/>
       <c r="L112" s="23"/>
       <c r="N112"/>
     </row>
@@ -7615,7 +7745,7 @@
       <c r="E113"/>
       <c r="F113"/>
       <c r="I113"/>
-      <c r="J113" s="248"/>
+      <c r="J113" s="208"/>
       <c r="L113" s="23"/>
       <c r="M113"/>
       <c r="N113"/>
@@ -7627,7 +7757,7 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="I114"/>
-      <c r="J114" s="248"/>
+      <c r="J114" s="208"/>
       <c r="L114" s="23"/>
       <c r="M114"/>
       <c r="N114"/>
@@ -7639,7 +7769,7 @@
       <c r="E115"/>
       <c r="F115"/>
       <c r="I115"/>
-      <c r="J115" s="248"/>
+      <c r="J115" s="208"/>
       <c r="L115" s="23"/>
       <c r="M115"/>
       <c r="N115"/>
@@ -7651,7 +7781,7 @@
       <c r="E116"/>
       <c r="F116"/>
       <c r="I116"/>
-      <c r="J116" s="248"/>
+      <c r="J116" s="208"/>
       <c r="L116" s="23"/>
       <c r="M116"/>
       <c r="N116"/>
@@ -7663,7 +7793,7 @@
       <c r="E117"/>
       <c r="F117"/>
       <c r="I117"/>
-      <c r="J117" s="248"/>
+      <c r="J117" s="208"/>
       <c r="L117" s="23"/>
       <c r="M117"/>
       <c r="N117"/>
@@ -7675,7 +7805,7 @@
       <c r="E118"/>
       <c r="F118"/>
       <c r="I118"/>
-      <c r="J118" s="248"/>
+      <c r="J118" s="208"/>
       <c r="L118" s="23"/>
       <c r="M118"/>
       <c r="N118"/>
@@ -7684,7 +7814,7 @@
       <c r="B119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119"/>
-      <c r="J119" s="248"/>
+      <c r="J119" s="208"/>
       <c r="L119" s="23"/>
       <c r="M119"/>
     </row>
@@ -7692,7 +7822,7 @@
       <c r="B120" s="23"/>
       <c r="D120" s="23"/>
       <c r="E120"/>
-      <c r="J120" s="248"/>
+      <c r="J120" s="208"/>
       <c r="L120" s="23"/>
       <c r="M120"/>
     </row>
@@ -7700,7 +7830,7 @@
       <c r="B121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121"/>
-      <c r="J121" s="248"/>
+      <c r="J121" s="208"/>
       <c r="L121" s="23"/>
       <c r="M121"/>
     </row>
@@ -7708,7 +7838,7 @@
       <c r="B122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122"/>
-      <c r="J122" s="248"/>
+      <c r="J122" s="208"/>
       <c r="L122" s="23"/>
       <c r="M122"/>
     </row>
@@ -7716,7 +7846,7 @@
       <c r="B123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123"/>
-      <c r="J123" s="248"/>
+      <c r="J123" s="208"/>
       <c r="L123" s="23"/>
       <c r="M123"/>
     </row>
@@ -7724,7 +7854,7 @@
       <c r="B124" s="23"/>
       <c r="D124" s="23"/>
       <c r="E124"/>
-      <c r="J124" s="248"/>
+      <c r="J124" s="208"/>
       <c r="L124" s="23"/>
       <c r="M124"/>
     </row>
@@ -7732,7 +7862,7 @@
       <c r="B125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125"/>
-      <c r="J125" s="248"/>
+      <c r="J125" s="208"/>
       <c r="L125" s="23"/>
       <c r="M125"/>
     </row>
@@ -7740,7 +7870,7 @@
       <c r="B126" s="23"/>
       <c r="D126" s="23"/>
       <c r="E126"/>
-      <c r="J126" s="248"/>
+      <c r="J126" s="208"/>
       <c r="L126" s="23"/>
       <c r="M126"/>
     </row>
@@ -7748,35 +7878,35 @@
       <c r="B127" s="23"/>
       <c r="D127" s="23"/>
       <c r="E127"/>
-      <c r="J127" s="248"/>
+      <c r="J127" s="208"/>
       <c r="L127" s="23"/>
       <c r="M127"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" s="23"/>
-      <c r="J128" s="248"/>
+      <c r="J128" s="208"/>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" s="23"/>
-      <c r="J129" s="248"/>
+      <c r="J129" s="208"/>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" s="23"/>
       <c r="D130" s="23"/>
-      <c r="J130" s="248"/>
+      <c r="J130" s="208"/>
       <c r="L130" s="23"/>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" s="23"/>
-      <c r="J131" s="248"/>
+      <c r="J131" s="208"/>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="23"/>
-      <c r="J132" s="248"/>
+      <c r="J132" s="208"/>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133" s="23"/>
-      <c r="J133" s="248"/>
+      <c r="J133" s="208"/>
     </row>
     <row r="134" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C134" s="154"/>
@@ -7840,19 +7970,19 @@
   <sheetData>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155"/>
-      <c r="B43" s="242" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="243"/>
-      <c r="D43" s="243"/>
-      <c r="E43" s="244"/>
+      <c r="B43" s="272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="273"/>
+      <c r="D43" s="273"/>
+      <c r="E43" s="274"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7860,16 +7990,16 @@
         <v>44501</v>
       </c>
       <c r="B44" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="158">
         <v>484.09</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" s="101">
         <v>333</v>
@@ -7879,16 +8009,16 @@
     <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="156"/>
       <c r="B45" s="157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="158">
         <v>0</v>
       </c>
       <c r="D45" s="161" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="160" t="s">
         <v>27</v>
-      </c>
-      <c r="E45" s="160" t="s">
-        <v>28</v>
       </c>
       <c r="F45" s="101">
         <v>0</v>
@@ -7898,16 +8028,16 @@
     <row r="46" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="156"/>
       <c r="B46" s="157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="158">
         <v>0</v>
       </c>
       <c r="D46" s="161" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="160" t="s">
         <v>27</v>
-      </c>
-      <c r="E46" s="160" t="s">
-        <v>28</v>
       </c>
       <c r="F46" s="101">
         <v>0</v>
@@ -7916,16 +8046,16 @@
     <row r="47" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="156"/>
       <c r="B47" s="157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="158">
         <v>0</v>
       </c>
       <c r="D47" s="161" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="160" t="s">
         <v>27</v>
-      </c>
-      <c r="E47" s="160" t="s">
-        <v>28</v>
       </c>
       <c r="F47" s="101">
         <v>0</v>
@@ -7934,16 +8064,16 @@
     <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="162"/>
       <c r="B48" s="157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="158">
         <v>0</v>
       </c>
       <c r="D48" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="160" t="s">
         <v>27</v>
-      </c>
-      <c r="E48" s="160" t="s">
-        <v>28</v>
       </c>
       <c r="F48" s="101">
         <v>0</v>
@@ -7952,16 +8082,16 @@
     <row r="49" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="162"/>
       <c r="B49" s="157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" s="158">
         <v>0</v>
       </c>
       <c r="D49" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="160" t="s">
         <v>27</v>
-      </c>
-      <c r="E49" s="160" t="s">
-        <v>28</v>
       </c>
       <c r="F49" s="101">
         <v>0</v>
@@ -7970,16 +8100,16 @@
     <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="162"/>
       <c r="B50" s="157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="158">
         <v>0</v>
       </c>
       <c r="D50" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="160" t="s">
         <v>27</v>
-      </c>
-      <c r="E50" s="160" t="s">
-        <v>28</v>
       </c>
       <c r="F50" s="101">
         <v>0</v>
@@ -7988,16 +8118,16 @@
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="164"/>
       <c r="B51" s="157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="158">
         <v>0</v>
       </c>
       <c r="D51" s="165" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="160" t="s">
         <v>27</v>
-      </c>
-      <c r="E51" s="160" t="s">
-        <v>28</v>
       </c>
       <c r="F51" s="101">
         <v>0</v>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE    ZAVALETA   OCTUBRE   2021.xlsx
@@ -2081,6 +2081,78 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2112,78 +2184,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2921,7 +2921,7 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -2947,23 +2947,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="235"/>
-      <c r="C1" s="237" t="s">
+      <c r="B1" s="259"/>
+      <c r="C1" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="236"/>
+      <c r="B2" s="260"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -2973,17 +2973,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="239" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="240"/>
+      <c r="B3" s="263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="264"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="241" t="s">
+      <c r="H3" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="241"/>
+      <c r="I3" s="265"/>
       <c r="K3" s="178"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -2997,14 +2997,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="243"/>
-      <c r="H4" s="244" t="s">
+      <c r="F4" s="267"/>
+      <c r="H4" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="245"/>
+      <c r="I4" s="269"/>
       <c r="J4" s="19"/>
       <c r="K4" s="179"/>
       <c r="L4" s="20"/>
@@ -3014,10 +3014,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="252"/>
+      <c r="Q4" s="241"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -4458,11 +4458,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="190"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="253">
+      <c r="M39" s="242">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="255">
+      <c r="N39" s="244">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -4488,8 +4488,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="254"/>
-      <c r="N40" s="256"/>
+      <c r="M40" s="243"/>
+      <c r="N40" s="245"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -4704,29 +4704,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="257" t="s">
+      <c r="H52" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="258"/>
+      <c r="I52" s="247"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="259">
+      <c r="K52" s="248">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="260"/>
-      <c r="M52" s="261">
+      <c r="L52" s="249"/>
+      <c r="M52" s="250">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="262"/>
+      <c r="N52" s="251"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="263" t="s">
+      <c r="D53" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="263"/>
+      <c r="E53" s="252"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -4737,22 +4737,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="263" t="s">
+      <c r="D54" s="252" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="263"/>
+      <c r="E54" s="252"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="264" t="s">
+      <c r="I54" s="253" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="265"/>
-      <c r="K54" s="266">
+      <c r="J54" s="254"/>
+      <c r="K54" s="255">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="267"/>
+      <c r="L54" s="256"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -4785,11 +4785,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="268">
+      <c r="K56" s="257">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="269"/>
+      <c r="L56" s="258"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -4806,22 +4806,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="246" t="s">
+      <c r="D58" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="247"/>
+      <c r="E58" s="236"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="248" t="s">
+      <c r="I58" s="237" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="249"/>
-      <c r="K58" s="250">
+      <c r="J58" s="238"/>
+      <c r="K58" s="239">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="250"/>
+      <c r="L58" s="239"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -4965,6 +4965,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -4979,12 +4985,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
